--- a/37_gradC.xlsx
+++ b/37_gradC.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="3_37degC_analysis_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -54,7 +54,7 @@
     <t>Kumuliert %</t>
   </si>
   <si>
-    <t>bigger</t>
+    <t>und größer</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Velocity at 37°C</a:t>
+              <a:t>Histogramm</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -682,173 +682,131 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'3_37degC_analysis_2'!$F$5:$F$30</c:f>
+              <c:f>'3_37degC_analysis_2'!$F$5:$F$23</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0,2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0,4</c:v>
+                  <c:v>0,3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0,6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,8</c:v>
+                  <c:v>0,9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1,2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1,2</c:v>
+                  <c:v>1,5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1,4</c:v>
+                  <c:v>1,8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1,6</c:v>
+                  <c:v>2,1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1,8</c:v>
+                  <c:v>2,4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2,7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2,2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2,4</c:v>
+                  <c:v>3,3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2,6</c:v>
+                  <c:v>3,6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2,8</c:v>
+                  <c:v>3,9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4,2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3,2</c:v>
+                  <c:v>4,5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3,4</c:v>
+                  <c:v>4,8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3,6</c:v>
+                  <c:v>5,1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3,8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4,2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4,4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4,6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4,8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>bigger</c:v>
+                  <c:v>und größer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3_37degC_analysis_2'!$G$5:$G$30</c:f>
+              <c:f>'3_37degC_analysis_2'!$G$5:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.9493177387914229E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1695906432748537E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3391812865497075E-2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8732943469785572E-2</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9415204678362568E-2</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23391812865497075</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25730994152046782</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1189083820662768</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3820662768031184E-2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9239766081871343E-2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8986354775828458E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5594541910331383E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5594541910331383E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8986354775828458E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9493177387914229E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8986354775828458E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9493177387914229E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9493177387914229E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.9493177387914229E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.8479532163742687E-3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,8 +821,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="205072312"/>
-        <c:axId val="205069568"/>
+        <c:axId val="453639472"/>
+        <c:axId val="453633984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -875,180 +833,144 @@
           <c:tx>
             <c:v>Kumuliert %</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln cap="rnd"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'3_37degC_analysis_2'!$F$5:$F$30</c:f>
+              <c:f>'3_37degC_analysis_2'!$F$5:$F$23</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0,2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0,4</c:v>
+                  <c:v>0,3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0,6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,8</c:v>
+                  <c:v>0,9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1,2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1,2</c:v>
+                  <c:v>1,5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1,4</c:v>
+                  <c:v>1,8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1,6</c:v>
+                  <c:v>2,1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1,8</c:v>
+                  <c:v>2,4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2,7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2,2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2,4</c:v>
+                  <c:v>3,3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2,6</c:v>
+                  <c:v>3,6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2,8</c:v>
+                  <c:v>3,9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4,2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3,2</c:v>
+                  <c:v>4,5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3,4</c:v>
+                  <c:v>4,8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3,6</c:v>
+                  <c:v>5,1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3,8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4,2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4,4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4,6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4,8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>bigger</c:v>
+                  <c:v>und größer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3_37degC_analysis_2'!$H$5:$H$30</c:f>
+              <c:f>'3_37degC_analysis_2'!$H$5:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.11790343708259456</c:v>
+                  <c:v>6.2408947291026001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20121498807539159</c:v>
+                  <c:v>0.15599533635788171</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.31020474861000213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43200702495302179</c:v>
+                  <c:v>0.49074664306988369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5434848335726975</c:v>
+                  <c:v>0.61764410722520657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61764410722520657</c:v>
+                  <c:v>0.61843112070904183</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63407908492728138</c:v>
+                  <c:v>0.49262498966346741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58803450022834292</c:v>
+                  <c:v>0.31218613460358274</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49262498966346741</c:v>
+                  <c:v>0.15739207142040981</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37280722753317846</c:v>
+                  <c:v>6.3128309667185092E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25486280627970265</c:v>
+                  <c:v>2.014362089415328E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15739207142040981</c:v>
+                  <c:v>5.11355565312377E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.7803836892352993E-2</c:v>
+                  <c:v>1.0327150436667152E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4248483439735885E-2</c:v>
+                  <c:v>1.6592433624850427E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.014362089415328E-2</c:v>
+                  <c:v>2.1208587411381053E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2838254875460433E-3</c:v>
+                  <c:v>2.1566787884761763E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0773620650842433E-3</c:v>
+                  <c:v>1.7447421755841502E-7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0327150436667152E-3</c:v>
+                  <c:v>1.1229207854757505E-8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.1306654754815593E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.5732813705503665E-5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1208587411381053E-5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.7394796467989598E-6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.5676181616820727E-7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.7447421755841502E-7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.8741732104009552E-8</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00%">
-                  <c:v>0</c:v>
+                  <c:v>5.7496187901430247E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1060,11 +982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205068600"/>
-        <c:axId val="205070744"/>
+        <c:axId val="453636336"/>
+        <c:axId val="453638296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205072312"/>
+        <c:axId val="453639472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,23 +1003,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>velocity [</a:t>
+                  <a:t>Klasse</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>μ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>m/s]</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1108,7 +1015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205069568"/>
+        <c:crossAx val="453633984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1116,7 +1023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205069568"/>
+        <c:axId val="453633984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1040,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>normed amount of incidents</a:t>
+                  <a:t>Häufigkeit</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1145,12 +1052,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205072312"/>
+        <c:crossAx val="453639472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205070744"/>
+        <c:axId val="453638296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,12 +1067,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205068600"/>
+        <c:crossAx val="453636336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="205068600"/>
+        <c:axId val="453636336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205070744"/>
+        <c:crossAx val="453638296"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1203,20 +1110,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1499,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q514"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1573,6 +1480,9 @@
         <f xml:space="preserve"> ($D2-$J$2)*($D2-$J$2)</f>
         <v>2.8083165997426864E-2</v>
       </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1602,15 +1512,8 @@
         <v>5.6166331994853727E-2</v>
       </c>
       <c r="N4">
-        <f xml:space="preserve"> 0.2 * $A2</f>
-        <v>0.2</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>_xlfn.NORM.DIST($P$4:$P$29,$J$2,$O$2,FALSE)</f>
-        <v>6.2408947291026001E-2</v>
+        <f xml:space="preserve"> 0.3 * $A2</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1628,30 +1531,29 @@
         <v>1.160342</v>
       </c>
       <c r="F5" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <f xml:space="preserve"> $G32 / $G$2</f>
-        <v>1.9493177387914229E-3</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H29" si="1">_xlfn.NORM.DIST($P$4:$P$29,$J$2,$O$2,FALSE)</f>
-        <v>0.11790343708259456</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>6.2408947291026001E-2</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L68" si="2" xml:space="preserve"> ($D3-$J$2)*($D3-$J$2) + $L4</f>
+        <f t="shared" ref="L5:L68" si="1" xml:space="preserve"> ($D3-$J$2)*($D3-$J$2) + $L4</f>
         <v>9.3127673737422645E-2</v>
       </c>
       <c r="N5">
-        <f xml:space="preserve"> 0.2 * $A3</f>
-        <v>0.4</v>
+        <f t="shared" ref="N5:N28" si="2" xml:space="preserve"> 0.3 * $A3</f>
+        <v>0.6</v>
       </c>
       <c r="P5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q29" si="3">_xlfn.NORM.DIST($P$4:$P$29,$J$2,$O$2,FALSE)</f>
-        <v>0.11790343708259456</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>6.2408947291026001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,30 +1571,29 @@
         <v>1.0916999999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G30" si="4" xml:space="preserve"> $G33 / $G$2</f>
-        <v>1.1695906432748537E-2</v>
+        <v>2</v>
       </c>
       <c r="H6">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.15599533635788171</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
-        <v>0.20121498807539159</v>
-      </c>
-      <c r="L6">
+        <v>0.10367996109502557</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="2"/>
-        <v>0.10367996109502557</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N27" si="5" xml:space="preserve"> 0.2 * $A4</f>
-        <v>0.60000000000000009</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="P6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>0.20121498807539159</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.15599533635788171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,29 +1611,28 @@
         <v>0.951789</v>
       </c>
       <c r="F7" s="1">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3391812865497075E-2</v>
+        <v>17</v>
       </c>
       <c r="H7">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.31020474861000213</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
-        <v>0.31020474861000213</v>
-      </c>
-      <c r="L7">
+        <v>0.14028648980764447</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="2"/>
-        <v>0.14028648980764447</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="P7">
         <v>0.6</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
         <v>0.31020474861000213</v>
       </c>
     </row>
@@ -1751,30 +1651,29 @@
         <v>0.85331400000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>0.8</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="4"/>
-        <v>4.8732943469785572E-2</v>
+        <v>46</v>
       </c>
       <c r="H8">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.49074664306988369</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>0.43200702495302179</v>
-      </c>
-      <c r="L8">
+        <v>0.20787106072813138</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="2"/>
-        <v>0.20787106072813138</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>0.43200702495302179</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.49074664306988369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,30 +1691,29 @@
         <v>1.309744</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="4"/>
-        <v>9.9415204678362568E-2</v>
+        <v>150</v>
       </c>
       <c r="H9">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.61764410722520657</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>0.5434848335726975</v>
-      </c>
-      <c r="L9">
+        <v>0.36777613641141227</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="2"/>
-        <v>0.36777613641141227</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="5"/>
-        <v>1.2000000000000002</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>0.5434848335726975</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.61764410722520657</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,30 +1731,29 @@
         <v>1.25834</v>
       </c>
       <c r="F10" s="1">
-        <v>1.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.23391812865497075</v>
+        <v>174</v>
       </c>
       <c r="H10">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.61843112070904183</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="1"/>
-        <v>0.61764410722520657</v>
-      </c>
-      <c r="L10">
+        <v>0.61613516507234312</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="2"/>
-        <v>0.61613516507234312</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
-        <v>1.4000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="P10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>0.61764410722520657</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.61843112070904183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,30 +1771,29 @@
         <v>1.5530839999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1.4000000000000001</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="4"/>
-        <v>0.25730994152046782</v>
+        <v>62</v>
       </c>
       <c r="H11">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.49262498966346741</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="1"/>
-        <v>0.63407908492728138</v>
-      </c>
-      <c r="L11">
+        <v>0.61789298196805409</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="2"/>
-        <v>0.61789298196805409</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="P11">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>0.63407908492728138</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.49262498966346741</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,30 +1811,29 @@
         <v>1.286289</v>
       </c>
       <c r="F12" s="1">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1189083820662768</v>
+        <v>25</v>
       </c>
       <c r="H12">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.31218613460358274</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="1"/>
-        <v>0.58803450022834292</v>
-      </c>
-      <c r="L12">
+        <v>0.62660353190598095</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="2"/>
-        <v>0.62660353190598095</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="P12">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>0.58803450022834292</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.31218613460358274</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,30 +1851,29 @@
         <v>1.0817589999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="4"/>
-        <v>8.3820662768031184E-2</v>
+        <v>18</v>
       </c>
       <c r="H13">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.15739207142040981</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
-        <v>0.49262498966346741</v>
-      </c>
-      <c r="L13">
+        <v>0.66717099957733184</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="2"/>
-        <v>0.66717099957733184</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>0.49262498966346741</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>0.15739207142040981</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,30 +1891,29 @@
         <v>0.98131100000000004</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="4"/>
-        <v>2.9239766081871343E-2</v>
+        <v>9</v>
       </c>
       <c r="H14">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>6.3128309667185092E-2</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="1"/>
-        <v>0.37280722753317846</v>
-      </c>
-      <c r="L14">
+        <v>0.67144571749761273</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="2"/>
-        <v>0.67144571749761273</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="5"/>
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>0.37280722753317846</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>6.3128309667185092E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,30 +1931,29 @@
         <v>0.64711300000000005</v>
       </c>
       <c r="F15" s="1">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="4"/>
-        <v>3.8986354775828458E-2</v>
+        <v>2</v>
       </c>
       <c r="H15">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>2.014362089415328E-2</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.25486280627970265</v>
-      </c>
-      <c r="L15">
+        <v>0.74429784194051363</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="2"/>
-        <v>0.74429784194051363</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>2.4000000000000004</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="P15">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
-        <v>0.25486280627970265</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>2.014362089415328E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,30 +1971,29 @@
         <v>1.192642</v>
       </c>
       <c r="F16" s="1">
-        <v>2.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5594541910331383E-2</v>
+        <v>2</v>
       </c>
       <c r="H16">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>5.11355565312377E-3</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="1"/>
-        <v>0.15739207142040981</v>
-      </c>
-      <c r="L16">
+        <v>0.88146387303640639</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="2"/>
-        <v>0.88146387303640639</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="P16">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
-        <v>0.15739207142040981</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>5.11355565312377E-3</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,30 +2011,29 @@
         <v>2.5556610000000002</v>
       </c>
       <c r="F17" s="1">
-        <v>2.6</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5594541910331383E-2</v>
+        <v>1</v>
       </c>
       <c r="H17">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>1.0327150436667152E-3</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="1"/>
-        <v>8.7803836892352993E-2</v>
-      </c>
-      <c r="L17">
+        <v>1.377864900065791</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="2"/>
-        <v>1.377864900065791</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="5"/>
-        <v>2.8000000000000003</v>
+        <v>4.2</v>
       </c>
       <c r="P17">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
-        <v>8.7803836892352993E-2</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>1.0327150436667152E-3</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,30 +2051,29 @@
         <v>1.6185849999999999</v>
       </c>
       <c r="F18" s="1">
-        <v>2.8000000000000003</v>
+        <v>3.9</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="4"/>
-        <v>3.8986354775828458E-3</v>
+        <v>0</v>
       </c>
       <c r="H18">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>1.6592433624850427E-4</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="1"/>
-        <v>4.4248483439735885E-2</v>
-      </c>
-      <c r="L18">
+        <v>1.4031549088542099</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="2"/>
-        <v>1.4031549088542099</v>
-      </c>
-      <c r="N18">
-        <f xml:space="preserve"> 0.2 * $A16</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P18">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
-        <v>4.4248483439735885E-2</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>1.6592433624850427E-4</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,30 +2091,29 @@
         <v>1.0153570000000001</v>
       </c>
       <c r="F19" s="1">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9493177387914229E-3</v>
+        <v>1</v>
       </c>
       <c r="H19">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>2.1208587411381053E-5</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="1"/>
-        <v>2.014362089415328E-2</v>
-      </c>
-      <c r="L19">
+        <v>2.8527484495252038</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="2"/>
-        <v>2.8527484495252038</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="5"/>
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
-        <v>2.014362089415328E-2</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>2.1208587411381053E-5</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,30 +2131,29 @@
         <v>1.4889540000000001</v>
       </c>
       <c r="F20" s="1">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="4"/>
-        <v>3.8986354775828458E-3</v>
+        <v>0</v>
       </c>
       <c r="H20">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>2.1566787884761763E-6</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="1"/>
-        <v>8.2838254875460433E-3</v>
-      </c>
-      <c r="L20">
+        <v>2.9239918921879009</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="2"/>
-        <v>2.9239918921879009</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="5"/>
-        <v>3.4000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P20">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="3"/>
-        <v>8.2838254875460433E-3</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>2.1566787884761763E-6</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,30 +2171,25 @@
         <v>1.2887839999999999</v>
       </c>
       <c r="F21" s="1">
-        <v>3.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>1.7447421755841502E-7</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="1"/>
-        <v>3.0773620650842433E-3</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="2"/>
         <v>3.0370985461057098</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="5"/>
-        <v>3.6</v>
-      </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="3"/>
-        <v>3.0773620650842433E-3</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>1.7447421755841502E-7</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,33 +2207,28 @@
         <v>1.0703320000000001</v>
       </c>
       <c r="F22" s="1">
-        <v>3.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9493177387914229E-3</v>
+        <v>1</v>
       </c>
       <c r="H22">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>1.1229207854757505E-8</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="1"/>
-        <v>1.0327150436667152E-3</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="2"/>
         <v>3.0559453529780809</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="5"/>
-        <v>3.8000000000000003</v>
-      </c>
       <c r="P22">
-        <v>3.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
-        <v>1.0327150436667152E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>1.1229207854757505E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2365,31 +2242,26 @@
       <c r="D23">
         <v>0.92791500000000005</v>
       </c>
-      <c r="F23" s="1">
-        <v>3.8000000000000003</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="F23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
       </c>
       <c r="H23">
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>5.7496187901430247E-10</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="1"/>
-        <v>3.1306654754815593E-4</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
         <v>3.0599000431016319</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="P23">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="3"/>
-        <v>3.1306654754815593E-4</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <v>5.7496187901430247E-10</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,31 +2278,15 @@
       <c r="D24">
         <v>1.3162529999999999</v>
       </c>
-      <c r="F24" s="1">
-        <v>4</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9493177387914229E-3</v>
-      </c>
-      <c r="H24">
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="L24">
         <f t="shared" si="1"/>
-        <v>8.5732813705503665E-5</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="2"/>
         <v>3.1390512973407909</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="5"/>
-        <v>4.2</v>
-      </c>
-      <c r="P24">
-        <v>4</v>
-      </c>
       <c r="Q24">
-        <f t="shared" si="3"/>
-        <v>8.5732813705503665E-5</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
+        <v>6.2408947291026001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,31 +2303,15 @@
       <c r="D25">
         <v>1.402989</v>
       </c>
-      <c r="F25" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="L25">
         <f t="shared" si="1"/>
-        <v>2.1208587411381053E-5</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="2"/>
         <v>3.3186198745016675</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P25">
-        <v>4.2</v>
-      </c>
       <c r="Q25">
-        <f t="shared" si="3"/>
-        <v>2.1208587411381053E-5</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
+        <v>6.2408947291026001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,31 +2328,15 @@
       <c r="D26">
         <v>1.7928630000000001</v>
       </c>
-      <c r="F26" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="L26">
         <f t="shared" si="1"/>
-        <v>4.7394796467989598E-6</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="2"/>
         <v>3.3198742615534926</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="5"/>
-        <v>4.6000000000000005</v>
-      </c>
-      <c r="P26">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="Q26">
-        <f t="shared" si="3"/>
-        <v>4.7394796467989598E-6</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
+        <v>6.2408947291026001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,31 +2353,15 @@
       <c r="D27">
         <v>1.3058590000000001</v>
       </c>
-      <c r="F27" s="1">
-        <v>4.6000000000000005</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="L27">
         <f t="shared" si="1"/>
-        <v>9.5676181616820727E-7</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="2"/>
         <v>3.3225078677519737</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="5"/>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="P27">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="Q27">
-        <f t="shared" si="3"/>
-        <v>9.5676181616820727E-7</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
+        <v>6.2408947291026001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,31 +2378,15 @@
       <c r="D28">
         <v>1.162965</v>
       </c>
-      <c r="F28" s="1">
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9493177387914229E-3</v>
-      </c>
-      <c r="H28">
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="L28">
         <f t="shared" si="1"/>
-        <v>1.7447421755841502E-7</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="2"/>
         <v>3.5171588424608586</v>
       </c>
-      <c r="N28">
-        <f xml:space="preserve"> 0.2 * $A26</f>
-        <v>5</v>
-      </c>
-      <c r="P28">
-        <v>4.8</v>
-      </c>
       <c r="Q28">
-        <f t="shared" si="3"/>
-        <v>1.7447421755841502E-7</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
+        <v>6.2408947291026001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,27 +2403,15 @@
       <c r="D29">
         <v>1.6133500000000001</v>
       </c>
-      <c r="F29" s="1">
-        <v>5</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="L29">
         <f t="shared" si="1"/>
-        <v>2.8741732104009552E-8</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="2"/>
         <v>3.5192575201423595</v>
       </c>
-      <c r="P29">
-        <v>5</v>
-      </c>
       <c r="Q29">
-        <f t="shared" si="3"/>
-        <v>2.8741732104009552E-8</v>
+        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
+        <v>6.2408947291026001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2648,18 +2428,11 @@
       <c r="D30">
         <v>1.6996690000000001</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="4"/>
-        <v>5.8479532163742687E-3</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="4"/>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.5548672205805363</v>
       </c>
     </row>
@@ -2678,7 +2451,7 @@
         <v>1.3335189999999999</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.6233434718419231</v>
       </c>
     </row>
@@ -2700,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.744446548251684</v>
       </c>
     </row>
@@ -2722,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.7447760189235448</v>
       </c>
     </row>
@@ -2744,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.7504329651033497</v>
       </c>
     </row>
@@ -2766,7 +2539,7 @@
         <v>25</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9101774328012127</v>
       </c>
     </row>
@@ -2788,7 +2561,7 @@
         <v>51</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9482116658316233</v>
       </c>
     </row>
@@ -2810,7 +2583,7 @@
         <v>120</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9546460040876861</v>
       </c>
     </row>
@@ -2832,7 +2605,7 @@
         <v>132</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9819242680240867</v>
       </c>
     </row>
@@ -2854,7 +2627,7 @@
         <v>61</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0969447338310561</v>
       </c>
     </row>
@@ -2876,7 +2649,7 @@
         <v>43</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.098585119346855</v>
       </c>
     </row>
@@ -2898,7 +2671,7 @@
         <v>15</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.1304753382209736</v>
       </c>
     </row>
@@ -2920,7 +2693,7 @@
         <v>20</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.1850304358758601</v>
       </c>
     </row>
@@ -2942,7 +2715,7 @@
         <v>8</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.2007060585620755</v>
       </c>
     </row>
@@ -2964,7 +2737,7 @@
         <v>8</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.2483370813194128</v>
       </c>
     </row>
@@ -2986,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.2564205885833513</v>
       </c>
     </row>
@@ -3008,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.2663055865351005</v>
       </c>
     </row>
@@ -3030,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.2785610345516236</v>
       </c>
     </row>
@@ -3052,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.2950204688920062</v>
       </c>
     </row>
@@ -3074,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.3494434458308113</v>
       </c>
     </row>
@@ -3096,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.3596275508859819</v>
       </c>
     </row>
@@ -3118,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.438401893553217</v>
       </c>
     </row>
@@ -3140,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4510841833584598</v>
       </c>
     </row>
@@ -3162,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5460290980372404</v>
       </c>
     </row>
@@ -3184,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0170084127048131</v>
       </c>
     </row>
@@ -3206,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.4931811042192589</v>
       </c>
     </row>
@@ -3228,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.13304298847161</v>
       </c>
     </row>
@@ -3250,7 +3023,7 @@
         <v>3</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.6226473261756347</v>
       </c>
     </row>
@@ -3269,7 +3042,7 @@
         <v>2.0114070000000002</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.6804848474948173</v>
       </c>
     </row>
@@ -3288,7 +3061,7 @@
         <v>0.78156800000000004</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.6806386985987078</v>
       </c>
     </row>
@@ -3307,7 +3080,7 @@
         <v>1.2362219999999999</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.1158911762998169</v>
       </c>
     </row>
@@ -3326,7 +3099,7 @@
         <v>1.6722619999999999</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.440907839550631</v>
       </c>
     </row>
@@ -3345,7 +3118,7 @@
         <v>1.3384739999999999</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.4542361557577301</v>
       </c>
     </row>
@@ -3364,7 +3137,7 @@
         <v>1.3378099999999999</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.5570151765546694</v>
       </c>
     </row>
@@ -3383,7 +3156,7 @@
         <v>0.96073399999999998</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.5571893196009601</v>
       </c>
     </row>
@@ -3402,7 +3175,7 @@
         <v>1.1448769999999999</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.5573814282655079</v>
       </c>
     </row>
@@ -3421,7 +3194,7 @@
         <v>1.1284069999999999</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.7102126400337596</v>
       </c>
     </row>
@@ -3440,13 +3213,13 @@
         <v>1.9167190000000001</v>
       </c>
       <c r="L67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.7529761201254885</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="6">1 + $A67</f>
+        <f t="shared" ref="A68:A131" si="3">1 + $A67</f>
         <v>67</v>
       </c>
       <c r="B68">
@@ -3459,13 +3232,13 @@
         <v>1.183856</v>
       </c>
       <c r="L68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.8028226333085975</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="B69">
@@ -3478,13 +3251,13 @@
         <v>1.3041240000000001</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L132" si="7" xml:space="preserve"> ($D67-$J$2)*($D67-$J$2) + $L68</f>
+        <f t="shared" ref="L69:L132" si="4" xml:space="preserve"> ($D67-$J$2)*($D67-$J$2) + $L68</f>
         <v>9.1221026361676589</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="B70">
@@ -3497,13 +3270,13 @@
         <v>1.1611180000000001</v>
       </c>
       <c r="L70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.1502642845141224</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B71">
@@ -3516,13 +3289,13 @@
         <v>1.3407370000000001</v>
       </c>
       <c r="L71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.1525249377253139</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B72">
@@ -3535,13 +3308,13 @@
         <v>1.3511709999999999</v>
       </c>
       <c r="L72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.188835127050428</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B73">
@@ -3554,13 +3327,13 @@
         <v>1.2522899999999999</v>
       </c>
       <c r="L73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.1889546646897173</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B74">
@@ -3573,13 +3346,13 @@
         <v>1.233665</v>
       </c>
       <c r="L74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.1889549140171702</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B75">
@@ -3592,13 +3365,13 @@
         <v>1.2041200000000001</v>
       </c>
       <c r="L75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.1988313634117969</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B76">
@@ -3611,13 +3384,13 @@
         <v>1.4323950000000001</v>
       </c>
       <c r="L76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.2127566206121738</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B77">
@@ -3630,13 +3403,13 @@
         <v>1.4564060000000001</v>
       </c>
       <c r="L77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.2345277196099804</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B78">
@@ -3649,13 +3422,13 @@
         <v>0.36982500000000001</v>
       </c>
       <c r="L78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.2410441924409366</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B79">
@@ -3668,13 +3441,13 @@
         <v>1.4602539999999999</v>
       </c>
       <c r="L79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.2520137536396998</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B80">
@@ -3687,13 +3460,13 @@
         <v>2.5231919999999999</v>
       </c>
       <c r="L80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>10.216033999791437</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B81">
@@ -3706,13 +3479,13 @@
         <v>0.32794499999999999</v>
       </c>
       <c r="L81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>10.227824413833607</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B82">
@@ -3725,13 +3498,13 @@
         <v>1.1981630000000001</v>
       </c>
       <c r="L82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>11.600287444142326</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="B83">
@@ -3744,13 +3517,13 @@
         <v>1.3977630000000001</v>
       </c>
       <c r="L83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.648300989283584</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B84">
@@ -3763,13 +3536,13 @@
         <v>1.147338</v>
       </c>
       <c r="L84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.671865488726269</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="B85">
@@ -3782,13 +3555,13 @@
         <v>1.0907340000000001</v>
       </c>
       <c r="L85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.673990023230553</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B86">
@@ -3801,13 +3574,13 @@
         <v>1.149967</v>
       </c>
       <c r="L86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.715741723087788</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="B87">
@@ -3820,13 +3593,13 @@
         <v>1.2358549999999999</v>
       </c>
       <c r="L87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.783829489836039</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="B88">
@@ -3839,13 +3612,13 @@
         <v>1.4198360000000001</v>
       </c>
       <c r="L88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.824513721958908</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B89">
@@ -3858,13 +3631,13 @@
         <v>1.0964739999999999</v>
       </c>
       <c r="L89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.837926911927026</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="B90">
@@ -3877,13 +3650,13 @@
         <v>1.142949</v>
       </c>
       <c r="L90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.842573470902568</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B91">
@@ -3896,13 +3669,13 @@
         <v>1.0209969999999999</v>
       </c>
       <c r="L91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.907698636216859</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B92">
@@ -3915,13 +3688,13 @@
         <v>1.475994</v>
       </c>
       <c r="L92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.951263228561499</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="B93">
@@ -3934,13 +3707,13 @@
         <v>0.85294700000000001</v>
       </c>
       <c r="L93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>13.060608077750748</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B94">
@@ -3953,13 +3726,13 @@
         <v>0.34786899999999998</v>
       </c>
       <c r="L94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>13.07606445341896</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="B95">
@@ -3972,13 +3745,13 @@
         <v>1.3395140000000001</v>
       </c>
       <c r="L95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>13.324789410312908</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B96">
@@ -3991,13 +3764,13 @@
         <v>1.298616</v>
       </c>
       <c r="L96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>14.332406514399869</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="B97">
@@ -4010,13 +3783,13 @@
         <v>1.1000829999999999</v>
       </c>
       <c r="L97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>14.332554290686</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="B98">
@@ -4029,13 +3802,13 @@
         <v>1.6221209999999999</v>
       </c>
       <c r="L98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>14.335369052299423</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99">
@@ -4048,13 +3821,13 @@
         <v>1.8766929999999999</v>
       </c>
       <c r="L99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>14.398665235406428</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100">
@@ -4067,13 +3840,13 @@
         <v>1.3308949999999999</v>
       </c>
       <c r="L100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>14.47180880193258</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101">
@@ -4086,13 +3859,13 @@
         <v>1.469357</v>
       </c>
       <c r="L101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>14.747457609096646</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B102">
@@ -4105,13 +3878,13 @@
         <v>1.431592</v>
       </c>
       <c r="L102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>14.747889223308603</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B103">
@@ -4124,13 +3897,13 @@
         <v>1.908536</v>
       </c>
       <c r="L103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>14.761739376310411</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B104">
@@ -4143,13 +3916,13 @@
         <v>1.908536</v>
       </c>
       <c r="L104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>14.76812685012553</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B105">
@@ -4162,13 +3935,13 @@
         <v>1.234661</v>
       </c>
       <c r="L105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>15.078226227891273</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B106">
@@ -4181,13 +3954,13 @@
         <v>0.80387799999999998</v>
       </c>
       <c r="L106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>15.388325605657016</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B107">
@@ -4200,13 +3973,13 @@
         <v>1.266413</v>
       </c>
       <c r="L107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>15.402016788262008</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B108">
@@ -4219,13 +3992,13 @@
         <v>1.229384</v>
       </c>
       <c r="L108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>15.702093221782084</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B109">
@@ -4238,13 +4011,13 @@
         <v>0.67819300000000005</v>
       </c>
       <c r="L109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>15.709362033589269</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B110">
@@ -4257,13 +4030,13 @@
         <v>1.283506</v>
       </c>
       <c r="L110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>15.724315979360419</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B111">
@@ -4276,13 +4049,13 @@
         <v>1.0880449999999999</v>
       </c>
       <c r="L111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.177887689343486</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B112">
@@ -4295,13 +4068,13 @@
         <v>1.165597</v>
       </c>
       <c r="L112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.182534064818849</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B113">
@@ -4314,13 +4087,13 @@
         <v>1.529304</v>
       </c>
       <c r="L113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.252032377854707</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B114">
@@ -4333,13 +4106,13 @@
         <v>1.5616920000000001</v>
       </c>
       <c r="L114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.286655660875557</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B115">
@@ -4352,13 +4125,13 @@
         <v>1.1952469999999999</v>
       </c>
       <c r="L115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.318209382659028</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B116">
@@ -4371,13 +4144,13 @@
         <v>1.366619</v>
       </c>
       <c r="L116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.362318485788748</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B117">
@@ -4390,13 +4163,13 @@
         <v>1.0977490000000001</v>
       </c>
       <c r="L117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.386786743018497</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="B118">
@@ -4409,13 +4182,13 @@
         <v>0.97537300000000005</v>
       </c>
       <c r="L118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.387010205842959</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="B119">
@@ -4428,13 +4201,13 @@
         <v>1.1394839999999999</v>
       </c>
       <c r="L119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.451486246148399</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B120">
@@ -4447,13 +4220,13 @@
         <v>1.034869</v>
       </c>
       <c r="L120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.593085924455742</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B121">
@@ -4466,13 +4239,13 @@
         <v>1.169287</v>
       </c>
       <c r="L121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.638108961821494</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="B122">
@@ -4485,13 +4258,13 @@
         <v>2.037385</v>
       </c>
       <c r="L122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.738472042610454</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="B123">
@@ -4504,13 +4277,13 @@
         <v>1.285949</v>
       </c>
       <c r="L123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.771735720578043</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="B124">
@@ -4523,13 +4296,13 @@
         <v>0.81172699999999998</v>
       </c>
       <c r="L124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>17.241940333345539</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="B125">
@@ -4542,13 +4315,13 @@
         <v>1.0786849999999999</v>
       </c>
       <c r="L125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>17.246259626168179</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B126">
@@ -4561,13 +4334,13 @@
         <v>1.7610730000000001</v>
       </c>
       <c r="L126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>17.537798422540007</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B127">
@@ -4580,13 +4353,13 @@
         <v>1.2347919999999999</v>
       </c>
       <c r="L127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>17.612319411297303</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="B128">
@@ -4599,13 +4372,13 @@
         <v>1.6041319999999999</v>
       </c>
       <c r="L128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>17.779929959956849</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="B129">
@@ -4618,13 +4391,13 @@
         <v>1.430137</v>
       </c>
       <c r="L129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>17.793590503279169</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="B130">
@@ -4637,13 +4410,13 @@
         <v>2.1430530000000001</v>
       </c>
       <c r="L130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>17.85732739961313</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="B131">
@@ -4656,13 +4429,13 @@
         <v>1.4665889999999999</v>
       </c>
       <c r="L131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>17.863484418384818</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
-        <f t="shared" ref="A132:A195" si="8">1 + $A131</f>
+        <f t="shared" ref="A132:A195" si="5">1 + $A131</f>
         <v>131</v>
       </c>
       <c r="B132">
@@ -4675,13 +4448,13 @@
         <v>0.99232600000000004</v>
       </c>
       <c r="L132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>18.489770953509442</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="B133">
@@ -4694,13 +4467,13 @@
         <v>1.5439750000000001</v>
       </c>
       <c r="L133">
-        <f t="shared" ref="L133:L196" si="9" xml:space="preserve"> ($D131-$J$2)*($D131-$J$2) + $L132</f>
+        <f t="shared" ref="L133:L196" si="6" xml:space="preserve"> ($D131-$J$2)*($D131-$J$2) + $L132</f>
         <v>18.502977254913525</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="B134">
@@ -4713,13 +4486,13 @@
         <v>1.687659</v>
       </c>
       <c r="L134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>18.632105600260608</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>134</v>
       </c>
       <c r="B135">
@@ -4732,13 +4505,13 @@
         <v>2.9271859999999998</v>
       </c>
       <c r="L135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>18.669086687518245</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="B136">
@@ -4751,13 +4524,13 @@
         <v>1.2296</v>
       </c>
       <c r="L136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>18.781975075902547</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="B137">
@@ -4770,13 +4543,13 @@
         <v>0.85358500000000004</v>
       </c>
       <c r="L137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>21.264224711771192</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="B138">
@@ -4789,13 +4562,13 @@
         <v>1.298797</v>
       </c>
       <c r="L138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>21.279125876505077</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="B139">
@@ -4808,13 +4581,13 @@
         <v>1.2825660000000001</v>
       </c>
       <c r="L139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>21.527214869477774</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="B140">
@@ -4827,13 +4600,13 @@
         <v>0.80595799999999995</v>
       </c>
       <c r="L140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>21.530010458185824</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="B141">
@@ -4846,13 +4619,13 @@
         <v>1.74983</v>
       </c>
       <c r="L141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>21.534785866195946</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="B142">
@@ -4865,13 +4638,13 @@
         <v>1.5714220000000001</v>
       </c>
       <c r="L142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>21.832587810035701</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
       <c r="B143">
@@ -4884,13 +4657,13 @@
         <v>1.186982</v>
       </c>
       <c r="L143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>21.991118935239168</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="B144">
@@ -4903,13 +4676,13 @@
         <v>1.4154850000000001</v>
       </c>
       <c r="L144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22.039409733025469</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="B145">
@@ -4922,13 +4695,13 @@
         <v>1.303787</v>
       </c>
       <c r="L145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22.066531978075528</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="B146">
@@ -4941,13 +4714,13 @@
         <v>1.0060560000000001</v>
       </c>
       <c r="L146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22.070604290565626</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
       <c r="B147">
@@ -4960,13 +4733,13 @@
         <v>1.131812</v>
       </c>
       <c r="L147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22.072897103570217</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="B148">
@@ -4979,13 +4752,13 @@
         <v>1.7569429999999999</v>
       </c>
       <c r="L148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22.192346366597878</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>148</v>
       </c>
       <c r="B149">
@@ -4998,13 +4771,13 @@
         <v>1.4839500000000001</v>
       </c>
       <c r="L149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22.240684050549117</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>149</v>
       </c>
       <c r="B150">
@@ -5017,13 +4790,13 @@
         <v>1.1665509999999999</v>
       </c>
       <c r="L150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22.404929990029682</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="B151">
@@ -5036,13 +4809,13 @@
         <v>0.62884600000000002</v>
       </c>
       <c r="L151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22.42242790191867</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>151</v>
       </c>
       <c r="B152">
@@ -5055,13 +4828,13 @@
         <v>0.71166600000000002</v>
       </c>
       <c r="L152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22.456697067147605</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>152</v>
       </c>
       <c r="B153">
@@ -5074,13 +4847,13 @@
         <v>0.86643099999999995</v>
       </c>
       <c r="L153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22.979172074850609</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>153</v>
       </c>
       <c r="B154">
@@ -5093,13 +4866,13 @@
         <v>0.96837499999999999</v>
       </c>
       <c r="L154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>23.388777613429333</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>154</v>
       </c>
       <c r="B155">
@@ -5112,13 +4885,13 @@
         <v>1.0735440000000001</v>
       </c>
       <c r="L155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>23.624234817896745</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="B156">
@@ -5131,13 +4904,13 @@
         <v>1.2197560000000001</v>
       </c>
       <c r="L156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>23.771150125596783</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="B157">
@@ -5150,13 +4923,13 @@
         <v>1.7363900000000001</v>
       </c>
       <c r="L157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>23.848504379367295</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
       <c r="B158">
@@ -5169,13 +4942,13 @@
         <v>1.4223129999999999</v>
       </c>
       <c r="L158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>23.865905769035159</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="B159">
@@ -5188,13 +4961,13 @@
         <v>1.2096439999999999</v>
       </c>
       <c r="L159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>24.013914995828387</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="B160">
@@ -5207,13 +4980,13 @@
         <v>0.77212700000000001</v>
       </c>
       <c r="L160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>24.018905383076973</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="B161">
@@ -5226,13 +4999,13 @@
         <v>1.8157719999999999</v>
       </c>
       <c r="L161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>24.039076860638083</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>161</v>
       </c>
       <c r="B162">
@@ -5245,13 +5018,13 @@
         <v>2.1026310000000001</v>
       </c>
       <c r="L162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>24.374947328508313</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="B163">
@@ -5264,13 +5037,13 @@
         <v>1.4767779999999999</v>
       </c>
       <c r="L163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>24.590337691389713</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="B164">
@@ -5283,13 +5056,13 @@
         <v>1.271798</v>
       </c>
       <c r="L164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>25.154279623782326</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="B165">
@@ -5302,13 +5075,13 @@
         <v>1.290432</v>
       </c>
       <c r="L165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>25.169931553625801</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="B166">
@@ -5321,13 +5094,13 @@
         <v>3.9862850000000001</v>
       </c>
       <c r="L166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>25.176311142246195</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="B167">
@@ -5340,13 +5113,13 @@
         <v>1.311245</v>
       </c>
       <c r="L167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>25.180061274939955</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="B168">
@@ -5359,13 +5132,13 @@
         <v>3.1558090000000001</v>
       </c>
       <c r="L168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>32.121255750126856</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="B169">
@@ -5378,13 +5151,13 @@
         <v>1.401427</v>
       </c>
       <c r="L169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>32.122889957189912</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>169</v>
       </c>
       <c r="B170">
@@ -5397,13 +5170,13 @@
         <v>0.37308000000000002</v>
       </c>
       <c r="L170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>35.377806308604114</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="B171">
@@ -5416,13 +5189,13 @@
         <v>1.2486170000000001</v>
       </c>
       <c r="L171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>35.380282035112145</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="B172">
@@ -5435,13 +5208,13 @@
         <v>1.0071619999999999</v>
       </c>
       <c r="L172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>36.337921063210111</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>172</v>
       </c>
       <c r="B173">
@@ -5454,13 +5227,13 @@
         <v>1.464971</v>
       </c>
       <c r="L173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>36.348541051415879</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>173</v>
       </c>
       <c r="B174">
@@ -5473,13 +5246,13 @@
         <v>1.4102349999999999</v>
       </c>
       <c r="L174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>36.467227038788216</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="B175">
@@ -5492,13 +5265,13 @@
         <v>0.693573</v>
       </c>
       <c r="L175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>36.480064081290472</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="B176">
@@ -5511,13 +5284,13 @@
         <v>0.56592600000000004</v>
       </c>
       <c r="L176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>36.483493902214072</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>176</v>
       </c>
       <c r="B177">
@@ -5530,13 +5303,13 @@
         <v>1.4383919999999999</v>
       </c>
       <c r="L177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>36.916585994018618</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>177</v>
       </c>
       <c r="B178">
@@ -5549,13 +5322,13 @@
         <v>1.07263</v>
       </c>
       <c r="L178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>37.5339801414313</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>178</v>
       </c>
       <c r="B179">
@@ -5568,13 +5341,13 @@
         <v>2.205857</v>
       </c>
       <c r="L179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>37.541500789999219</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>179</v>
       </c>
       <c r="B180">
@@ -5587,13 +5360,13 @@
         <v>1.1561079999999999</v>
       </c>
       <c r="L180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>37.619364294091483</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="B181">
@@ -5606,13 +5379,13 @@
         <v>1.093836</v>
       </c>
       <c r="L181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>38.348999166422288</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
       <c r="B182">
@@ -5625,13 +5398,13 @@
         <v>0.84937700000000005</v>
       </c>
       <c r="L182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>38.387243790163943</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="B183">
@@ -5644,13 +5417,13 @@
         <v>2.0922360000000002</v>
       </c>
       <c r="L183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>38.453722330343489</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
       <c r="B184">
@@ -5663,13 +5436,13 @@
         <v>1.282338</v>
       </c>
       <c r="L184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>38.706020916692218</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>184</v>
       </c>
       <c r="B185">
@@ -5682,13 +5455,13 @@
         <v>0.93862299999999999</v>
       </c>
       <c r="L185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>39.25445843271816</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="B186">
@@ -5701,13 +5474,13 @@
         <v>1.6875070000000001</v>
       </c>
       <c r="L186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>39.259265404285394</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
       <c r="B187">
@@ -5720,13 +5493,13 @@
         <v>1.6011310000000001</v>
       </c>
       <c r="L187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>39.429873498627238</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>187</v>
       </c>
       <c r="B188">
@@ -5739,13 +5512,13 @@
         <v>1.3756619999999999</v>
       </c>
       <c r="L188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>39.542659769558945</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>188</v>
       </c>
       <c r="B189">
@@ -5758,13 +5531,13 @@
         <v>1.0771580000000001</v>
       </c>
       <c r="L189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>39.604890396932561</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>189</v>
       </c>
       <c r="B190">
@@ -5777,13 +5550,13 @@
         <v>1.128436</v>
       </c>
       <c r="L190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>39.605465997305899</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="B191">
@@ -5796,13 +5569,13 @@
         <v>1.285615</v>
       </c>
       <c r="L191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>39.680823014980852</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>191</v>
       </c>
       <c r="B192">
@@ -5815,13 +5588,13 @@
         <v>0.822102</v>
       </c>
       <c r="L192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>39.730656579731992</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="B193">
@@ -5834,13 +5607,13 @@
         <v>1.433408</v>
       </c>
       <c r="L193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>39.735019885957065</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>193</v>
       </c>
       <c r="B194">
@@ -5853,13 +5626,13 @@
         <v>0.90191900000000003</v>
       </c>
       <c r="L194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>40.015462498918644</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>194</v>
       </c>
       <c r="B195">
@@ -5872,13 +5645,13 @@
         <v>2.366047</v>
       </c>
       <c r="L195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>40.022143546106101</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
-        <f t="shared" ref="A196:A259" si="10">1 + $A195</f>
+        <f t="shared" ref="A196:A259" si="7">1 + $A195</f>
         <v>195</v>
       </c>
       <c r="B196">
@@ -5891,13 +5664,13 @@
         <v>5.0841139999999996</v>
       </c>
       <c r="L196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>40.224419802244363</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>196</v>
       </c>
       <c r="B197">
@@ -5910,13 +5683,13 @@
         <v>1.1759299999999999</v>
       </c>
       <c r="L197">
-        <f t="shared" ref="L197:L260" si="11" xml:space="preserve"> ($D195-$J$2)*($D195-$J$2) + $L196</f>
+        <f t="shared" ref="L197:L260" si="8" xml:space="preserve"> ($D195-$J$2)*($D195-$J$2) + $L196</f>
         <v>41.253379836970915</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>197</v>
       </c>
       <c r="B198">
@@ -5929,13 +5702,13 @@
         <v>1.007571</v>
       </c>
       <c r="L198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>55.184515609088642</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>198</v>
       </c>
       <c r="B199">
@@ -5948,13 +5721,13 @@
         <v>1.707446</v>
       </c>
       <c r="L199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>55.215400271622705</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>199</v>
       </c>
       <c r="B200">
@@ -5967,13 +5740,13 @@
         <v>2.1826409999999998</v>
       </c>
       <c r="L200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>55.333804618464555</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="B201">
@@ -5986,13 +5759,13 @@
         <v>0.94038299999999997</v>
       </c>
       <c r="L201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>55.460380947963159</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>201</v>
       </c>
       <c r="B202">
@@ -6005,13 +5778,13 @@
         <v>1.1728829999999999</v>
       </c>
       <c r="L202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>56.150893207349235</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>202</v>
       </c>
       <c r="B203">
@@ -6024,13 +5797,13 @@
         <v>0.126749</v>
       </c>
       <c r="L203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>56.320050472700039</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>203</v>
       </c>
       <c r="B204">
@@ -6043,13 +5816,13 @@
         <v>0.89296500000000001</v>
       </c>
       <c r="L204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>56.352015380995844</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>204</v>
       </c>
       <c r="B205">
@@ -6062,13 +5835,13 @@
         <v>1.258961</v>
       </c>
       <c r="L205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>57.852447638335285</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>205</v>
       </c>
       <c r="B206">
@@ -6081,13 +5854,13 @@
         <v>0.80274699999999999</v>
       </c>
       <c r="L206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>58.062858215353465</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>206</v>
       </c>
       <c r="B207">
@@ -6100,13 +5873,13 @@
         <v>0.56369899999999995</v>
       </c>
       <c r="L207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>58.071453234666258</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>207</v>
       </c>
       <c r="B208">
@@ -6119,13 +5892,13 @@
         <v>0.76954800000000001</v>
       </c>
       <c r="L208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>58.372770053591005</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>208</v>
       </c>
       <c r="B209">
@@ -6138,13 +5911,13 @@
         <v>0.764069</v>
       </c>
       <c r="L209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>58.993668865765144</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>209</v>
       </c>
       <c r="B210">
@@ -6157,13 +5930,13 @@
         <v>1.2696890000000001</v>
       </c>
       <c r="L210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>59.332535269357038</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
       <c r="B211">
@@ -6176,13 +5949,13 @@
         <v>1.389845</v>
       </c>
       <c r="L211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>59.677810588849198</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>211</v>
       </c>
       <c r="B212">
@@ -6195,13 +5968,13 @@
         <v>1.594765</v>
       </c>
       <c r="L212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>59.684531526825879</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>212</v>
       </c>
       <c r="B213">
@@ -6214,13 +5987,13 @@
         <v>1.8599000000000001</v>
       </c>
       <c r="L213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>59.685988832484533</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>213</v>
       </c>
       <c r="B214">
@@ -6233,13 +6006,13 @@
         <v>1.4845010000000001</v>
       </c>
       <c r="L214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>59.745083852525511</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>214</v>
       </c>
       <c r="B215">
@@ -6252,13 +6025,13 @@
         <v>1.284745</v>
       </c>
       <c r="L215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.003381253043194</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>215</v>
       </c>
       <c r="B216">
@@ -6271,13 +6044,13 @@
         <v>1.2950889999999999</v>
       </c>
       <c r="L216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.021025240732826</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>216</v>
       </c>
       <c r="B217">
@@ -6290,13 +6063,13 @@
         <v>1.197902</v>
       </c>
       <c r="L217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.025504240126885</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>217</v>
       </c>
       <c r="B218">
@@ -6309,13 +6082,13 @@
         <v>0.998251</v>
       </c>
       <c r="L218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.028705686691964</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>218</v>
       </c>
       <c r="B219">
@@ -6328,13 +6101,13 @@
         <v>1.3674310000000001</v>
       </c>
       <c r="L219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.052350385080345</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>219</v>
       </c>
       <c r="B220">
@@ -6347,13 +6120,13 @@
         <v>1.1651640000000001</v>
       </c>
       <c r="L220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.177255605777475</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>220</v>
       </c>
       <c r="B221">
@@ -6366,13 +6139,13 @@
         <v>1.3370919999999999</v>
       </c>
       <c r="L221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.177504004590887</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>221</v>
       </c>
       <c r="B222">
@@ -6385,13 +6158,13 @@
         <v>0.85200299999999995</v>
       </c>
       <c r="L222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.212288614601917</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>222</v>
       </c>
       <c r="B223">
@@ -6404,13 +6177,13 @@
         <v>1.0443709999999999</v>
       </c>
       <c r="L223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.212501142220034</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>223</v>
       </c>
       <c r="B224">
@@ -6423,13 +6196,13 @@
         <v>1.385408</v>
       </c>
       <c r="L224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.462168579891362</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>224</v>
       </c>
       <c r="B225">
@@ -6442,13 +6215,13 @@
         <v>1.154013</v>
       </c>
       <c r="L225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.556601456266016</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>225</v>
       </c>
       <c r="B226">
@@ -6461,13 +6234,13 @@
         <v>1.705117</v>
       </c>
       <c r="L226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.557739686845473</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>226</v>
       </c>
       <c r="B227">
@@ -6480,13 +6253,13 @@
         <v>2.0327449999999998</v>
       </c>
       <c r="L227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.596808105762257</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>227</v>
       </c>
       <c r="B228">
@@ -6499,13 +6272,13 @@
         <v>1.413313</v>
       </c>
       <c r="L228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>60.721732656417025</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>228</v>
       </c>
       <c r="B229">
@@ -6518,13 +6291,13 @@
         <v>1.000213</v>
       </c>
       <c r="L229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>61.185595366619083</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>229</v>
       </c>
       <c r="B230">
@@ -6537,13 +6310,13 @@
         <v>1.7779739999999999</v>
       </c>
       <c r="L230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>61.189395185753668</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>230</v>
       </c>
       <c r="B231">
@@ -6556,13 +6329,13 @@
         <v>2.1818849999999999</v>
       </c>
       <c r="L231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>61.312917438455649</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>231</v>
       </c>
       <c r="B232">
@@ -6575,13 +6348,13 @@
         <v>2.0280749999999999</v>
       </c>
       <c r="L232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>61.494652260068939</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>232</v>
       </c>
       <c r="B233">
@@ -6594,13 +6367,13 @@
         <v>4.7384430000000002</v>
       </c>
       <c r="L233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>62.183908663333433</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>233</v>
       </c>
       <c r="B234">
@@ -6613,13 +6386,13 @@
         <v>2.3824649999999998</v>
       </c>
       <c r="L234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>62.641431944989669</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>234</v>
       </c>
       <c r="B235">
@@ -6632,13 +6405,13 @@
         <v>1.699227</v>
       </c>
       <c r="L235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>74.111661083569231</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>235</v>
       </c>
       <c r="B236">
@@ -6651,13 +6424,13 @@
         <v>1.255533</v>
       </c>
       <c r="L236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>75.174198741454404</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>236</v>
       </c>
       <c r="B237">
@@ -6670,13 +6443,13 @@
         <v>0.92276499999999995</v>
       </c>
       <c r="L237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>75.294994382401228</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>237</v>
       </c>
       <c r="B238">
@@ -6689,13 +6462,13 @@
         <v>0.91660699999999995</v>
       </c>
       <c r="L238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>75.304236768043936</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>238</v>
       </c>
       <c r="B239">
@@ -6708,13 +6481,13 @@
         <v>0.70760999999999996</v>
       </c>
       <c r="L239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>75.488196547572912</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>239</v>
       </c>
       <c r="B240">
@@ -6727,13 +6500,13 @@
         <v>1.2134750000000001</v>
       </c>
       <c r="L240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>75.677476646073217</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="B241">
@@ -6746,13 +6519,13 @@
         <v>1.0933040000000001</v>
       </c>
       <c r="L241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>76.092290350888561</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>241</v>
       </c>
       <c r="B242">
@@ -6765,13 +6538,13 @@
         <v>1.268554</v>
       </c>
       <c r="L242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>76.111388299293196</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>242</v>
       </c>
       <c r="B243">
@@ -6784,13 +6557,13 @@
         <v>0.56119300000000005</v>
       </c>
       <c r="L243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>76.178141458220665</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>243</v>
       </c>
       <c r="B244">
@@ -6803,13 +6576,13 @@
         <v>1.075577</v>
       </c>
       <c r="L244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>76.185049782034639</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>244</v>
       </c>
       <c r="B245">
@@ -6822,13 +6595,13 @@
         <v>1.40605</v>
       </c>
       <c r="L245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>76.809904186535704</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>245</v>
       </c>
       <c r="B246">
@@ -6841,13 +6614,13 @@
         <v>1.2711699999999999</v>
       </c>
       <c r="L246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>76.886131711749627</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>246</v>
       </c>
       <c r="B247">
@@ -6860,13 +6633,13 @@
         <v>0.82019900000000001</v>
       </c>
       <c r="L247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>76.889088860585218</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>247</v>
       </c>
       <c r="B248">
@@ -6879,13 +6652,13 @@
         <v>1.1695530000000001</v>
       </c>
       <c r="L248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>76.895569163232324</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>248</v>
       </c>
       <c r="B249">
@@ -6898,13 +6671,13 @@
         <v>5.9686680000000001</v>
       </c>
       <c r="L249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>77.178030934655467</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>249</v>
       </c>
       <c r="B250">
@@ -6917,13 +6690,13 @@
         <v>1.0850960000000001</v>
       </c>
       <c r="L250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>77.211197655449098</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="B251">
@@ -6936,13 +6709,13 @@
         <v>1.359248</v>
       </c>
       <c r="L251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>98.527865167936511</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>251</v>
       </c>
       <c r="B252">
@@ -6955,13 +6728,13 @@
         <v>1.0205200000000001</v>
       </c>
       <c r="L252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>98.598927039752013</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>252</v>
       </c>
       <c r="B253">
@@ -6974,13 +6747,13 @@
         <v>1.4182600000000001</v>
       </c>
       <c r="L253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>98.598984460880104</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>253</v>
       </c>
       <c r="B254">
@@ -6993,13 +6766,13 @@
         <v>1.6192610000000001</v>
       </c>
       <c r="L254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>98.708644999952313</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>254</v>
       </c>
       <c r="B255">
@@ -7012,13 +6785,13 @@
         <v>1.4580090000000001</v>
       </c>
       <c r="L255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>98.713079184502561</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>255</v>
       </c>
       <c r="B256">
@@ -7031,13 +6804,13 @@
         <v>1.3977280000000001</v>
       </c>
       <c r="L256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>98.784683952779147</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="B257">
@@ -7050,13 +6823,13 @@
         <v>1.2045710000000001</v>
       </c>
       <c r="L257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>98.795991866154552</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>257</v>
       </c>
       <c r="B258">
@@ -7069,13 +6842,13 @@
         <v>1.1794770000000001</v>
       </c>
       <c r="L258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>98.798113175396722</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>258</v>
       </c>
       <c r="B259">
@@ -7088,13 +6861,13 @@
         <v>1.6841299999999999</v>
       </c>
       <c r="L259">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>98.819751387400572</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
-        <f t="shared" ref="A260:A323" si="12">1 + $A259</f>
+        <f t="shared" ref="A260:A323" si="9">1 + $A259</f>
         <v>259</v>
       </c>
       <c r="B260">
@@ -7107,13 +6880,13 @@
         <v>2.4721030000000002</v>
       </c>
       <c r="L260">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>98.849401929263905</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="B261">
@@ -7126,13 +6899,13 @@
         <v>1.221157</v>
       </c>
       <c r="L261">
-        <f t="shared" ref="L261:L324" si="13" xml:space="preserve"> ($D259-$J$2)*($D259-$J$2) + $L260</f>
+        <f t="shared" ref="L261:L324" si="10" xml:space="preserve"> ($D259-$J$2)*($D259-$J$2) + $L260</f>
         <v>98.959931363435174</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>261</v>
       </c>
       <c r="B262">
@@ -7145,13 +6918,13 @@
         <v>3.031838</v>
       </c>
       <c r="L262">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>100.2153007381611</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>262</v>
       </c>
       <c r="B263">
@@ -7164,13 +6937,13 @@
         <v>1.239298</v>
       </c>
       <c r="L263">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>100.23233446668571</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>263</v>
       </c>
       <c r="B264">
@@ -7183,13 +6956,13 @@
         <v>0.95549600000000001</v>
       </c>
       <c r="L264">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>103.05529787607995</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="B265">
@@ -7202,13 +6975,13 @@
         <v>1.291749</v>
       </c>
       <c r="L265">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>103.06792541595534</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>265</v>
       </c>
       <c r="B266">
@@ -7221,13 +6994,13 @@
         <v>1.6986889999999999</v>
       </c>
       <c r="L266">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>103.22487951332924</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>266</v>
       </c>
       <c r="B267">
@@ -7240,13 +7013,13 @@
         <v>2.0141779999999998</v>
       </c>
       <c r="L267">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>103.22847007875868</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>267</v>
       </c>
       <c r="B268">
@@ -7259,13 +7032,13 @@
         <v>1.2872410000000001</v>
       </c>
       <c r="L268">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>103.34889203816935</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>268</v>
       </c>
       <c r="B269">
@@ -7278,13 +7051,13 @@
         <v>0.73282400000000003</v>
       </c>
       <c r="L269">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>103.78780845495322</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>269</v>
       </c>
       <c r="B270">
@@ -7297,13 +7070,13 @@
         <v>0.98244200000000004</v>
       </c>
       <c r="L270">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>103.7919595931309</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>270</v>
       </c>
       <c r="B271">
@@ -7316,13 +7089,13 @@
         <v>1.2786550000000001</v>
       </c>
       <c r="L271">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104.17493036957229</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>271</v>
       </c>
       <c r="B272">
@@ -7335,13 +7108,13 @@
         <v>1.420194</v>
       </c>
       <c r="L272">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104.31125992703151</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>272</v>
       </c>
       <c r="B273">
@@ -7354,13 +7127,13 @@
         <v>1.5144569999999999</v>
       </c>
       <c r="L273">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104.31659116500843</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>273</v>
       </c>
       <c r="B274">
@@ -7373,13 +7146,13 @@
         <v>1.529102</v>
       </c>
       <c r="L274">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104.32128665876985</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>274</v>
       </c>
       <c r="B275">
@@ -7392,13 +7165,13 @@
         <v>1.2520469999999999</v>
       </c>
       <c r="L275">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104.34778615967626</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>275</v>
       </c>
       <c r="B276">
@@ -7411,13 +7184,13 @@
         <v>1.409924</v>
       </c>
       <c r="L276">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104.37926815825983</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>276</v>
       </c>
       <c r="B277">
@@ -7430,13 +7203,13 @@
         <v>2.5985559999999999</v>
       </c>
       <c r="L277">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104.38919296554238</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>277</v>
       </c>
       <c r="B278">
@@ -7449,13 +7222,13 @@
         <v>1.108598</v>
       </c>
       <c r="L278">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104.39258645596037</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>278</v>
       </c>
       <c r="B279">
@@ -7468,13 +7241,13 @@
         <v>1.227649</v>
       </c>
       <c r="L279">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>105.94731033749304</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>279</v>
       </c>
       <c r="B280">
@@ -7487,13 +7260,13 @@
         <v>1.185316</v>
       </c>
       <c r="L280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>106.00639449364623</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="B281">
@@ -7506,13 +7279,13 @@
         <v>1.4122589999999999</v>
       </c>
       <c r="L281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>106.02177578319707</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>281</v>
       </c>
       <c r="B282">
@@ -7525,13 +7298,13 @@
         <v>2.5899800000000002</v>
       </c>
       <c r="L282">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>106.04944954530869</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>282</v>
       </c>
       <c r="B283">
@@ -7544,13 +7317,13 @@
         <v>0.98591499999999999</v>
       </c>
       <c r="L283">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>106.05312053260459</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>283</v>
       </c>
       <c r="B284">
@@ -7563,13 +7336,13 @@
         <v>0.88228300000000004</v>
       </c>
       <c r="L284">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>107.58653137884997</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>284</v>
       </c>
       <c r="B285">
@@ -7582,13 +7355,13 @@
         <v>0.61996700000000005</v>
       </c>
       <c r="L285">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>107.72030833807885</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>285</v>
       </c>
       <c r="B286">
@@ -7601,13 +7374,13 @@
         <v>1.2686900000000001</v>
       </c>
       <c r="L286">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>107.94063280082706</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>286</v>
       </c>
       <c r="B287">
@@ -7620,13 +7393,13 @@
         <v>1.5464389999999999</v>
       </c>
       <c r="L287">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>108.47602255956993</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>287</v>
       </c>
       <c r="B288">
@@ -7639,13 +7412,13 @@
         <v>1.283139</v>
       </c>
       <c r="L288">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>108.48290829423895</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>288</v>
       </c>
       <c r="B289">
@@ -7658,13 +7431,13 @@
         <v>1.689867</v>
       </c>
       <c r="L289">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>108.52084313022114</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>289</v>
       </c>
       <c r="B290">
@@ -7677,13 +7450,13 @@
         <v>1.150631</v>
       </c>
       <c r="L290">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>108.52553967300152</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>290</v>
       </c>
       <c r="B291">
@@ -7696,13 +7469,13 @@
         <v>1.1502019999999999</v>
       </c>
       <c r="L291">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>108.63991666262979</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="B292">
@@ -7715,13 +7488,13 @@
         <v>0.72569899999999998</v>
       </c>
       <c r="L292">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>108.6803334736304</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="B293">
@@ -7734,13 +7507,13 @@
         <v>1.1904440000000001</v>
       </c>
       <c r="L293">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>108.72092296041458</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="B294">
@@ -7753,13 +7526,13 @@
         <v>1.198258</v>
       </c>
       <c r="L294">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109.11276306264072</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>294</v>
       </c>
       <c r="B295">
@@ -7772,13 +7545,13 @@
         <v>1.203473</v>
       </c>
       <c r="L295">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109.13875699115863</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>295</v>
       </c>
       <c r="B296">
@@ -7791,13 +7564,13 @@
         <v>1.4140010000000001</v>
       </c>
       <c r="L296">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109.16229233323419</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="B297">
@@ -7810,13 +7583,13 @@
         <v>1.3297410000000001</v>
       </c>
       <c r="L297">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109.18425478096414</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>297</v>
       </c>
       <c r="B298">
@@ -7829,13 +7602,13 @@
         <v>1.3299110000000001</v>
       </c>
       <c r="L298">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109.18813989376078</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>298</v>
       </c>
       <c r="B299">
@@ -7848,13 +7621,13 @@
         <v>1.128252</v>
       </c>
       <c r="L299">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109.18862078914346</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>299</v>
       </c>
       <c r="B300">
@@ -7867,13 +7640,13 @@
         <v>1.229303</v>
       </c>
       <c r="L300">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109.18909425745495</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="B301">
@@ -7886,13 +7659,13 @@
         <v>1.9649300000000001</v>
       </c>
       <c r="L301">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109.23901000629444</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>301</v>
       </c>
       <c r="B302">
@@ -7905,13 +7678,13 @@
         <v>2.078182</v>
       </c>
       <c r="L302">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109.25398376901155</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>302</v>
       </c>
       <c r="B303">
@@ -7924,13 +7697,13 @@
         <v>1.2080059999999999</v>
       </c>
       <c r="L303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109.63007119553963</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>303</v>
       </c>
       <c r="B304">
@@ -7943,13 +7716,13 @@
         <v>1.018694</v>
       </c>
       <c r="L304">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>110.15789040654489</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>304</v>
       </c>
       <c r="B305">
@@ -7962,13 +7735,13 @@
         <v>0.47046500000000002</v>
       </c>
       <c r="L305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>110.17852984539725</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>305</v>
       </c>
       <c r="B306">
@@ -7981,13 +7754,13 @@
         <v>1.2959529999999999</v>
       </c>
       <c r="L306">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>110.28940307973966</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>306</v>
       </c>
       <c r="B307">
@@ -8000,13 +7773,13 @@
         <v>1.159524</v>
       </c>
       <c r="L307">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>111.06592590807283</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>307</v>
       </c>
       <c r="B308">
@@ -8019,13 +7792,13 @@
         <v>1.4368179999999999</v>
       </c>
       <c r="L308">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>111.06903032860085</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>308</v>
       </c>
       <c r="B309">
@@ -8038,13 +7811,13 @@
         <v>2.1692209999999998</v>
       </c>
       <c r="L309">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>111.10595053958043</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>309</v>
       </c>
       <c r="B310">
@@ -8057,13 +7830,13 @@
         <v>1.4738819999999999</v>
       </c>
       <c r="L310">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>111.11320066579775</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>310</v>
       </c>
       <c r="B311">
@@ -8076,13 +7849,13 @@
         <v>1.6567460000000001</v>
       </c>
       <c r="L311">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>111.78158976872051</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>311</v>
       </c>
       <c r="B312">
@@ -8095,13 +7868,13 @@
         <v>1.90219</v>
       </c>
       <c r="L312">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>111.79652546173797</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>312</v>
       </c>
       <c r="B313">
@@ -8114,13 +7887,13 @@
         <v>1.073628</v>
       </c>
       <c r="L313">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>111.88959662799438</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>313</v>
       </c>
       <c r="B314">
@@ -8133,13 +7906,13 @@
         <v>0.84337499999999999</v>
       </c>
       <c r="L314">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>112.19266853835441</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>314</v>
       </c>
       <c r="B315">
@@ -8152,13 +7925,13 @@
         <v>1.3068070000000001</v>
       </c>
       <c r="L315">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>112.26997607395799</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>315</v>
       </c>
       <c r="B316">
@@ -8171,13 +7944,13 @@
         <v>1.272864</v>
       </c>
       <c r="L316">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>112.52834021340803</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>316</v>
       </c>
       <c r="B317">
@@ -8190,13 +7963,13 @@
         <v>1.7070609999999999</v>
       </c>
       <c r="L317">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>112.53035293151754</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>317</v>
       </c>
       <c r="B318">
@@ -8209,13 +7982,13 @@
         <v>1.0431889999999999</v>
       </c>
       <c r="L318">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>112.53656336869277</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>318</v>
       </c>
       <c r="B319">
@@ -8228,13 +8001,13 @@
         <v>1.479956</v>
       </c>
       <c r="L319">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>112.66286589914816</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>319</v>
       </c>
       <c r="B320">
@@ -8247,13 +8020,13 @@
         <v>1.3591610000000001</v>
       </c>
       <c r="L320">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>112.75802662825583</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>320</v>
       </c>
       <c r="B321">
@@ -8266,13 +8039,13 @@
         <v>2.265269</v>
       </c>
       <c r="L321">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>112.7744838421529</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>321</v>
       </c>
       <c r="B322">
@@ -8285,13 +8058,13 @@
         <v>2.5526529999999998</v>
       </c>
       <c r="L322">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>112.77453995233489</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>322</v>
       </c>
       <c r="B323">
@@ -8304,13 +8077,13 @@
         <v>1.235771</v>
       </c>
       <c r="L323">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>113.60920248764225</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324">
-        <f t="shared" ref="A324:A387" si="14">1 + $A323</f>
+        <f t="shared" ref="A324:A387" si="11">1 + $A323</f>
         <v>323</v>
       </c>
       <c r="B324">
@@ -8323,13 +8096,13 @@
         <v>1.086185</v>
       </c>
       <c r="L324">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>115.05156186848848</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>324</v>
       </c>
       <c r="B325">
@@ -8342,13 +8115,13 @@
         <v>0.74383699999999997</v>
       </c>
       <c r="L325">
-        <f t="shared" ref="L325:L388" si="15" xml:space="preserve"> ($D323-$J$2)*($D323-$J$2) + $L324</f>
+        <f t="shared" ref="L325:L388" si="12" xml:space="preserve"> ($D323-$J$2)*($D323-$J$2) + $L324</f>
         <v>115.06499452248752</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>325</v>
       </c>
       <c r="B326">
@@ -8361,13 +8134,13 @@
         <v>1.9039820000000001</v>
       </c>
       <c r="L326">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>115.13547698133982</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>326</v>
       </c>
       <c r="B327">
@@ -8380,13 +8153,13 @@
         <v>0.61463100000000004</v>
       </c>
       <c r="L327">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>115.50493833475171</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>327</v>
       </c>
       <c r="B328">
@@ -8399,13 +8172,13 @@
         <v>0.90281500000000003</v>
       </c>
       <c r="L328">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>115.80998651888378</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>328</v>
       </c>
       <c r="B329">
@@ -8418,13 +8191,13 @@
         <v>0.45140799999999998</v>
       </c>
       <c r="L329">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>116.35321348842839</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>329</v>
       </c>
       <c r="B330">
@@ -8437,13 +8210,13 @@
         <v>0.94969499999999996</v>
       </c>
       <c r="L330">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>116.55468459300467</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>330</v>
       </c>
       <c r="B331">
@@ -8456,13 +8229,13 @@
         <v>1.555471</v>
       </c>
       <c r="L331">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>117.36515685042012</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>331</v>
       </c>
       <c r="B332">
@@ -8475,13 +8248,13 @@
         <v>2.6020970000000001</v>
       </c>
       <c r="L332">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>117.52674101393687</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>332</v>
       </c>
       <c r="B333">
@@ -8494,13 +8267,13 @@
         <v>1.629097</v>
       </c>
       <c r="L333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>117.56827572825212</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>333</v>
       </c>
       <c r="B334">
@@ -8513,13 +8286,13 @@
         <v>1.169942</v>
       </c>
       <c r="L334">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>119.13184259280197</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>334</v>
       </c>
       <c r="B335">
@@ -8532,13 +8305,13 @@
         <v>1.3144899999999999</v>
       </c>
       <c r="L335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>119.20880815169382</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>335</v>
       </c>
       <c r="B336">
@@ -8551,13 +8324,13 @@
         <v>1.2593350000000001</v>
       </c>
       <c r="L336">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>119.24183333652803</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>336</v>
       </c>
       <c r="B337">
@@ -8570,13 +8343,13 @@
         <v>1.316875</v>
       </c>
       <c r="L337">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>119.24321571324386</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>337</v>
       </c>
       <c r="B338">
@@ -8589,13 +8362,13 @@
         <v>8.2505740000000003</v>
       </c>
       <c r="L338">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>119.25174152585605</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>338</v>
       </c>
       <c r="B339">
@@ -8608,13 +8381,13 @@
         <v>0.78446800000000005</v>
       </c>
       <c r="L339">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>119.25295224063709</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>339</v>
       </c>
       <c r="B340">
@@ -8627,13 +8400,13 @@
         <v>1.1708730000000001</v>
       </c>
       <c r="L340">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>166.84782412996998</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="B341">
@@ -8646,13 +8419,13 @@
         <v>1.103861</v>
       </c>
       <c r="L341">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>167.1695426097242</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>341</v>
       </c>
       <c r="B342">
@@ -8665,13 +8438,13 @@
         <v>2.0328529999999998</v>
       </c>
       <c r="L342">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>167.20223028317454</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>342</v>
       </c>
       <c r="B343">
@@ -8684,13 +8457,13 @@
         <v>1.0299050000000001</v>
       </c>
       <c r="L343">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>167.26363974572274</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>343</v>
       </c>
       <c r="B344">
@@ -8703,13 +8476,13 @@
         <v>1.125092</v>
       </c>
       <c r="L344">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>167.72764957971816</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>344</v>
       </c>
       <c r="B345">
@@ -8722,13 +8495,13 @@
         <v>1.8346549999999999</v>
       </c>
       <c r="L345">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>167.83118250537757</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>345</v>
       </c>
       <c r="B346">
@@ -8741,13 +8514,13 @@
         <v>2.7690320000000002</v>
       </c>
       <c r="L346">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>167.88252024364368</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>346</v>
       </c>
       <c r="B347">
@@ -8760,13 +8533,13 @@
         <v>3.4699010000000001</v>
       </c>
       <c r="L347">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>168.11579443799661</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>347</v>
       </c>
       <c r="B348">
@@ -8779,13 +8552,13 @@
         <v>1.1267849999999999</v>
       </c>
       <c r="L348">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>170.12470855008598</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>348</v>
       </c>
       <c r="B349">
@@ -8798,13 +8571,13 @@
         <v>1.1732860000000001</v>
       </c>
       <c r="L349">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>174.61160973412402</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>349</v>
       </c>
       <c r="B350">
@@ -8817,13 +8590,13 @@
         <v>1.6021319999999999</v>
       </c>
       <c r="L350">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>174.66218314442392</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>350</v>
       </c>
       <c r="B351">
@@ -8836,13 +8609,13 @@
         <v>1.7449129999999999</v>
       </c>
       <c r="L351">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>174.69400411254315</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>351</v>
       </c>
       <c r="B352">
@@ -8855,13 +8628,13 @@
         <v>1.081053</v>
       </c>
       <c r="L352">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>174.75673516218512</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>352</v>
       </c>
       <c r="B353">
@@ -8874,13 +8647,13 @@
         <v>1.5362340000000001</v>
       </c>
       <c r="L353">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>174.91137496205332</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>353</v>
       </c>
       <c r="B354">
@@ -8893,13 +8666,13 @@
         <v>0.76337500000000003</v>
       </c>
       <c r="L354">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>174.98460869972595</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>354</v>
       </c>
       <c r="B355">
@@ -8912,13 +8685,13 @@
         <v>1.161146</v>
       </c>
       <c r="L355">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>175.01867244911722</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>355</v>
       </c>
       <c r="B356">
@@ -8931,13 +8704,13 @@
         <v>0.91251099999999996</v>
       </c>
       <c r="L356">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>175.36476384088726</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>356</v>
       </c>
       <c r="B357">
@@ -8950,13 +8723,13 @@
         <v>1.2993129999999999</v>
       </c>
       <c r="L357">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>175.40106336006608</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>357</v>
       </c>
       <c r="B358">
@@ -8969,13 +8742,13 @@
         <v>0.506749</v>
       </c>
       <c r="L358">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>175.59392427455717</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>358</v>
       </c>
       <c r="B359">
@@ -8988,13 +8761,13 @@
         <v>1.439351</v>
       </c>
       <c r="L359">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>175.59666556424776</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>359</v>
       </c>
       <c r="B360">
@@ -9007,13 +8780,13 @@
         <v>1.36683</v>
       </c>
       <c r="L360">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.3105576130672</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>360</v>
       </c>
       <c r="B361">
@@ -9026,13 +8799,13 @@
         <v>1.011522</v>
       </c>
       <c r="L361">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.31824551348492</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>361</v>
       </c>
       <c r="B362">
@@ -9045,13 +8818,13 @@
         <v>1.399294</v>
       </c>
       <c r="L362">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.31847532917038</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>362</v>
       </c>
       <c r="B363">
@@ -9064,13 +8837,13 @@
         <v>1.1550560000000001</v>
       </c>
       <c r="L363">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.43417621353129</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>363</v>
       </c>
       <c r="B364">
@@ -9083,13 +8856,13 @@
         <v>0.821295</v>
       </c>
       <c r="L364">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.43644422776129</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>364</v>
       </c>
       <c r="B365">
@@ -9102,13 +8875,13 @@
         <v>1.0616570000000001</v>
       </c>
       <c r="L365">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.47510142134294</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>365</v>
       </c>
       <c r="B366">
@@ -9121,13 +8894,13 @@
         <v>1.320416</v>
       </c>
       <c r="L366">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.75639940883329</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>366</v>
       </c>
       <c r="B367">
@@ -9140,13 +8913,13 @@
         <v>1.2430110000000001</v>
       </c>
       <c r="L367">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.84050713867089</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>367</v>
       </c>
       <c r="B368">
@@ -9159,13 +8932,13 @@
         <v>1.363985</v>
       </c>
       <c r="L368">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.8414839716271</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>368</v>
       </c>
       <c r="B369">
@@ -9178,13 +8951,13 @@
         <v>1.645832</v>
       </c>
       <c r="L369">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.85329082097118</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>369</v>
       </c>
       <c r="B370">
@@ -9197,13 +8970,13 @@
         <v>1.300905</v>
       </c>
       <c r="L370">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.85344247214229</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>370</v>
       </c>
       <c r="B371">
@@ -9216,13 +8989,13 @@
         <v>1.389351</v>
       </c>
       <c r="L371">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.93997356200444</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>371</v>
       </c>
       <c r="B372">
@@ -9235,13 +9008,13 @@
         <v>1.811974</v>
       </c>
       <c r="L372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.94255068042986</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>372</v>
       </c>
       <c r="B373">
@@ -9254,13 +9027,13 @@
         <v>0.97011700000000001</v>
       </c>
       <c r="L373">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>176.94397051354758</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>373</v>
       </c>
       <c r="B374">
@@ -9273,13 +9046,13 @@
         <v>1.3149010000000001</v>
       </c>
       <c r="L374">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>177.15584998492488</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>374</v>
       </c>
       <c r="B375">
@@ -9292,13 +9065,13 @@
         <v>1.781272</v>
       </c>
       <c r="L375">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>177.30143292626965</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>375</v>
       </c>
       <c r="B376">
@@ -9311,13 +9084,13 @@
         <v>1.188774</v>
       </c>
       <c r="L376">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>177.30278490967768</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>376</v>
       </c>
       <c r="B377">
@@ -9330,13 +9103,13 @@
         <v>1.0971200000000001</v>
       </c>
       <c r="L377">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>177.48734250712209</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>377</v>
       </c>
       <c r="B378">
@@ -9349,13 +9122,13 @@
         <v>2.1457899999999999</v>
       </c>
       <c r="L378">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>177.51387772047218</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="B379">
@@ -9368,13 +9141,13 @@
         <v>0.73529900000000004</v>
       </c>
       <c r="L379">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>177.57867358944799</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>379</v>
       </c>
       <c r="B380">
@@ -9387,13 +9160,13 @@
         <v>1.1093</v>
       </c>
       <c r="L380">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>178.20929964449363</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>380</v>
       </c>
       <c r="B381">
@@ -9406,13 +9179,13 @@
         <v>2.2319170000000002</v>
       </c>
       <c r="L381">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>178.58921325724137</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>381</v>
       </c>
       <c r="B382">
@@ -9425,13 +9198,13 @@
         <v>1.199346</v>
       </c>
       <c r="L382">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>178.64795663265144</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>382</v>
       </c>
       <c r="B383">
@@ -9444,13 +9217,13 @@
         <v>1.650736</v>
       </c>
       <c r="L383">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>179.42279083797902</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>383</v>
       </c>
       <c r="B384">
@@ -9463,13 +9236,13 @@
         <v>1.516559</v>
       </c>
       <c r="L384">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>179.44599353857504</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>384</v>
       </c>
       <c r="B385">
@@ -9482,13 +9255,13 @@
         <v>0.40026899999999999</v>
       </c>
       <c r="L385">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>179.53543381534197</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>385</v>
       </c>
       <c r="B386">
@@ -9501,13 +9274,13 @@
         <v>0.98482199999999998</v>
       </c>
       <c r="L386">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>179.56262208982568</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>386</v>
       </c>
       <c r="B387">
@@ -9520,13 +9293,13 @@
         <v>1.062443</v>
       </c>
       <c r="L387">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>180.46778657484305</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
-        <f t="shared" ref="A388:A451" si="16">1 + $A387</f>
+        <f t="shared" ref="A388:A451" si="13">1 + $A387</f>
         <v>387</v>
       </c>
       <c r="B388">
@@ -9539,13 +9312,13 @@
         <v>0.77495499999999995</v>
       </c>
       <c r="L388">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>180.60236426986575</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>388</v>
       </c>
       <c r="B389">
@@ -9558,13 +9331,13 @@
         <v>1.6497710000000001</v>
       </c>
       <c r="L389">
-        <f t="shared" ref="L389:L452" si="17" xml:space="preserve"> ($D387-$J$2)*($D387-$J$2) + $L388</f>
+        <f t="shared" ref="L389:L452" si="14" xml:space="preserve"> ($D387-$J$2)*($D387-$J$2) + $L388</f>
         <v>180.68601671654932</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="B390">
@@ -9577,13 +9350,13 @@
         <v>1.7739819999999999</v>
       </c>
       <c r="L390">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>181.01861728494603</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>390</v>
       </c>
       <c r="B391">
@@ -9596,13 +9369,13 @@
         <v>1.265353</v>
       </c>
       <c r="L391">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>181.10748129618909</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>391</v>
       </c>
       <c r="B392">
@@ -9615,13 +9388,13 @@
         <v>0.55178899999999997</v>
       </c>
       <c r="L392">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>181.28582844534114</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>392</v>
       </c>
       <c r="B393">
@@ -9634,13 +9407,13 @@
         <v>1.5165569999999999</v>
       </c>
       <c r="L393">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>181.29327912628156</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>393</v>
       </c>
       <c r="B394">
@@ -9653,13 +9426,13 @@
         <v>1.197155</v>
       </c>
       <c r="L394">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>181.93308926356485</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>394</v>
       </c>
       <c r="B395">
@@ -9672,13 +9445,13 @@
         <v>1.687405</v>
       </c>
       <c r="L395">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>181.96027687849787</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>395</v>
       </c>
       <c r="B396">
@@ -9691,13 +9464,13 @@
         <v>0.86551800000000001</v>
       </c>
       <c r="L396">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>181.98415186477578</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>396</v>
       </c>
       <c r="B397">
@@ -9710,13 +9483,13 @@
         <v>1.5663119999999999</v>
       </c>
       <c r="L397">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.09686963543021</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>397</v>
       </c>
       <c r="B398">
@@ -9729,13 +9502,13 @@
         <v>1.275541</v>
       </c>
       <c r="L398">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.33321372047772</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>398</v>
       </c>
       <c r="B399">
@@ -9748,13 +9521,13 @@
         <v>1.366425</v>
       </c>
       <c r="L399">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.37928476826596</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>399</v>
       </c>
       <c r="B400">
@@ -9767,13 +9540,13 @@
         <v>0.92623200000000006</v>
       </c>
       <c r="L400">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.38508044269543</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="B401">
@@ -9786,13 +9559,13 @@
         <v>1.0705439999999999</v>
       </c>
       <c r="L401">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.38529814307077</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>401</v>
       </c>
       <c r="B402">
@@ -9805,13 +9578,13 @@
         <v>1.3997250000000001</v>
       </c>
       <c r="L402">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.56629591315132</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>402</v>
       </c>
       <c r="B403">
@@ -9824,13 +9597,13 @@
         <v>1.273962</v>
       </c>
       <c r="L403">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.64532792488384</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>403</v>
       </c>
       <c r="B404">
@@ -9843,13 +9616,13 @@
         <v>1.4522839999999999</v>
       </c>
       <c r="L404">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.64763717648097</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>404</v>
       </c>
       <c r="B405">
@@ -9862,13 +9635,13 @@
         <v>1.485957</v>
       </c>
       <c r="L405">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.6536757605661</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>405</v>
       </c>
       <c r="B406">
@@ -9881,13 +9654,13 @@
         <v>0.87165899999999996</v>
       </c>
       <c r="L406">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.66379887176066</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>406</v>
       </c>
       <c r="B407">
@@ -9900,13 +9673,13 @@
         <v>1.47699</v>
       </c>
       <c r="L407">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.68183178230606</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>407</v>
       </c>
       <c r="B408">
@@ -9919,13 +9692,13 @@
         <v>1.692021</v>
       </c>
       <c r="L408">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.91224265635435</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>408</v>
       </c>
       <c r="B409">
@@ -9938,13 +9711,13 @@
         <v>1.01004</v>
       </c>
       <c r="L409">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>182.92794767679518</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>409</v>
       </c>
       <c r="B410">
@@ -9957,13 +9730,13 @@
         <v>1.5289029999999999</v>
       </c>
       <c r="L410">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>183.04378625740674</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>410</v>
       </c>
       <c r="B411">
@@ -9976,13 +9749,13 @@
         <v>0.40895700000000001</v>
       </c>
       <c r="L411">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>183.16049753773285</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>411</v>
       </c>
       <c r="B412">
@@ -9995,13 +9768,13 @@
         <v>2.5636139999999998</v>
       </c>
       <c r="L412">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>183.19190895811158</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>412</v>
       </c>
       <c r="B413">
@@ -10014,13 +9787,13 @@
         <v>1.287347</v>
       </c>
       <c r="L413">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>184.08061737501498</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>413</v>
       </c>
       <c r="B414">
@@ -10033,13 +9806,13 @@
         <v>1.9570559999999999</v>
       </c>
       <c r="L414">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>185.54942484153972</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>414</v>
       </c>
       <c r="B415">
@@ -10052,13 +9825,13 @@
         <v>1.0546759999999999</v>
       </c>
       <c r="L415">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>185.55356233193606</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>415</v>
       </c>
       <c r="B416">
@@ -10071,13 +9844,13 @@
         <v>1.2508790000000001</v>
       </c>
       <c r="L416">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>185.92005414500971</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>416</v>
       </c>
       <c r="B417">
@@ -10090,13 +9863,13 @@
         <v>1.2303059999999999</v>
       </c>
       <c r="L417">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>186.0082597752799</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>417</v>
       </c>
       <c r="B418">
@@ -10109,13 +9882,13 @@
         <v>2.2125880000000002</v>
       </c>
       <c r="L418">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>186.01841866687832</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>418</v>
       </c>
       <c r="B419">
@@ -10128,13 +9901,13 @@
         <v>1.314479</v>
       </c>
       <c r="L419">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>186.03314796674647</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>419</v>
       </c>
       <c r="B420">
@@ -10147,13 +9920,13 @@
         <v>1.1869890000000001</v>
       </c>
       <c r="L420">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>186.7743272064302</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>420</v>
       </c>
       <c r="B421">
@@ -10166,13 +9939,13 @@
         <v>1.2328749999999999</v>
       </c>
       <c r="L421">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>186.77571040123422</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>421</v>
       </c>
       <c r="B422">
@@ -10185,13 +9958,13 @@
         <v>0.957762</v>
       </c>
       <c r="L422">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>186.80283034069672</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>422</v>
       </c>
       <c r="B423">
@@ -10204,13 +9977,13 @@
         <v>1.177692</v>
       </c>
       <c r="L423">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>186.81694267041377</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>423</v>
       </c>
       <c r="B424">
@@ -10223,13 +9996,13 @@
         <v>1.05985</v>
       </c>
       <c r="L424">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>186.97210644049372</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>424</v>
       </c>
       <c r="B425">
@@ -10242,13 +10015,13 @@
         <v>1.0356050000000001</v>
       </c>
       <c r="L425">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>187.00237489875943</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>425</v>
       </c>
       <c r="B426">
@@ -10261,13 +10034,13 @@
         <v>1.1784019999999999</v>
       </c>
       <c r="L426">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>187.08753400200982</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>426</v>
       </c>
       <c r="B427">
@@ -10280,13 +10053,13 @@
         <v>1.2301759999999999</v>
       </c>
       <c r="L427">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>187.18743129294143</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>427</v>
       </c>
       <c r="B428">
@@ -10299,13 +10072,13 @@
         <v>1.2577199999999999</v>
       </c>
       <c r="L428">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>187.21745320608281</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>428</v>
       </c>
       <c r="B429">
@@ -10318,13 +10091,13 @@
         <v>1.3200799999999999</v>
       </c>
       <c r="L429">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>187.232214077576</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>429</v>
       </c>
       <c r="B430">
@@ -10337,13 +10110,13 @@
         <v>1.034348</v>
       </c>
       <c r="L430">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>187.24104074151941</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>430</v>
       </c>
       <c r="B431">
@@ -10356,13 +10129,13 @@
         <v>1.199748</v>
       </c>
       <c r="L431">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>187.24203869027937</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>431</v>
       </c>
       <c r="B432">
@@ -10375,13 +10148,13 @@
         <v>2.028206</v>
       </c>
       <c r="L432">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>187.34273214949206</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>432</v>
       </c>
       <c r="B433">
@@ -10394,13 +10167,13 @@
         <v>1.69157</v>
       </c>
       <c r="L433">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>187.36581254293316</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>433</v>
       </c>
       <c r="B434">
@@ -10413,13 +10186,13 @@
         <v>2.1144620000000001</v>
       </c>
       <c r="L434">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>187.82351305977471</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>434</v>
       </c>
       <c r="B435">
@@ -10432,13 +10205,13 @@
         <v>1.0571079999999999</v>
       </c>
       <c r="L435">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>187.93904484748023</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>435</v>
       </c>
       <c r="B436">
@@ -10451,13 +10224,13 @@
         <v>1.83799</v>
       </c>
       <c r="L436">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>188.52089598387838</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>436</v>
       </c>
       <c r="B437">
@@ -10470,13 +10243,13 @@
         <v>1.2253270000000001</v>
       </c>
       <c r="L437">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>188.60766294836603</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>437</v>
       </c>
       <c r="B438">
@@ -10489,13 +10262,13 @@
         <v>1.402501</v>
       </c>
       <c r="L438">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>188.84416977271286</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>438</v>
       </c>
       <c r="B439">
@@ -10508,13 +10281,13 @@
         <v>1.0476890000000001</v>
       </c>
       <c r="L439">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>188.8601324089903</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>439</v>
       </c>
       <c r="B440">
@@ -10527,13 +10300,13 @@
         <v>2.3508460000000002</v>
       </c>
       <c r="L440">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>188.86271616630793</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>440</v>
       </c>
       <c r="B441">
@@ -10546,13 +10319,13 @@
         <v>0.99316000000000004</v>
       </c>
       <c r="L441">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>188.9551208134726</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>441</v>
       </c>
       <c r="B442">
@@ -10565,13 +10338,13 @@
         <v>1.14724</v>
       </c>
       <c r="L442">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>189.95347283898761</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>442</v>
       </c>
       <c r="B443">
@@ -10584,13 +10357,13 @@
         <v>1.251865</v>
       </c>
       <c r="L443">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>190.08200249355326</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>443</v>
       </c>
       <c r="B444">
@@ -10603,13 +10376,13 @@
         <v>0.77424300000000001</v>
       </c>
       <c r="L444">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>190.12379425215059</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>444</v>
       </c>
       <c r="B445">
@@ -10622,13 +10395,13 @@
         <v>1.212315</v>
       </c>
       <c r="L445">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>190.13375535544816</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>445</v>
       </c>
       <c r="B446">
@@ -10641,13 +10414,13 @@
         <v>1.1486080000000001</v>
       </c>
       <c r="L446">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>190.46717767341451</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>446</v>
       </c>
       <c r="B447">
@@ -10660,13 +10433,13 @@
         <v>1.6357870000000001</v>
       </c>
       <c r="L447">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>190.48659758057778</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>447</v>
       </c>
       <c r="B448">
@@ -10679,13 +10452,13 @@
         <v>1.2693209999999999</v>
       </c>
       <c r="L448">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>190.52783188922444</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>448</v>
       </c>
       <c r="B449">
@@ -10698,13 +10471,13 @@
         <v>2.434377</v>
       </c>
       <c r="L449">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>190.60855417310103</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A450">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>449</v>
       </c>
       <c r="B450">
@@ -10717,13 +10490,13 @@
         <v>1.241371</v>
       </c>
       <c r="L450">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>190.61533558475838</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A451">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>450</v>
       </c>
       <c r="B451">
@@ -10736,13 +10509,13 @@
         <v>1.3034410000000001</v>
       </c>
       <c r="L451">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>191.78758932451711</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A452">
-        <f t="shared" ref="A452:A514" si="18">1 + $A451</f>
+        <f t="shared" ref="A452:A514" si="15">1 + $A451</f>
         <v>451</v>
       </c>
       <c r="B452">
@@ -10755,13 +10528,13 @@
         <v>1.305677</v>
       </c>
       <c r="L452">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>191.79975526605378</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A453">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>452</v>
       </c>
       <c r="B453">
@@ -10774,13 +10547,13 @@
         <v>0.72760899999999995</v>
       </c>
       <c r="L453">
-        <f t="shared" ref="L453:L514" si="19" xml:space="preserve"> ($D451-$J$2)*($D451-$J$2) + $L452</f>
+        <f t="shared" ref="L453:L514" si="16" xml:space="preserve"> ($D451-$J$2)*($D451-$J$2) + $L452</f>
         <v>191.80208133403664</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A454">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>453</v>
       </c>
       <c r="B454">
@@ -10793,13 +10566,13 @@
         <v>1.4704600000000001</v>
       </c>
       <c r="L454">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>191.80419672016518</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A455">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>454</v>
       </c>
       <c r="B455">
@@ -10812,13 +10585,13 @@
         <v>1.6305069999999999</v>
       </c>
       <c r="L455">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>192.19364926002217</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A456">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>455</v>
       </c>
       <c r="B456">
@@ -10831,13 +10604,13 @@
         <v>2.1412840000000002</v>
       </c>
       <c r="L456">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>192.20776024643362</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A457">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>456</v>
       </c>
       <c r="B457">
@@ -10850,13 +10623,13 @@
         <v>1.9103600000000001</v>
       </c>
       <c r="L457">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>192.28551013664332</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A458">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>457</v>
       </c>
       <c r="B458">
@@ -10869,13 +10642,13 @@
         <v>1.4716849999999999</v>
       </c>
       <c r="L458">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>192.90899988923186</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A459">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>458</v>
       </c>
       <c r="B459">
@@ -10888,13 +10661,13 @@
         <v>1.021193</v>
       </c>
       <c r="L459">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.22113403994871</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A460">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>459</v>
       </c>
       <c r="B460">
@@ -10907,13 +10680,13 @@
         <v>1.179403</v>
       </c>
       <c r="L460">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.235537561684</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A461">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>460</v>
       </c>
       <c r="B461">
@@ -10926,13 +10699,13 @@
         <v>1.698248</v>
       </c>
       <c r="L461">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.34475282534507</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A462">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>461</v>
       </c>
       <c r="B462">
@@ -10945,13 +10718,13 @@
         <v>1.1883520000000001</v>
       </c>
       <c r="L462">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.37442885729681</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A463">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>462</v>
       </c>
       <c r="B463">
@@ -10964,13 +10737,13 @@
         <v>0.98522399999999999</v>
       </c>
       <c r="L463">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.4945449407189</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A464">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>463</v>
       </c>
       <c r="B464">
@@ -10983,13 +10756,13 @@
         <v>1.1050599999999999</v>
       </c>
       <c r="L464">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.52121781665298</v>
       </c>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A465">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>464</v>
       </c>
       <c r="B465">
@@ -11002,13 +10775,13 @@
         <v>1.7972090000000001</v>
       </c>
       <c r="L465">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.65550072722476</v>
       </c>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A466">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>465</v>
       </c>
       <c r="B466">
@@ -11021,13 +10794,13 @@
         <v>1.2435560000000001</v>
       </c>
       <c r="L466">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.71631738060782</v>
       </c>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A467">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>466</v>
       </c>
       <c r="B467">
@@ -11040,13 +10813,13 @@
         <v>1.3200909999999999</v>
       </c>
       <c r="L467">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.91482208974642</v>
       </c>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A468">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>467</v>
       </c>
       <c r="B468">
@@ -11059,13 +10832,13 @@
         <v>1.410809</v>
       </c>
       <c r="L468">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.92651079744908</v>
       </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A469">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>468</v>
       </c>
       <c r="B469">
@@ -11078,13 +10851,13 @@
         <v>1.507064</v>
       </c>
       <c r="L469">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.92750805134287</v>
       </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A470">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>469</v>
       </c>
       <c r="B470">
@@ -11097,13 +10870,13 @@
         <v>0.82626699999999997</v>
       </c>
       <c r="L470">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.93100543398708</v>
       </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A471">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>470</v>
       </c>
       <c r="B471">
@@ -11116,13 +10889,13 @@
         <v>1.2669980000000001</v>
       </c>
       <c r="L471">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193.95515262759551</v>
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A472">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>471</v>
       </c>
       <c r="B472">
@@ -11135,13 +10908,13 @@
         <v>0.67721799999999999</v>
       </c>
       <c r="L472">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>194.23120128361819</v>
       </c>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A473">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>472</v>
       </c>
       <c r="B473">
@@ -11154,13 +10927,13 @@
         <v>1.0005409999999999</v>
       </c>
       <c r="L473">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>194.23837068657778</v>
       </c>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A474">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>473</v>
       </c>
       <c r="B474">
@@ -11173,13 +10946,13 @@
         <v>0.963696</v>
       </c>
       <c r="L474">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>194.69325662797348</v>
       </c>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A475">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>474</v>
       </c>
       <c r="B475">
@@ -11192,13 +10965,13 @@
         <v>1.1309849999999999</v>
       </c>
       <c r="L475">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>194.81654843225294</v>
       </c>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A476">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>475</v>
       </c>
       <c r="B476">
@@ -11211,13 +10984,13 @@
         <v>1.299096</v>
       </c>
       <c r="L476">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>194.96707251066405</v>
       </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A477">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>476</v>
       </c>
       <c r="B477">
@@ -11230,13 +11003,13 @@
         <v>2.2592970000000001</v>
       </c>
       <c r="L477">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>195.01577452421716</v>
       </c>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A478">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>477</v>
       </c>
       <c r="B478">
@@ -11249,13 +11022,13 @@
         <v>1.10866</v>
       </c>
       <c r="L478">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>195.01853858407668</v>
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A479">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>478</v>
       </c>
       <c r="B479">
@@ -11268,13 +11041,13 @@
         <v>1.1250100000000001</v>
       </c>
       <c r="L479">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>195.84232476161773</v>
       </c>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A480">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>479</v>
       </c>
       <c r="B480">
@@ -11287,13 +11060,13 @@
         <v>1.8486279999999999</v>
       </c>
       <c r="L480">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>195.90137878064638</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A481">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>480</v>
       </c>
       <c r="B481">
@@ -11306,13 +11079,13 @@
         <v>0.87684799999999996</v>
       </c>
       <c r="L481">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>195.95275368448213</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A482">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>481</v>
       </c>
       <c r="B482">
@@ -11325,13 +11098,13 @@
         <v>1.061563</v>
       </c>
       <c r="L482">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>196.19972061323571</v>
       </c>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>482</v>
       </c>
       <c r="B483">
@@ -11344,13 +11117,13 @@
         <v>0.78680000000000005</v>
       </c>
       <c r="L483">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>196.4251768554534</v>
       </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A484">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>483</v>
       </c>
       <c r="B484">
@@ -11363,13 +11136,13 @@
         <v>0.98456200000000005</v>
       </c>
       <c r="L484">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>196.50933911663247</v>
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A485">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>484</v>
       </c>
       <c r="B485">
@@ -11382,13 +11155,13 @@
         <v>2.1248260000000001</v>
       </c>
       <c r="L485">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>196.82841760295756</v>
       </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A486">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="B486">
@@ -11401,13 +11174,13 @@
         <v>1.3853329999999999</v>
       </c>
       <c r="L486">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>196.9631861267103</v>
       </c>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A487">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>486</v>
       </c>
       <c r="B487">
@@ -11420,13 +11193,13 @@
         <v>1.1510959999999999</v>
       </c>
       <c r="L487">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>197.56095582140239</v>
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A488">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>487</v>
       </c>
       <c r="B488">
@@ -11439,13 +11212,13 @@
         <v>0.42557800000000001</v>
       </c>
       <c r="L488">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>197.56208899695588</v>
       </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A489">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>488</v>
       </c>
       <c r="B489">
@@ -11458,13 +11231,13 @@
         <v>0.81670500000000001</v>
       </c>
       <c r="L489">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>197.60231905760739</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>489</v>
       </c>
       <c r="B490">
@@ -11477,13 +11250,13 @@
         <v>1.3269519999999999</v>
       </c>
       <c r="L490">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>198.45996605573566</v>
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>490</v>
       </c>
       <c r="B491">
@@ -11496,13 +11269,13 @@
         <v>1.167297</v>
       </c>
       <c r="L491">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>198.74615395682787</v>
       </c>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A492">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>491</v>
       </c>
       <c r="B492">
@@ -11515,13 +11288,13 @@
         <v>1.2730319999999999</v>
       </c>
       <c r="L492">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>198.74676495251754</v>
       </c>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A493">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>492</v>
       </c>
       <c r="B493">
@@ -11534,13 +11307,13 @@
         <v>1.5641290000000001</v>
       </c>
       <c r="L493">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>198.78075847622659</v>
       </c>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A494">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>493</v>
       </c>
       <c r="B494">
@@ -11553,13 +11326,13 @@
         <v>0.90326200000000001</v>
       </c>
       <c r="L494">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>198.78694246269995</v>
       </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A495">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>494</v>
       </c>
       <c r="B495">
@@ -11572,13 +11345,13 @@
         <v>1.3741890000000001</v>
       </c>
       <c r="L495">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>198.83208115043288</v>
       </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A496">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>495</v>
       </c>
       <c r="B496">
@@ -11591,13 +11364,13 @@
         <v>1.6851700000000001</v>
       </c>
       <c r="L496">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.03315117815583</v>
       </c>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>496</v>
       </c>
       <c r="B497">
@@ -11610,13 +11383,13 @@
         <v>0.96197100000000002</v>
       </c>
       <c r="L497">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.03365826878951</v>
       </c>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>497</v>
       </c>
       <c r="B498">
@@ -11629,13 +11402,13 @@
         <v>1.517425</v>
       </c>
       <c r="L498">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.14488030068063</v>
       </c>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>498</v>
       </c>
       <c r="B499">
@@ -11648,13 +11421,13 @@
         <v>1.2024330000000001</v>
       </c>
       <c r="L499">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.29674586614487</v>
       </c>
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A500">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>499</v>
       </c>
       <c r="B500">
@@ -11667,13 +11440,13 @@
         <v>1.260734</v>
       </c>
       <c r="L500">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.3242204777662</v>
       </c>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A501">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="B501">
@@ -11686,13 +11459,13 @@
         <v>1.365615</v>
       </c>
       <c r="L501">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.34649225753631</v>
       </c>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A502">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>501</v>
       </c>
       <c r="B502">
@@ -11705,13 +11478,13 @@
         <v>1.253471</v>
       </c>
       <c r="L502">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.35476167310458</v>
       </c>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>502</v>
       </c>
       <c r="B503">
@@ -11724,13 +11497,13 @@
         <v>1.088522</v>
       </c>
       <c r="L503">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.35495612700964</v>
       </c>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>503</v>
       </c>
       <c r="B504">
@@ -11743,13 +11516,13 @@
         <v>1.273873</v>
       </c>
       <c r="L504">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.36459923483289</v>
       </c>
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A505">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>504</v>
       </c>
       <c r="B505">
@@ -11762,13 +11535,13 @@
         <v>0.92892600000000003</v>
       </c>
       <c r="L505">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.43384627683579</v>
       </c>
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A506">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>505</v>
       </c>
       <c r="B506">
@@ -11781,13 +11554,13 @@
         <v>1.255098</v>
       </c>
       <c r="L506">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.43989870092415</v>
       </c>
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A507">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>506</v>
       </c>
       <c r="B507">
@@ -11800,13 +11573,13 @@
         <v>1.641494</v>
       </c>
       <c r="L507">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.61861146693482</v>
       </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A508">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>507</v>
       </c>
       <c r="B508">
@@ -11819,13 +11592,13 @@
         <v>1.18909</v>
       </c>
       <c r="L508">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.62793768127702</v>
       </c>
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A509">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>508</v>
       </c>
       <c r="B509">
@@ -11838,13 +11611,13 @@
         <v>1.268734</v>
       </c>
       <c r="L509">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.71193544270824</v>
       </c>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>509</v>
       </c>
       <c r="B510">
@@ -11857,13 +11630,13 @@
         <v>1.153014</v>
       </c>
       <c r="L510">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.73836780543567</v>
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A511">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>510</v>
       </c>
       <c r="B511">
@@ -11876,13 +11649,13 @@
         <v>0.58267899999999995</v>
       </c>
       <c r="L511">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.74524623977192</v>
       </c>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A512">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>511</v>
       </c>
       <c r="B512">
@@ -11895,13 +11668,13 @@
         <v>0.30243100000000001</v>
       </c>
       <c r="L512">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>199.78471057602906</v>
       </c>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A513">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>512</v>
       </c>
       <c r="B513">
@@ -11914,13 +11687,13 @@
         <v>0.40859699999999999</v>
       </c>
       <c r="L513">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>200.37605823703026</v>
       </c>
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A514">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>513</v>
       </c>
       <c r="B514">
@@ -11933,12 +11706,12 @@
         <v>1.0898950000000001</v>
       </c>
       <c r="L514">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>201.47696140235368</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="F5:F29">
+  <sortState ref="F5:F22">
     <sortCondition ref="F5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/37_gradC.xlsx
+++ b/37_gradC.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="3_37degC_analysis_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -54,7 +54,7 @@
     <t>Kumuliert %</t>
   </si>
   <si>
-    <t>und größer</t>
+    <t>bigger</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Histogramm</a:t>
+              <a:t>Velocity at 37°C</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -682,131 +682,173 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'3_37degC_analysis_2'!$F$5:$F$23</c:f>
+              <c:f>'3_37degC_analysis_2'!$F$5:$F$30</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0,2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0,3</c:v>
+                  <c:v>0,4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0,6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,9</c:v>
+                  <c:v>0,8</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1,2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1,5</c:v>
+                <c:pt idx="6">
+                  <c:v>1,4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>1,6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1,8</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>2,1</c:v>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>2,2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2,4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2,7</c:v>
+                <c:pt idx="12">
+                  <c:v>2,6</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>2,8</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>3,3</c:v>
+                <c:pt idx="15">
+                  <c:v>3,2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>3,4</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3,6</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>3,9</c:v>
+                <c:pt idx="18">
+                  <c:v>3,8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4,2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>4,5</c:v>
+                <c:pt idx="21">
+                  <c:v>4,4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>4,6</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>4,8</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>5,1</c:v>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>und größer</c:v>
+                <c:pt idx="25">
+                  <c:v>bigger</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3_37degC_analysis_2'!$G$5:$G$23</c:f>
+              <c:f>'3_37degC_analysis_2'!$G$5:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>1.9493177387914229E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1695906432748537E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3391812865497075E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8732943469785572E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9415204678362568E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23391812865497075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25730994152046782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1189083820662768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3820662768031184E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9239766081871343E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8986354775828458E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5594541910331383E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5594541910331383E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8986354775828458E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9493177387914229E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8986354775828458E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
+                <c:pt idx="17">
+                  <c:v>1.9493177387914229E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
+                <c:pt idx="19">
+                  <c:v>1.9493177387914229E-3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
+                <c:pt idx="23">
+                  <c:v>1.9493177387914229E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8479532163742687E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,8 +863,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="453639472"/>
-        <c:axId val="453633984"/>
+        <c:axId val="205072312"/>
+        <c:axId val="205069568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -833,144 +875,180 @@
           <c:tx>
             <c:v>Kumuliert %</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln cap="rnd"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'3_37degC_analysis_2'!$F$5:$F$23</c:f>
+              <c:f>'3_37degC_analysis_2'!$F$5:$F$30</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0,2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0,3</c:v>
+                  <c:v>0,4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0,6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,9</c:v>
+                  <c:v>0,8</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1,2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1,5</c:v>
+                <c:pt idx="6">
+                  <c:v>1,4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>1,6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1,8</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>2,1</c:v>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>2,2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2,4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2,7</c:v>
+                <c:pt idx="12">
+                  <c:v>2,6</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>2,8</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>3,3</c:v>
+                <c:pt idx="15">
+                  <c:v>3,2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>3,4</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3,6</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>3,9</c:v>
+                <c:pt idx="18">
+                  <c:v>3,8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4,2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>4,5</c:v>
+                <c:pt idx="21">
+                  <c:v>4,4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>4,6</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>4,8</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>5,1</c:v>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>und größer</c:v>
+                <c:pt idx="25">
+                  <c:v>bigger</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3_37degC_analysis_2'!$H$5:$H$23</c:f>
+              <c:f>'3_37degC_analysis_2'!$H$5:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>6.2408947291026001E-2</c:v>
+                  <c:v>0.11790343708259456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15599533635788171</c:v>
+                  <c:v>0.20121498807539159</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.31020474861000213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49074664306988369</c:v>
+                  <c:v>0.43200702495302179</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.5434848335726975</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.61764410722520657</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61843112070904183</c:v>
+                <c:pt idx="6">
+                  <c:v>0.63407908492728138</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.58803450022834292</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.49262498966346741</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.31218613460358274</c:v>
+                <c:pt idx="9">
+                  <c:v>0.37280722753317846</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>0.25486280627970265</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.15739207142040981</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.3128309667185092E-2</c:v>
+                <c:pt idx="12">
+                  <c:v>8.7803836892352993E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>4.4248483439735885E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2.014362089415328E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.11355565312377E-3</c:v>
+                <c:pt idx="15">
+                  <c:v>8.2838254875460433E-3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>3.0773620650842433E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.0327150436667152E-3</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6592433624850427E-4</c:v>
+                <c:pt idx="18">
+                  <c:v>3.1306654754815593E-4</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
+                  <c:v>8.5732813705503665E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2.1208587411381053E-5</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1566787884761763E-6</c:v>
+                <c:pt idx="21">
+                  <c:v>4.7394796467989598E-6</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>9.5676181616820727E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1.7447421755841502E-7</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1229207854757505E-8</c:v>
+                <c:pt idx="24">
+                  <c:v>2.8741732104009552E-8</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.7496187901430247E-10</c:v>
+                <c:pt idx="25" formatCode="0.00%">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -982,11 +1060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453636336"/>
-        <c:axId val="453638296"/>
+        <c:axId val="205068600"/>
+        <c:axId val="205070744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="453639472"/>
+        <c:axId val="205072312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,8 +1081,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Klasse</a:t>
+                  <a:t>velocity [</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>m/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1015,7 +1108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="453633984"/>
+        <c:crossAx val="205069568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1023,7 +1116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="453633984"/>
+        <c:axId val="205069568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1133,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Häufigkeit</a:t>
+                  <a:t>normed amount of incidents</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1052,12 +1145,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="453639472"/>
+        <c:crossAx val="205072312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453638296"/>
+        <c:axId val="205070744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,12 +1160,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="453636336"/>
+        <c:crossAx val="205068600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="453636336"/>
+        <c:axId val="205068600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="453638296"/>
+        <c:crossAx val="205070744"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1110,20 +1203,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1406,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1480,9 +1573,6 @@
         <f xml:space="preserve"> ($D2-$J$2)*($D2-$J$2)</f>
         <v>2.8083165997426864E-2</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1512,8 +1602,15 @@
         <v>5.6166331994853727E-2</v>
       </c>
       <c r="N4">
-        <f xml:space="preserve"> 0.3 * $A2</f>
-        <v>0.3</v>
+        <f xml:space="preserve"> 0.2 * $A2</f>
+        <v>0.2</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>_xlfn.NORM.DIST($P$4:$P$29,$J$2,$O$2,FALSE)</f>
+        <v>6.2408947291026001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,29 +1628,30 @@
         <v>1.160342</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <f xml:space="preserve"> $G32 / $G$2</f>
+        <v>1.9493177387914229E-3</v>
       </c>
       <c r="H5">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>6.2408947291026001E-2</v>
+        <f t="shared" ref="H5:H29" si="1">_xlfn.NORM.DIST($P$4:$P$29,$J$2,$O$2,FALSE)</f>
+        <v>0.11790343708259456</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L68" si="1" xml:space="preserve"> ($D3-$J$2)*($D3-$J$2) + $L4</f>
+        <f t="shared" ref="L5:L68" si="2" xml:space="preserve"> ($D3-$J$2)*($D3-$J$2) + $L4</f>
         <v>9.3127673737422645E-2</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N28" si="2" xml:space="preserve"> 0.3 * $A3</f>
-        <v>0.6</v>
+        <f xml:space="preserve"> 0.2 * $A3</f>
+        <v>0.4</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q5">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>6.2408947291026001E-2</v>
+        <f t="shared" ref="Q5:Q29" si="3">_xlfn.NORM.DIST($P$4:$P$29,$J$2,$O$2,FALSE)</f>
+        <v>0.11790343708259456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,29 +1669,30 @@
         <v>1.0916999999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <f t="shared" ref="G6:G30" si="4" xml:space="preserve"> $G33 / $G$2</f>
+        <v>1.1695906432748537E-2</v>
       </c>
       <c r="H6">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.15599533635788171</v>
+        <f t="shared" si="1"/>
+        <v>0.20121498807539159</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10367996109502557</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="N6:N27" si="5" xml:space="preserve"> 0.2 * $A4</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="P6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q6">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.15599533635788171</v>
+        <f t="shared" si="3"/>
+        <v>0.20121498807539159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,28 +1710,29 @@
         <v>0.951789</v>
       </c>
       <c r="F7" s="1">
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="G7" s="2">
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>2.3391812865497075E-2</v>
       </c>
       <c r="H7">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0.31020474861000213</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14028648980764447</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>0.8</v>
       </c>
       <c r="P7">
         <v>0.6</v>
       </c>
       <c r="Q7">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.31020474861000213</v>
       </c>
     </row>
@@ -1651,29 +1751,30 @@
         <v>0.85331400000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>0.89999999999999991</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="2">
-        <v>46</v>
+        <f t="shared" si="4"/>
+        <v>4.8732943469785572E-2</v>
       </c>
       <c r="H8">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.49074664306988369</v>
+        <f t="shared" si="1"/>
+        <v>0.43200702495302179</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20787106072813138</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Q8">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.49074664306988369</v>
+        <f t="shared" si="3"/>
+        <v>0.43200702495302179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,29 +1792,30 @@
         <v>1.309744</v>
       </c>
       <c r="F9" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>150</v>
+        <f t="shared" si="4"/>
+        <v>9.9415204678362568E-2</v>
       </c>
       <c r="H9">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.61764410722520657</v>
+        <f t="shared" si="1"/>
+        <v>0.5434848335726975</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36777613641141227</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999998</v>
+        <f t="shared" si="5"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="P9">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.61764410722520657</v>
+        <f t="shared" si="3"/>
+        <v>0.5434848335726975</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,29 +1833,30 @@
         <v>1.25834</v>
       </c>
       <c r="F10" s="1">
-        <v>1.5</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="G10" s="2">
-        <v>174</v>
+        <f t="shared" si="4"/>
+        <v>0.23391812865497075</v>
       </c>
       <c r="H10">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.61843112070904183</v>
+        <f t="shared" si="1"/>
+        <v>0.61764410722520657</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61613516507234312</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
-        <v>2.1</v>
+        <f t="shared" si="5"/>
+        <v>1.4000000000000001</v>
       </c>
       <c r="P10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q10">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.61843112070904183</v>
+        <f t="shared" si="3"/>
+        <v>0.61764410722520657</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,29 +1874,30 @@
         <v>1.5530839999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1.7999999999999998</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>0.25730994152046782</v>
       </c>
       <c r="H11">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.49262498966346741</v>
+        <f t="shared" si="1"/>
+        <v>0.63407908492728138</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61789298196805409</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>2.4</v>
+        <f t="shared" si="5"/>
+        <v>1.6</v>
       </c>
       <c r="P11">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q11">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.49262498966346741</v>
+        <f t="shared" si="3"/>
+        <v>0.63407908492728138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,29 +1915,30 @@
         <v>1.286289</v>
       </c>
       <c r="F12" s="1">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="G12" s="2">
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>0.1189083820662768</v>
       </c>
       <c r="H12">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.31218613460358274</v>
+        <f t="shared" si="1"/>
+        <v>0.58803450022834292</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62660353190598095</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
-        <v>2.6999999999999997</v>
+        <f t="shared" si="5"/>
+        <v>1.8</v>
       </c>
       <c r="P12">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="Q12">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.31218613460358274</v>
+        <f t="shared" si="3"/>
+        <v>0.58803450022834292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,29 +1956,30 @@
         <v>1.0817589999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="G13" s="2">
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>8.3820662768031184E-2</v>
       </c>
       <c r="H13">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.15739207142040981</v>
+        <f t="shared" si="1"/>
+        <v>0.49262498966346741</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66717099957733184</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="P13">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q13">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>0.15739207142040981</v>
+        <f t="shared" si="3"/>
+        <v>0.49262498966346741</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,29 +1997,30 @@
         <v>0.98131100000000004</v>
       </c>
       <c r="F14" s="1">
-        <v>2.6999999999999997</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>2.9239766081871343E-2</v>
       </c>
       <c r="H14">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>6.3128309667185092E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.37280722753317846</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.67144571749761273</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
-        <v>3.3</v>
+        <f t="shared" si="5"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P14">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q14">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>6.3128309667185092E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.37280722753317846</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,29 +2038,30 @@
         <v>0.64711300000000005</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>3.8986354775828458E-2</v>
       </c>
       <c r="H15">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>2.014362089415328E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.25486280627970265</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74429784194051363</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q15">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>2.014362089415328E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.25486280627970265</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,29 +2079,30 @@
         <v>1.192642</v>
       </c>
       <c r="F16" s="1">
-        <v>3.3</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="G16" s="2">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1.5594541910331383E-2</v>
       </c>
       <c r="H16">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>5.11355565312377E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.15739207142040981</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88146387303640639</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
-        <v>3.9</v>
+        <f t="shared" si="5"/>
+        <v>2.6</v>
       </c>
       <c r="P16">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q16">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>5.11355565312377E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.15739207142040981</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,29 +2120,30 @@
         <v>2.5556610000000002</v>
       </c>
       <c r="F17" s="1">
-        <v>3.5999999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.5594541910331383E-2</v>
       </c>
       <c r="H17">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>1.0327150436667152E-3</v>
+        <f t="shared" si="1"/>
+        <v>8.7803836892352993E-2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.377864900065791</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
-        <v>4.2</v>
+        <f t="shared" si="5"/>
+        <v>2.8000000000000003</v>
       </c>
       <c r="P17">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q17">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>1.0327150436667152E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.7803836892352993E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,29 +2161,30 @@
         <v>1.6185849999999999</v>
       </c>
       <c r="F18" s="1">
-        <v>3.9</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3.8986354775828458E-3</v>
       </c>
       <c r="H18">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>1.6592433624850427E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4248483439735885E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4031549088542099</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
+        <f xml:space="preserve"> 0.2 * $A16</f>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q18">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>1.6592433624850427E-4</v>
+        <f t="shared" si="3"/>
+        <v>4.4248483439735885E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,29 +2202,30 @@
         <v>1.0153570000000001</v>
       </c>
       <c r="F19" s="1">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.9493177387914229E-3</v>
       </c>
       <c r="H19">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>2.1208587411381053E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.014362089415328E-2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8527484495252038</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
-        <v>4.8</v>
+        <f t="shared" si="5"/>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>2.1208587411381053E-5</v>
+        <f t="shared" si="3"/>
+        <v>2.014362089415328E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,29 +2243,30 @@
         <v>1.4889540000000001</v>
       </c>
       <c r="F20" s="1">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3.8986354775828458E-3</v>
       </c>
       <c r="H20">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>2.1566787884761763E-6</v>
+        <f t="shared" si="1"/>
+        <v>8.2838254875460433E-3</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9239918921879009</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
-        <v>5.0999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>3.4000000000000004</v>
       </c>
       <c r="P20">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q20">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>2.1566787884761763E-6</v>
+        <f t="shared" si="3"/>
+        <v>8.2838254875460433E-3</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,25 +2284,30 @@
         <v>1.2887839999999999</v>
       </c>
       <c r="F21" s="1">
-        <v>4.8</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H21">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>1.7447421755841502E-7</v>
+        <f t="shared" si="1"/>
+        <v>3.0773620650842433E-3</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0370985461057098</v>
       </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
       <c r="P21">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>1.7447421755841502E-7</v>
+        <f t="shared" si="3"/>
+        <v>3.0773620650842433E-3</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,28 +2325,33 @@
         <v>1.0703320000000001</v>
       </c>
       <c r="F22" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.9493177387914229E-3</v>
       </c>
       <c r="H22">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>1.1229207854757505E-8</v>
+        <f t="shared" si="1"/>
+        <v>1.0327150436667152E-3</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0559453529780809</v>
       </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>3.8000000000000003</v>
+      </c>
       <c r="P22">
-        <v>5.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="Q22">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>1.1229207854757505E-8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1.0327150436667152E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2242,26 +2365,31 @@
       <c r="D23">
         <v>0.92791500000000005</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2</v>
+      <c r="F23" s="1">
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H23">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>5.7496187901430247E-10</v>
+        <f t="shared" si="1"/>
+        <v>3.1306654754815593E-4</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0599000431016319</v>
       </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="P23">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q23">
-        <f>_xlfn.NORM.DIST($P$5:$P$23,$J$2,$O$2,FALSE)</f>
-        <v>5.7496187901430247E-10</v>
+        <f t="shared" si="3"/>
+        <v>3.1306654754815593E-4</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,15 +2406,31 @@
       <c r="D24">
         <v>1.3162529999999999</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9493177387914229E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>8.5732813705503665E-5</v>
+      </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1390512973407909</v>
       </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
       <c r="Q24">
-        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
-        <v>6.2408947291026001E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.5732813705503665E-5</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,15 +2447,31 @@
       <c r="D25">
         <v>1.402989</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>2.1208587411381053E-5</v>
+      </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3186198745016675</v>
       </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P25">
+        <v>4.2</v>
+      </c>
       <c r="Q25">
-        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
-        <v>6.2408947291026001E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.1208587411381053E-5</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,15 +2488,31 @@
       <c r="D26">
         <v>1.7928630000000001</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>4.7394796467989598E-6</v>
+      </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3198742615534926</v>
       </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="P26">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="Q26">
-        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
-        <v>6.2408947291026001E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.7394796467989598E-6</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,15 +2529,31 @@
       <c r="D27">
         <v>1.3058590000000001</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="1">
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>9.5676181616820727E-7</v>
+      </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3225078677519737</v>
       </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="P27">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="Q27">
-        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
-        <v>6.2408947291026001E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.5676181616820727E-7</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,15 +2570,31 @@
       <c r="D28">
         <v>1.162965</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="1">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9493177387914229E-3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1.7447421755841502E-7</v>
+      </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5171588424608586</v>
       </c>
+      <c r="N28">
+        <f xml:space="preserve"> 0.2 * $A26</f>
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>4.8</v>
+      </c>
       <c r="Q28">
-        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
-        <v>6.2408947291026001E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.7447421755841502E-7</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,15 +2611,27 @@
       <c r="D29">
         <v>1.6133500000000001</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>2.8741732104009552E-8</v>
+      </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5192575201423595</v>
       </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
       <c r="Q29">
-        <f>_xlfn.NORM.DIST($P$5:$P$29,$J$2,$O$2,FALSE)</f>
-        <v>6.2408947291026001E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.8741732104009552E-8</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2428,11 +2648,18 @@
       <c r="D30">
         <v>1.6996690000000001</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
+      <c r="F30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="4"/>
+        <v>5.8479532163742687E-3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5548672205805363</v>
       </c>
     </row>
@@ -2451,7 +2678,7 @@
         <v>1.3335189999999999</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6233434718419231</v>
       </c>
     </row>
@@ -2473,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.744446548251684</v>
       </c>
     </row>
@@ -2495,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7447760189235448</v>
       </c>
     </row>
@@ -2517,7 +2744,7 @@
         <v>12</v>
       </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7504329651033497</v>
       </c>
     </row>
@@ -2539,7 +2766,7 @@
         <v>25</v>
       </c>
       <c r="L35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9101774328012127</v>
       </c>
     </row>
@@ -2561,7 +2788,7 @@
         <v>51</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9482116658316233</v>
       </c>
     </row>
@@ -2583,7 +2810,7 @@
         <v>120</v>
       </c>
       <c r="L37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9546460040876861</v>
       </c>
     </row>
@@ -2605,7 +2832,7 @@
         <v>132</v>
       </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9819242680240867</v>
       </c>
     </row>
@@ -2627,7 +2854,7 @@
         <v>61</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0969447338310561</v>
       </c>
     </row>
@@ -2649,7 +2876,7 @@
         <v>43</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.098585119346855</v>
       </c>
     </row>
@@ -2671,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1304753382209736</v>
       </c>
     </row>
@@ -2693,7 +2920,7 @@
         <v>20</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1850304358758601</v>
       </c>
     </row>
@@ -2715,7 +2942,7 @@
         <v>8</v>
       </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2007060585620755</v>
       </c>
     </row>
@@ -2737,7 +2964,7 @@
         <v>8</v>
       </c>
       <c r="L44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2483370813194128</v>
       </c>
     </row>
@@ -2759,7 +2986,7 @@
         <v>2</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2564205885833513</v>
       </c>
     </row>
@@ -2781,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2663055865351005</v>
       </c>
     </row>
@@ -2803,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="L47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2785610345516236</v>
       </c>
     </row>
@@ -2825,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2950204688920062</v>
       </c>
     </row>
@@ -2847,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3494434458308113</v>
       </c>
     </row>
@@ -2869,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3596275508859819</v>
       </c>
     </row>
@@ -2891,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.438401893553217</v>
       </c>
     </row>
@@ -2913,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4510841833584598</v>
       </c>
     </row>
@@ -2935,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5460290980372404</v>
       </c>
     </row>
@@ -2957,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0170084127048131</v>
       </c>
     </row>
@@ -2979,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4931811042192589</v>
       </c>
     </row>
@@ -3001,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.13304298847161</v>
       </c>
     </row>
@@ -3023,7 +3250,7 @@
         <v>3</v>
       </c>
       <c r="L57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6226473261756347</v>
       </c>
     </row>
@@ -3042,7 +3269,7 @@
         <v>2.0114070000000002</v>
       </c>
       <c r="L58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6804848474948173</v>
       </c>
     </row>
@@ -3061,7 +3288,7 @@
         <v>0.78156800000000004</v>
       </c>
       <c r="L59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6806386985987078</v>
       </c>
     </row>
@@ -3080,7 +3307,7 @@
         <v>1.2362219999999999</v>
       </c>
       <c r="L60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1158911762998169</v>
       </c>
     </row>
@@ -3099,7 +3326,7 @@
         <v>1.6722619999999999</v>
       </c>
       <c r="L61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.440907839550631</v>
       </c>
     </row>
@@ -3118,7 +3345,7 @@
         <v>1.3384739999999999</v>
       </c>
       <c r="L62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4542361557577301</v>
       </c>
     </row>
@@ -3137,7 +3364,7 @@
         <v>1.3378099999999999</v>
       </c>
       <c r="L63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5570151765546694</v>
       </c>
     </row>
@@ -3156,7 +3383,7 @@
         <v>0.96073399999999998</v>
       </c>
       <c r="L64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5571893196009601</v>
       </c>
     </row>
@@ -3175,7 +3402,7 @@
         <v>1.1448769999999999</v>
       </c>
       <c r="L65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5573814282655079</v>
       </c>
     </row>
@@ -3194,7 +3421,7 @@
         <v>1.1284069999999999</v>
       </c>
       <c r="L66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7102126400337596</v>
       </c>
     </row>
@@ -3213,13 +3440,13 @@
         <v>1.9167190000000001</v>
       </c>
       <c r="L67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7529761201254885</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="3">1 + $A67</f>
+        <f t="shared" ref="A68:A131" si="6">1 + $A67</f>
         <v>67</v>
       </c>
       <c r="B68">
@@ -3232,13 +3459,13 @@
         <v>1.183856</v>
       </c>
       <c r="L68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.8028226333085975</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B69">
@@ -3251,13 +3478,13 @@
         <v>1.3041240000000001</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L132" si="4" xml:space="preserve"> ($D67-$J$2)*($D67-$J$2) + $L68</f>
+        <f t="shared" ref="L69:L132" si="7" xml:space="preserve"> ($D67-$J$2)*($D67-$J$2) + $L68</f>
         <v>9.1221026361676589</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="B70">
@@ -3270,13 +3497,13 @@
         <v>1.1611180000000001</v>
       </c>
       <c r="L70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.1502642845141224</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="B71">
@@ -3289,13 +3516,13 @@
         <v>1.3407370000000001</v>
       </c>
       <c r="L71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.1525249377253139</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="B72">
@@ -3308,13 +3535,13 @@
         <v>1.3511709999999999</v>
       </c>
       <c r="L72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.188835127050428</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="B73">
@@ -3327,13 +3554,13 @@
         <v>1.2522899999999999</v>
       </c>
       <c r="L73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.1889546646897173</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="B74">
@@ -3346,13 +3573,13 @@
         <v>1.233665</v>
       </c>
       <c r="L74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.1889549140171702</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="B75">
@@ -3365,13 +3592,13 @@
         <v>1.2041200000000001</v>
       </c>
       <c r="L75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.1988313634117969</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="B76">
@@ -3384,13 +3611,13 @@
         <v>1.4323950000000001</v>
       </c>
       <c r="L76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.2127566206121738</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="B77">
@@ -3403,13 +3630,13 @@
         <v>1.4564060000000001</v>
       </c>
       <c r="L77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.2345277196099804</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="B78">
@@ -3422,13 +3649,13 @@
         <v>0.36982500000000001</v>
       </c>
       <c r="L78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.2410441924409366</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="B79">
@@ -3441,13 +3668,13 @@
         <v>1.4602539999999999</v>
       </c>
       <c r="L79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.2520137536396998</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="B80">
@@ -3460,13 +3687,13 @@
         <v>2.5231919999999999</v>
       </c>
       <c r="L80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.216033999791437</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="B81">
@@ -3479,13 +3706,13 @@
         <v>0.32794499999999999</v>
       </c>
       <c r="L81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.227824413833607</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="B82">
@@ -3498,13 +3725,13 @@
         <v>1.1981630000000001</v>
       </c>
       <c r="L82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11.600287444142326</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="B83">
@@ -3517,13 +3744,13 @@
         <v>1.3977630000000001</v>
       </c>
       <c r="L83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.648300989283584</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="B84">
@@ -3536,13 +3763,13 @@
         <v>1.147338</v>
       </c>
       <c r="L84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.671865488726269</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="B85">
@@ -3555,13 +3782,13 @@
         <v>1.0907340000000001</v>
       </c>
       <c r="L85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.673990023230553</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="B86">
@@ -3574,13 +3801,13 @@
         <v>1.149967</v>
       </c>
       <c r="L86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.715741723087788</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="B87">
@@ -3593,13 +3820,13 @@
         <v>1.2358549999999999</v>
       </c>
       <c r="L87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.783829489836039</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="B88">
@@ -3612,13 +3839,13 @@
         <v>1.4198360000000001</v>
       </c>
       <c r="L88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.824513721958908</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="B89">
@@ -3631,13 +3858,13 @@
         <v>1.0964739999999999</v>
       </c>
       <c r="L89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.837926911927026</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="B90">
@@ -3650,13 +3877,13 @@
         <v>1.142949</v>
       </c>
       <c r="L90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.842573470902568</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="B91">
@@ -3669,13 +3896,13 @@
         <v>1.0209969999999999</v>
       </c>
       <c r="L91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.907698636216859</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="B92">
@@ -3688,13 +3915,13 @@
         <v>1.475994</v>
       </c>
       <c r="L92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.951263228561499</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="B93">
@@ -3707,13 +3934,13 @@
         <v>0.85294700000000001</v>
       </c>
       <c r="L93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>13.060608077750748</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="B94">
@@ -3726,13 +3953,13 @@
         <v>0.34786899999999998</v>
       </c>
       <c r="L94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>13.07606445341896</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="B95">
@@ -3745,13 +3972,13 @@
         <v>1.3395140000000001</v>
       </c>
       <c r="L95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>13.324789410312908</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="B96">
@@ -3764,13 +3991,13 @@
         <v>1.298616</v>
       </c>
       <c r="L96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.332406514399869</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="B97">
@@ -3783,13 +4010,13 @@
         <v>1.1000829999999999</v>
       </c>
       <c r="L97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.332554290686</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="B98">
@@ -3802,13 +4029,13 @@
         <v>1.6221209999999999</v>
       </c>
       <c r="L98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.335369052299423</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="B99">
@@ -3821,13 +4048,13 @@
         <v>1.8766929999999999</v>
       </c>
       <c r="L99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.398665235406428</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="B100">
@@ -3840,13 +4067,13 @@
         <v>1.3308949999999999</v>
       </c>
       <c r="L100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.47180880193258</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="B101">
@@ -3859,13 +4086,13 @@
         <v>1.469357</v>
       </c>
       <c r="L101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.747457609096646</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="B102">
@@ -3878,13 +4105,13 @@
         <v>1.431592</v>
       </c>
       <c r="L102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.747889223308603</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="B103">
@@ -3897,13 +4124,13 @@
         <v>1.908536</v>
       </c>
       <c r="L103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.761739376310411</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="B104">
@@ -3916,13 +4143,13 @@
         <v>1.908536</v>
       </c>
       <c r="L104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.76812685012553</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="B105">
@@ -3935,13 +4162,13 @@
         <v>1.234661</v>
       </c>
       <c r="L105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.078226227891273</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="B106">
@@ -3954,13 +4181,13 @@
         <v>0.80387799999999998</v>
       </c>
       <c r="L106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.388325605657016</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="B107">
@@ -3973,13 +4200,13 @@
         <v>1.266413</v>
       </c>
       <c r="L107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.402016788262008</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>107</v>
       </c>
       <c r="B108">
@@ -3992,13 +4219,13 @@
         <v>1.229384</v>
       </c>
       <c r="L108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.702093221782084</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="B109">
@@ -4011,13 +4238,13 @@
         <v>0.67819300000000005</v>
       </c>
       <c r="L109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.709362033589269</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>109</v>
       </c>
       <c r="B110">
@@ -4030,13 +4257,13 @@
         <v>1.283506</v>
       </c>
       <c r="L110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.724315979360419</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="B111">
@@ -4049,13 +4276,13 @@
         <v>1.0880449999999999</v>
       </c>
       <c r="L111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.177887689343486</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>111</v>
       </c>
       <c r="B112">
@@ -4068,13 +4295,13 @@
         <v>1.165597</v>
       </c>
       <c r="L112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.182534064818849</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="B113">
@@ -4087,13 +4314,13 @@
         <v>1.529304</v>
       </c>
       <c r="L113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.252032377854707</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
       <c r="B114">
@@ -4106,13 +4333,13 @@
         <v>1.5616920000000001</v>
       </c>
       <c r="L114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.286655660875557</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="B115">
@@ -4125,13 +4352,13 @@
         <v>1.1952469999999999</v>
       </c>
       <c r="L115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.318209382659028</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="B116">
@@ -4144,13 +4371,13 @@
         <v>1.366619</v>
       </c>
       <c r="L116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.362318485788748</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="B117">
@@ -4163,13 +4390,13 @@
         <v>1.0977490000000001</v>
       </c>
       <c r="L117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.386786743018497</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="B118">
@@ -4182,13 +4409,13 @@
         <v>0.97537300000000005</v>
       </c>
       <c r="L118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.387010205842959</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="B119">
@@ -4201,13 +4428,13 @@
         <v>1.1394839999999999</v>
       </c>
       <c r="L119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.451486246148399</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="B120">
@@ -4220,13 +4447,13 @@
         <v>1.034869</v>
       </c>
       <c r="L120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.593085924455742</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="B121">
@@ -4239,13 +4466,13 @@
         <v>1.169287</v>
       </c>
       <c r="L121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.638108961821494</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="B122">
@@ -4258,13 +4485,13 @@
         <v>2.037385</v>
       </c>
       <c r="L122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.738472042610454</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="B123">
@@ -4277,13 +4504,13 @@
         <v>1.285949</v>
       </c>
       <c r="L123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.771735720578043</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="B124">
@@ -4296,13 +4523,13 @@
         <v>0.81172699999999998</v>
       </c>
       <c r="L124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.241940333345539</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="B125">
@@ -4315,13 +4542,13 @@
         <v>1.0786849999999999</v>
       </c>
       <c r="L125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.246259626168179</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="B126">
@@ -4334,13 +4561,13 @@
         <v>1.7610730000000001</v>
       </c>
       <c r="L126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.537798422540007</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="B127">
@@ -4353,13 +4580,13 @@
         <v>1.2347919999999999</v>
       </c>
       <c r="L127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.612319411297303</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="B128">
@@ -4372,13 +4599,13 @@
         <v>1.6041319999999999</v>
       </c>
       <c r="L128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.779929959956849</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="B129">
@@ -4391,13 +4618,13 @@
         <v>1.430137</v>
       </c>
       <c r="L129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.793590503279169</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="B130">
@@ -4410,13 +4637,13 @@
         <v>2.1430530000000001</v>
       </c>
       <c r="L130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.85732739961313</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="B131">
@@ -4429,13 +4656,13 @@
         <v>1.4665889999999999</v>
       </c>
       <c r="L131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.863484418384818</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
-        <f t="shared" ref="A132:A195" si="5">1 + $A131</f>
+        <f t="shared" ref="A132:A195" si="8">1 + $A131</f>
         <v>131</v>
       </c>
       <c r="B132">
@@ -4448,13 +4675,13 @@
         <v>0.99232600000000004</v>
       </c>
       <c r="L132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18.489770953509442</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>132</v>
       </c>
       <c r="B133">
@@ -4467,13 +4694,13 @@
         <v>1.5439750000000001</v>
       </c>
       <c r="L133">
-        <f t="shared" ref="L133:L196" si="6" xml:space="preserve"> ($D131-$J$2)*($D131-$J$2) + $L132</f>
+        <f t="shared" ref="L133:L196" si="9" xml:space="preserve"> ($D131-$J$2)*($D131-$J$2) + $L132</f>
         <v>18.502977254913525</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="B134">
@@ -4486,13 +4713,13 @@
         <v>1.687659</v>
       </c>
       <c r="L134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>18.632105600260608</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>134</v>
       </c>
       <c r="B135">
@@ -4505,13 +4732,13 @@
         <v>2.9271859999999998</v>
       </c>
       <c r="L135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>18.669086687518245</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
       <c r="B136">
@@ -4524,13 +4751,13 @@
         <v>1.2296</v>
       </c>
       <c r="L136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>18.781975075902547</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>136</v>
       </c>
       <c r="B137">
@@ -4543,13 +4770,13 @@
         <v>0.85358500000000004</v>
       </c>
       <c r="L137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.264224711771192</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>137</v>
       </c>
       <c r="B138">
@@ -4562,13 +4789,13 @@
         <v>1.298797</v>
       </c>
       <c r="L138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.279125876505077</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>138</v>
       </c>
       <c r="B139">
@@ -4581,13 +4808,13 @@
         <v>1.2825660000000001</v>
       </c>
       <c r="L139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.527214869477774</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>139</v>
       </c>
       <c r="B140">
@@ -4600,13 +4827,13 @@
         <v>0.80595799999999995</v>
       </c>
       <c r="L140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.530010458185824</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="B141">
@@ -4619,13 +4846,13 @@
         <v>1.74983</v>
       </c>
       <c r="L141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.534785866195946</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>141</v>
       </c>
       <c r="B142">
@@ -4638,13 +4865,13 @@
         <v>1.5714220000000001</v>
       </c>
       <c r="L142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.832587810035701</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>142</v>
       </c>
       <c r="B143">
@@ -4657,13 +4884,13 @@
         <v>1.186982</v>
       </c>
       <c r="L143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.991118935239168</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
       <c r="B144">
@@ -4676,13 +4903,13 @@
         <v>1.4154850000000001</v>
       </c>
       <c r="L144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.039409733025469</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="B145">
@@ -4695,13 +4922,13 @@
         <v>1.303787</v>
       </c>
       <c r="L145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.066531978075528</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>145</v>
       </c>
       <c r="B146">
@@ -4714,13 +4941,13 @@
         <v>1.0060560000000001</v>
       </c>
       <c r="L146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.070604290565626</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>146</v>
       </c>
       <c r="B147">
@@ -4733,13 +4960,13 @@
         <v>1.131812</v>
       </c>
       <c r="L147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.072897103570217</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>147</v>
       </c>
       <c r="B148">
@@ -4752,13 +4979,13 @@
         <v>1.7569429999999999</v>
       </c>
       <c r="L148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.192346366597878</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="B149">
@@ -4771,13 +4998,13 @@
         <v>1.4839500000000001</v>
       </c>
       <c r="L149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.240684050549117</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>149</v>
       </c>
       <c r="B150">
@@ -4790,13 +5017,13 @@
         <v>1.1665509999999999</v>
       </c>
       <c r="L150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.404929990029682</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="B151">
@@ -4809,13 +5036,13 @@
         <v>0.62884600000000002</v>
       </c>
       <c r="L151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.42242790191867</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>151</v>
       </c>
       <c r="B152">
@@ -4828,13 +5055,13 @@
         <v>0.71166600000000002</v>
       </c>
       <c r="L152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.456697067147605</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>152</v>
       </c>
       <c r="B153">
@@ -4847,13 +5074,13 @@
         <v>0.86643099999999995</v>
       </c>
       <c r="L153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.979172074850609</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>153</v>
       </c>
       <c r="B154">
@@ -4866,13 +5093,13 @@
         <v>0.96837499999999999</v>
       </c>
       <c r="L154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.388777613429333</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>154</v>
       </c>
       <c r="B155">
@@ -4885,13 +5112,13 @@
         <v>1.0735440000000001</v>
       </c>
       <c r="L155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.624234817896745</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
       <c r="B156">
@@ -4904,13 +5131,13 @@
         <v>1.2197560000000001</v>
       </c>
       <c r="L156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.771150125596783</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="B157">
@@ -4923,13 +5150,13 @@
         <v>1.7363900000000001</v>
       </c>
       <c r="L157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.848504379367295</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>157</v>
       </c>
       <c r="B158">
@@ -4942,13 +5169,13 @@
         <v>1.4223129999999999</v>
       </c>
       <c r="L158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.865905769035159</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="B159">
@@ -4961,13 +5188,13 @@
         <v>1.2096439999999999</v>
       </c>
       <c r="L159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.013914995828387</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>159</v>
       </c>
       <c r="B160">
@@ -4980,13 +5207,13 @@
         <v>0.77212700000000001</v>
       </c>
       <c r="L160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.018905383076973</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="B161">
@@ -4999,13 +5226,13 @@
         <v>1.8157719999999999</v>
       </c>
       <c r="L161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.039076860638083</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>161</v>
       </c>
       <c r="B162">
@@ -5018,13 +5245,13 @@
         <v>2.1026310000000001</v>
       </c>
       <c r="L162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.374947328508313</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>162</v>
       </c>
       <c r="B163">
@@ -5037,13 +5264,13 @@
         <v>1.4767779999999999</v>
       </c>
       <c r="L163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.590337691389713</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>163</v>
       </c>
       <c r="B164">
@@ -5056,13 +5283,13 @@
         <v>1.271798</v>
       </c>
       <c r="L164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25.154279623782326</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>164</v>
       </c>
       <c r="B165">
@@ -5075,13 +5302,13 @@
         <v>1.290432</v>
       </c>
       <c r="L165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25.169931553625801</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>165</v>
       </c>
       <c r="B166">
@@ -5094,13 +5321,13 @@
         <v>3.9862850000000001</v>
       </c>
       <c r="L166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25.176311142246195</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>166</v>
       </c>
       <c r="B167">
@@ -5113,13 +5340,13 @@
         <v>1.311245</v>
       </c>
       <c r="L167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25.180061274939955</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>167</v>
       </c>
       <c r="B168">
@@ -5132,13 +5359,13 @@
         <v>3.1558090000000001</v>
       </c>
       <c r="L168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32.121255750126856</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>168</v>
       </c>
       <c r="B169">
@@ -5151,13 +5378,13 @@
         <v>1.401427</v>
       </c>
       <c r="L169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32.122889957189912</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>169</v>
       </c>
       <c r="B170">
@@ -5170,13 +5397,13 @@
         <v>0.37308000000000002</v>
       </c>
       <c r="L170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.377806308604114</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="B171">
@@ -5189,13 +5416,13 @@
         <v>1.2486170000000001</v>
       </c>
       <c r="L171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.380282035112145</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>171</v>
       </c>
       <c r="B172">
@@ -5208,13 +5435,13 @@
         <v>1.0071619999999999</v>
       </c>
       <c r="L172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.337921063210111</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>172</v>
       </c>
       <c r="B173">
@@ -5227,13 +5454,13 @@
         <v>1.464971</v>
       </c>
       <c r="L173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.348541051415879</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>173</v>
       </c>
       <c r="B174">
@@ -5246,13 +5473,13 @@
         <v>1.4102349999999999</v>
       </c>
       <c r="L174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.467227038788216</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>174</v>
       </c>
       <c r="B175">
@@ -5265,13 +5492,13 @@
         <v>0.693573</v>
       </c>
       <c r="L175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.480064081290472</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>175</v>
       </c>
       <c r="B176">
@@ -5284,13 +5511,13 @@
         <v>0.56592600000000004</v>
       </c>
       <c r="L176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.483493902214072</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>176</v>
       </c>
       <c r="B177">
@@ -5303,13 +5530,13 @@
         <v>1.4383919999999999</v>
       </c>
       <c r="L177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.916585994018618</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>177</v>
       </c>
       <c r="B178">
@@ -5322,13 +5549,13 @@
         <v>1.07263</v>
       </c>
       <c r="L178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>37.5339801414313</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>178</v>
       </c>
       <c r="B179">
@@ -5341,13 +5568,13 @@
         <v>2.205857</v>
       </c>
       <c r="L179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>37.541500789999219</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>179</v>
       </c>
       <c r="B180">
@@ -5360,13 +5587,13 @@
         <v>1.1561079999999999</v>
       </c>
       <c r="L180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>37.619364294091483</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="B181">
@@ -5379,13 +5606,13 @@
         <v>1.093836</v>
       </c>
       <c r="L181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>38.348999166422288</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>181</v>
       </c>
       <c r="B182">
@@ -5398,13 +5625,13 @@
         <v>0.84937700000000005</v>
       </c>
       <c r="L182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>38.387243790163943</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>182</v>
       </c>
       <c r="B183">
@@ -5417,13 +5644,13 @@
         <v>2.0922360000000002</v>
       </c>
       <c r="L183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>38.453722330343489</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
       <c r="B184">
@@ -5436,13 +5663,13 @@
         <v>1.282338</v>
       </c>
       <c r="L184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>38.706020916692218</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>184</v>
       </c>
       <c r="B185">
@@ -5455,13 +5682,13 @@
         <v>0.93862299999999999</v>
       </c>
       <c r="L185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39.25445843271816</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>185</v>
       </c>
       <c r="B186">
@@ -5474,13 +5701,13 @@
         <v>1.6875070000000001</v>
       </c>
       <c r="L186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39.259265404285394</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>186</v>
       </c>
       <c r="B187">
@@ -5493,13 +5720,13 @@
         <v>1.6011310000000001</v>
       </c>
       <c r="L187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39.429873498627238</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>187</v>
       </c>
       <c r="B188">
@@ -5512,13 +5739,13 @@
         <v>1.3756619999999999</v>
       </c>
       <c r="L188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39.542659769558945</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>188</v>
       </c>
       <c r="B189">
@@ -5531,13 +5758,13 @@
         <v>1.0771580000000001</v>
       </c>
       <c r="L189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39.604890396932561</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>189</v>
       </c>
       <c r="B190">
@@ -5550,13 +5777,13 @@
         <v>1.128436</v>
       </c>
       <c r="L190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39.605465997305899</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="B191">
@@ -5569,13 +5796,13 @@
         <v>1.285615</v>
       </c>
       <c r="L191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39.680823014980852</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>191</v>
       </c>
       <c r="B192">
@@ -5588,13 +5815,13 @@
         <v>0.822102</v>
       </c>
       <c r="L192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39.730656579731992</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="B193">
@@ -5607,13 +5834,13 @@
         <v>1.433408</v>
       </c>
       <c r="L193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39.735019885957065</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>193</v>
       </c>
       <c r="B194">
@@ -5626,13 +5853,13 @@
         <v>0.90191900000000003</v>
       </c>
       <c r="L194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40.015462498918644</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>194</v>
       </c>
       <c r="B195">
@@ -5645,13 +5872,13 @@
         <v>2.366047</v>
       </c>
       <c r="L195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40.022143546106101</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
-        <f t="shared" ref="A196:A259" si="7">1 + $A195</f>
+        <f t="shared" ref="A196:A259" si="10">1 + $A195</f>
         <v>195</v>
       </c>
       <c r="B196">
@@ -5664,13 +5891,13 @@
         <v>5.0841139999999996</v>
       </c>
       <c r="L196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40.224419802244363</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>196</v>
       </c>
       <c r="B197">
@@ -5683,13 +5910,13 @@
         <v>1.1759299999999999</v>
       </c>
       <c r="L197">
-        <f t="shared" ref="L197:L260" si="8" xml:space="preserve"> ($D195-$J$2)*($D195-$J$2) + $L196</f>
+        <f t="shared" ref="L197:L260" si="11" xml:space="preserve"> ($D195-$J$2)*($D195-$J$2) + $L196</f>
         <v>41.253379836970915</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>197</v>
       </c>
       <c r="B198">
@@ -5702,13 +5929,13 @@
         <v>1.007571</v>
       </c>
       <c r="L198">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>55.184515609088642</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>198</v>
       </c>
       <c r="B199">
@@ -5721,13 +5948,13 @@
         <v>1.707446</v>
       </c>
       <c r="L199">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>55.215400271622705</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>199</v>
       </c>
       <c r="B200">
@@ -5740,13 +5967,13 @@
         <v>2.1826409999999998</v>
       </c>
       <c r="L200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>55.333804618464555</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="B201">
@@ -5759,13 +5986,13 @@
         <v>0.94038299999999997</v>
       </c>
       <c r="L201">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>55.460380947963159</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>201</v>
       </c>
       <c r="B202">
@@ -5778,13 +6005,13 @@
         <v>1.1728829999999999</v>
       </c>
       <c r="L202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>56.150893207349235</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>202</v>
       </c>
       <c r="B203">
@@ -5797,13 +6024,13 @@
         <v>0.126749</v>
       </c>
       <c r="L203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>56.320050472700039</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>203</v>
       </c>
       <c r="B204">
@@ -5816,13 +6043,13 @@
         <v>0.89296500000000001</v>
       </c>
       <c r="L204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>56.352015380995844</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>204</v>
       </c>
       <c r="B205">
@@ -5835,13 +6062,13 @@
         <v>1.258961</v>
       </c>
       <c r="L205">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>57.852447638335285</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>205</v>
       </c>
       <c r="B206">
@@ -5854,13 +6081,13 @@
         <v>0.80274699999999999</v>
       </c>
       <c r="L206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>58.062858215353465</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>206</v>
       </c>
       <c r="B207">
@@ -5873,13 +6100,13 @@
         <v>0.56369899999999995</v>
       </c>
       <c r="L207">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>58.071453234666258</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="B208">
@@ -5892,13 +6119,13 @@
         <v>0.76954800000000001</v>
       </c>
       <c r="L208">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>58.372770053591005</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>208</v>
       </c>
       <c r="B209">
@@ -5911,13 +6138,13 @@
         <v>0.764069</v>
       </c>
       <c r="L209">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>58.993668865765144</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>209</v>
       </c>
       <c r="B210">
@@ -5930,13 +6157,13 @@
         <v>1.2696890000000001</v>
       </c>
       <c r="L210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>59.332535269357038</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
       <c r="B211">
@@ -5949,13 +6176,13 @@
         <v>1.389845</v>
       </c>
       <c r="L211">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>59.677810588849198</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>211</v>
       </c>
       <c r="B212">
@@ -5968,13 +6195,13 @@
         <v>1.594765</v>
       </c>
       <c r="L212">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>59.684531526825879</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>212</v>
       </c>
       <c r="B213">
@@ -5987,13 +6214,13 @@
         <v>1.8599000000000001</v>
       </c>
       <c r="L213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>59.685988832484533</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>213</v>
       </c>
       <c r="B214">
@@ -6006,13 +6233,13 @@
         <v>1.4845010000000001</v>
       </c>
       <c r="L214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>59.745083852525511</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>214</v>
       </c>
       <c r="B215">
@@ -6025,13 +6252,13 @@
         <v>1.284745</v>
       </c>
       <c r="L215">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.003381253043194</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>215</v>
       </c>
       <c r="B216">
@@ -6044,13 +6271,13 @@
         <v>1.2950889999999999</v>
       </c>
       <c r="L216">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.021025240732826</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="B217">
@@ -6063,13 +6290,13 @@
         <v>1.197902</v>
       </c>
       <c r="L217">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.025504240126885</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>217</v>
       </c>
       <c r="B218">
@@ -6082,13 +6309,13 @@
         <v>0.998251</v>
       </c>
       <c r="L218">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.028705686691964</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>218</v>
       </c>
       <c r="B219">
@@ -6101,13 +6328,13 @@
         <v>1.3674310000000001</v>
       </c>
       <c r="L219">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.052350385080345</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>219</v>
       </c>
       <c r="B220">
@@ -6120,13 +6347,13 @@
         <v>1.1651640000000001</v>
       </c>
       <c r="L220">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.177255605777475</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="B221">
@@ -6139,13 +6366,13 @@
         <v>1.3370919999999999</v>
       </c>
       <c r="L221">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.177504004590887</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>221</v>
       </c>
       <c r="B222">
@@ -6158,13 +6385,13 @@
         <v>0.85200299999999995</v>
       </c>
       <c r="L222">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.212288614601917</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>222</v>
       </c>
       <c r="B223">
@@ -6177,13 +6404,13 @@
         <v>1.0443709999999999</v>
       </c>
       <c r="L223">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.212501142220034</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>223</v>
       </c>
       <c r="B224">
@@ -6196,13 +6423,13 @@
         <v>1.385408</v>
       </c>
       <c r="L224">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.462168579891362</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>224</v>
       </c>
       <c r="B225">
@@ -6215,13 +6442,13 @@
         <v>1.154013</v>
       </c>
       <c r="L225">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.556601456266016</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="B226">
@@ -6234,13 +6461,13 @@
         <v>1.705117</v>
       </c>
       <c r="L226">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.557739686845473</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>226</v>
       </c>
       <c r="B227">
@@ -6253,13 +6480,13 @@
         <v>2.0327449999999998</v>
       </c>
       <c r="L227">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.596808105762257</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>227</v>
       </c>
       <c r="B228">
@@ -6272,13 +6499,13 @@
         <v>1.413313</v>
       </c>
       <c r="L228">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.721732656417025</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>228</v>
       </c>
       <c r="B229">
@@ -6291,13 +6518,13 @@
         <v>1.000213</v>
       </c>
       <c r="L229">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>61.185595366619083</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>229</v>
       </c>
       <c r="B230">
@@ -6310,13 +6537,13 @@
         <v>1.7779739999999999</v>
       </c>
       <c r="L230">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>61.189395185753668</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="B231">
@@ -6329,13 +6556,13 @@
         <v>2.1818849999999999</v>
       </c>
       <c r="L231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>61.312917438455649</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>231</v>
       </c>
       <c r="B232">
@@ -6348,13 +6575,13 @@
         <v>2.0280749999999999</v>
       </c>
       <c r="L232">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>61.494652260068939</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>232</v>
       </c>
       <c r="B233">
@@ -6367,13 +6594,13 @@
         <v>4.7384430000000002</v>
       </c>
       <c r="L233">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>62.183908663333433</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>233</v>
       </c>
       <c r="B234">
@@ -6386,13 +6613,13 @@
         <v>2.3824649999999998</v>
       </c>
       <c r="L234">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>62.641431944989669</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
       <c r="B235">
@@ -6405,13 +6632,13 @@
         <v>1.699227</v>
       </c>
       <c r="L235">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>74.111661083569231</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>235</v>
       </c>
       <c r="B236">
@@ -6424,13 +6651,13 @@
         <v>1.255533</v>
       </c>
       <c r="L236">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75.174198741454404</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>236</v>
       </c>
       <c r="B237">
@@ -6443,13 +6670,13 @@
         <v>0.92276499999999995</v>
       </c>
       <c r="L237">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75.294994382401228</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>237</v>
       </c>
       <c r="B238">
@@ -6462,13 +6689,13 @@
         <v>0.91660699999999995</v>
       </c>
       <c r="L238">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75.304236768043936</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>238</v>
       </c>
       <c r="B239">
@@ -6481,13 +6708,13 @@
         <v>0.70760999999999996</v>
       </c>
       <c r="L239">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75.488196547572912</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
       <c r="B240">
@@ -6500,13 +6727,13 @@
         <v>1.2134750000000001</v>
       </c>
       <c r="L240">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75.677476646073217</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="B241">
@@ -6519,13 +6746,13 @@
         <v>1.0933040000000001</v>
       </c>
       <c r="L241">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>76.092290350888561</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>241</v>
       </c>
       <c r="B242">
@@ -6538,13 +6765,13 @@
         <v>1.268554</v>
       </c>
       <c r="L242">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>76.111388299293196</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>242</v>
       </c>
       <c r="B243">
@@ -6557,13 +6784,13 @@
         <v>0.56119300000000005</v>
       </c>
       <c r="L243">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>76.178141458220665</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>243</v>
       </c>
       <c r="B244">
@@ -6576,13 +6803,13 @@
         <v>1.075577</v>
       </c>
       <c r="L244">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>76.185049782034639</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>244</v>
       </c>
       <c r="B245">
@@ -6595,13 +6822,13 @@
         <v>1.40605</v>
       </c>
       <c r="L245">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>76.809904186535704</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="B246">
@@ -6614,13 +6841,13 @@
         <v>1.2711699999999999</v>
       </c>
       <c r="L246">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>76.886131711749627</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>246</v>
       </c>
       <c r="B247">
@@ -6633,13 +6860,13 @@
         <v>0.82019900000000001</v>
       </c>
       <c r="L247">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>76.889088860585218</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>247</v>
       </c>
       <c r="B248">
@@ -6652,13 +6879,13 @@
         <v>1.1695530000000001</v>
       </c>
       <c r="L248">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>76.895569163232324</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>248</v>
       </c>
       <c r="B249">
@@ -6671,13 +6898,13 @@
         <v>5.9686680000000001</v>
       </c>
       <c r="L249">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>77.178030934655467</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>249</v>
       </c>
       <c r="B250">
@@ -6690,13 +6917,13 @@
         <v>1.0850960000000001</v>
       </c>
       <c r="L250">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>77.211197655449098</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="B251">
@@ -6709,13 +6936,13 @@
         <v>1.359248</v>
       </c>
       <c r="L251">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98.527865167936511</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>251</v>
       </c>
       <c r="B252">
@@ -6728,13 +6955,13 @@
         <v>1.0205200000000001</v>
       </c>
       <c r="L252">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98.598927039752013</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>252</v>
       </c>
       <c r="B253">
@@ -6747,13 +6974,13 @@
         <v>1.4182600000000001</v>
       </c>
       <c r="L253">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98.598984460880104</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>253</v>
       </c>
       <c r="B254">
@@ -6766,13 +6993,13 @@
         <v>1.6192610000000001</v>
       </c>
       <c r="L254">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98.708644999952313</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>254</v>
       </c>
       <c r="B255">
@@ -6785,13 +7012,13 @@
         <v>1.4580090000000001</v>
       </c>
       <c r="L255">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98.713079184502561</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>255</v>
       </c>
       <c r="B256">
@@ -6804,13 +7031,13 @@
         <v>1.3977280000000001</v>
       </c>
       <c r="L256">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98.784683952779147</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>256</v>
       </c>
       <c r="B257">
@@ -6823,13 +7050,13 @@
         <v>1.2045710000000001</v>
       </c>
       <c r="L257">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98.795991866154552</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>257</v>
       </c>
       <c r="B258">
@@ -6842,13 +7069,13 @@
         <v>1.1794770000000001</v>
       </c>
       <c r="L258">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98.798113175396722</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>258</v>
       </c>
       <c r="B259">
@@ -6861,13 +7088,13 @@
         <v>1.6841299999999999</v>
       </c>
       <c r="L259">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98.819751387400572</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
-        <f t="shared" ref="A260:A323" si="9">1 + $A259</f>
+        <f t="shared" ref="A260:A323" si="12">1 + $A259</f>
         <v>259</v>
       </c>
       <c r="B260">
@@ -6880,13 +7107,13 @@
         <v>2.4721030000000002</v>
       </c>
       <c r="L260">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98.849401929263905</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>260</v>
       </c>
       <c r="B261">
@@ -6899,13 +7126,13 @@
         <v>1.221157</v>
       </c>
       <c r="L261">
-        <f t="shared" ref="L261:L324" si="10" xml:space="preserve"> ($D259-$J$2)*($D259-$J$2) + $L260</f>
+        <f t="shared" ref="L261:L324" si="13" xml:space="preserve"> ($D259-$J$2)*($D259-$J$2) + $L260</f>
         <v>98.959931363435174</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>261</v>
       </c>
       <c r="B262">
@@ -6918,13 +7145,13 @@
         <v>3.031838</v>
       </c>
       <c r="L262">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>100.2153007381611</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>262</v>
       </c>
       <c r="B263">
@@ -6937,13 +7164,13 @@
         <v>1.239298</v>
       </c>
       <c r="L263">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>100.23233446668571</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>263</v>
       </c>
       <c r="B264">
@@ -6956,13 +7183,13 @@
         <v>0.95549600000000001</v>
       </c>
       <c r="L264">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>103.05529787607995</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>264</v>
       </c>
       <c r="B265">
@@ -6975,13 +7202,13 @@
         <v>1.291749</v>
       </c>
       <c r="L265">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>103.06792541595534</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>265</v>
       </c>
       <c r="B266">
@@ -6994,13 +7221,13 @@
         <v>1.6986889999999999</v>
       </c>
       <c r="L266">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>103.22487951332924</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>266</v>
       </c>
       <c r="B267">
@@ -7013,13 +7240,13 @@
         <v>2.0141779999999998</v>
       </c>
       <c r="L267">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>103.22847007875868</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>267</v>
       </c>
       <c r="B268">
@@ -7032,13 +7259,13 @@
         <v>1.2872410000000001</v>
       </c>
       <c r="L268">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>103.34889203816935</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>268</v>
       </c>
       <c r="B269">
@@ -7051,13 +7278,13 @@
         <v>0.73282400000000003</v>
       </c>
       <c r="L269">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>103.78780845495322</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>269</v>
       </c>
       <c r="B270">
@@ -7070,13 +7297,13 @@
         <v>0.98244200000000004</v>
       </c>
       <c r="L270">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>103.7919595931309</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>270</v>
       </c>
       <c r="B271">
@@ -7089,13 +7316,13 @@
         <v>1.2786550000000001</v>
       </c>
       <c r="L271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>104.17493036957229</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>271</v>
       </c>
       <c r="B272">
@@ -7108,13 +7335,13 @@
         <v>1.420194</v>
       </c>
       <c r="L272">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>104.31125992703151</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>272</v>
       </c>
       <c r="B273">
@@ -7127,13 +7354,13 @@
         <v>1.5144569999999999</v>
       </c>
       <c r="L273">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>104.31659116500843</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>273</v>
       </c>
       <c r="B274">
@@ -7146,13 +7373,13 @@
         <v>1.529102</v>
       </c>
       <c r="L274">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>104.32128665876985</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>274</v>
       </c>
       <c r="B275">
@@ -7165,13 +7392,13 @@
         <v>1.2520469999999999</v>
       </c>
       <c r="L275">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>104.34778615967626</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>275</v>
       </c>
       <c r="B276">
@@ -7184,13 +7411,13 @@
         <v>1.409924</v>
       </c>
       <c r="L276">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>104.37926815825983</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>276</v>
       </c>
       <c r="B277">
@@ -7203,13 +7430,13 @@
         <v>2.5985559999999999</v>
       </c>
       <c r="L277">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>104.38919296554238</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>277</v>
       </c>
       <c r="B278">
@@ -7222,13 +7449,13 @@
         <v>1.108598</v>
       </c>
       <c r="L278">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>104.39258645596037</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>278</v>
       </c>
       <c r="B279">
@@ -7241,13 +7468,13 @@
         <v>1.227649</v>
       </c>
       <c r="L279">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>105.94731033749304</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>279</v>
       </c>
       <c r="B280">
@@ -7260,13 +7487,13 @@
         <v>1.185316</v>
       </c>
       <c r="L280">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>106.00639449364623</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>280</v>
       </c>
       <c r="B281">
@@ -7279,13 +7506,13 @@
         <v>1.4122589999999999</v>
       </c>
       <c r="L281">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>106.02177578319707</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>281</v>
       </c>
       <c r="B282">
@@ -7298,13 +7525,13 @@
         <v>2.5899800000000002</v>
       </c>
       <c r="L282">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>106.04944954530869</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>282</v>
       </c>
       <c r="B283">
@@ -7317,13 +7544,13 @@
         <v>0.98591499999999999</v>
       </c>
       <c r="L283">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>106.05312053260459</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>283</v>
       </c>
       <c r="B284">
@@ -7336,13 +7563,13 @@
         <v>0.88228300000000004</v>
       </c>
       <c r="L284">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>107.58653137884997</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>284</v>
       </c>
       <c r="B285">
@@ -7355,13 +7582,13 @@
         <v>0.61996700000000005</v>
       </c>
       <c r="L285">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>107.72030833807885</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>285</v>
       </c>
       <c r="B286">
@@ -7374,13 +7601,13 @@
         <v>1.2686900000000001</v>
       </c>
       <c r="L286">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>107.94063280082706</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>286</v>
       </c>
       <c r="B287">
@@ -7393,13 +7620,13 @@
         <v>1.5464389999999999</v>
       </c>
       <c r="L287">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>108.47602255956993</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>287</v>
       </c>
       <c r="B288">
@@ -7412,13 +7639,13 @@
         <v>1.283139</v>
       </c>
       <c r="L288">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>108.48290829423895</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>288</v>
       </c>
       <c r="B289">
@@ -7431,13 +7658,13 @@
         <v>1.689867</v>
       </c>
       <c r="L289">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>108.52084313022114</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>289</v>
       </c>
       <c r="B290">
@@ -7450,13 +7677,13 @@
         <v>1.150631</v>
       </c>
       <c r="L290">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>108.52553967300152</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>290</v>
       </c>
       <c r="B291">
@@ -7469,13 +7696,13 @@
         <v>1.1502019999999999</v>
       </c>
       <c r="L291">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>108.63991666262979</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>291</v>
       </c>
       <c r="B292">
@@ -7488,13 +7715,13 @@
         <v>0.72569899999999998</v>
       </c>
       <c r="L292">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>108.6803334736304</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="B293">
@@ -7507,13 +7734,13 @@
         <v>1.1904440000000001</v>
       </c>
       <c r="L293">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>108.72092296041458</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="B294">
@@ -7526,13 +7753,13 @@
         <v>1.198258</v>
       </c>
       <c r="L294">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>109.11276306264072</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>294</v>
       </c>
       <c r="B295">
@@ -7545,13 +7772,13 @@
         <v>1.203473</v>
       </c>
       <c r="L295">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>109.13875699115863</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>295</v>
       </c>
       <c r="B296">
@@ -7564,13 +7791,13 @@
         <v>1.4140010000000001</v>
       </c>
       <c r="L296">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>109.16229233323419</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>296</v>
       </c>
       <c r="B297">
@@ -7583,13 +7810,13 @@
         <v>1.3297410000000001</v>
       </c>
       <c r="L297">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>109.18425478096414</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>297</v>
       </c>
       <c r="B298">
@@ -7602,13 +7829,13 @@
         <v>1.3299110000000001</v>
       </c>
       <c r="L298">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>109.18813989376078</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>298</v>
       </c>
       <c r="B299">
@@ -7621,13 +7848,13 @@
         <v>1.128252</v>
       </c>
       <c r="L299">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>109.18862078914346</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>299</v>
       </c>
       <c r="B300">
@@ -7640,13 +7867,13 @@
         <v>1.229303</v>
       </c>
       <c r="L300">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>109.18909425745495</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="B301">
@@ -7659,13 +7886,13 @@
         <v>1.9649300000000001</v>
       </c>
       <c r="L301">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>109.23901000629444</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>301</v>
       </c>
       <c r="B302">
@@ -7678,13 +7905,13 @@
         <v>2.078182</v>
       </c>
       <c r="L302">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>109.25398376901155</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>302</v>
       </c>
       <c r="B303">
@@ -7697,13 +7924,13 @@
         <v>1.2080059999999999</v>
       </c>
       <c r="L303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>109.63007119553963</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>303</v>
       </c>
       <c r="B304">
@@ -7716,13 +7943,13 @@
         <v>1.018694</v>
       </c>
       <c r="L304">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>110.15789040654489</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>304</v>
       </c>
       <c r="B305">
@@ -7735,13 +7962,13 @@
         <v>0.47046500000000002</v>
       </c>
       <c r="L305">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>110.17852984539725</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>305</v>
       </c>
       <c r="B306">
@@ -7754,13 +7981,13 @@
         <v>1.2959529999999999</v>
       </c>
       <c r="L306">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>110.28940307973966</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>306</v>
       </c>
       <c r="B307">
@@ -7773,13 +8000,13 @@
         <v>1.159524</v>
       </c>
       <c r="L307">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>111.06592590807283</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>307</v>
       </c>
       <c r="B308">
@@ -7792,13 +8019,13 @@
         <v>1.4368179999999999</v>
       </c>
       <c r="L308">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>111.06903032860085</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>308</v>
       </c>
       <c r="B309">
@@ -7811,13 +8038,13 @@
         <v>2.1692209999999998</v>
       </c>
       <c r="L309">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>111.10595053958043</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>309</v>
       </c>
       <c r="B310">
@@ -7830,13 +8057,13 @@
         <v>1.4738819999999999</v>
       </c>
       <c r="L310">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>111.11320066579775</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>310</v>
       </c>
       <c r="B311">
@@ -7849,13 +8076,13 @@
         <v>1.6567460000000001</v>
       </c>
       <c r="L311">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>111.78158976872051</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>311</v>
       </c>
       <c r="B312">
@@ -7868,13 +8095,13 @@
         <v>1.90219</v>
       </c>
       <c r="L312">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>111.79652546173797</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>312</v>
       </c>
       <c r="B313">
@@ -7887,13 +8114,13 @@
         <v>1.073628</v>
       </c>
       <c r="L313">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>111.88959662799438</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>313</v>
       </c>
       <c r="B314">
@@ -7906,13 +8133,13 @@
         <v>0.84337499999999999</v>
       </c>
       <c r="L314">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>112.19266853835441</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>314</v>
       </c>
       <c r="B315">
@@ -7925,13 +8152,13 @@
         <v>1.3068070000000001</v>
       </c>
       <c r="L315">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>112.26997607395799</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>315</v>
       </c>
       <c r="B316">
@@ -7944,13 +8171,13 @@
         <v>1.272864</v>
       </c>
       <c r="L316">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>112.52834021340803</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>316</v>
       </c>
       <c r="B317">
@@ -7963,13 +8190,13 @@
         <v>1.7070609999999999</v>
       </c>
       <c r="L317">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>112.53035293151754</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>317</v>
       </c>
       <c r="B318">
@@ -7982,13 +8209,13 @@
         <v>1.0431889999999999</v>
       </c>
       <c r="L318">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>112.53656336869277</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>318</v>
       </c>
       <c r="B319">
@@ -8001,13 +8228,13 @@
         <v>1.479956</v>
       </c>
       <c r="L319">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>112.66286589914816</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>319</v>
       </c>
       <c r="B320">
@@ -8020,13 +8247,13 @@
         <v>1.3591610000000001</v>
       </c>
       <c r="L320">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>112.75802662825583</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>320</v>
       </c>
       <c r="B321">
@@ -8039,13 +8266,13 @@
         <v>2.265269</v>
       </c>
       <c r="L321">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>112.7744838421529</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>321</v>
       </c>
       <c r="B322">
@@ -8058,13 +8285,13 @@
         <v>2.5526529999999998</v>
       </c>
       <c r="L322">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>112.77453995233489</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>322</v>
       </c>
       <c r="B323">
@@ -8077,13 +8304,13 @@
         <v>1.235771</v>
       </c>
       <c r="L323">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>113.60920248764225</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324">
-        <f t="shared" ref="A324:A387" si="11">1 + $A323</f>
+        <f t="shared" ref="A324:A387" si="14">1 + $A323</f>
         <v>323</v>
       </c>
       <c r="B324">
@@ -8096,13 +8323,13 @@
         <v>1.086185</v>
       </c>
       <c r="L324">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>115.05156186848848</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>324</v>
       </c>
       <c r="B325">
@@ -8115,13 +8342,13 @@
         <v>0.74383699999999997</v>
       </c>
       <c r="L325">
-        <f t="shared" ref="L325:L388" si="12" xml:space="preserve"> ($D323-$J$2)*($D323-$J$2) + $L324</f>
+        <f t="shared" ref="L325:L388" si="15" xml:space="preserve"> ($D323-$J$2)*($D323-$J$2) + $L324</f>
         <v>115.06499452248752</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>325</v>
       </c>
       <c r="B326">
@@ -8134,13 +8361,13 @@
         <v>1.9039820000000001</v>
       </c>
       <c r="L326">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>115.13547698133982</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>326</v>
       </c>
       <c r="B327">
@@ -8153,13 +8380,13 @@
         <v>0.61463100000000004</v>
       </c>
       <c r="L327">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>115.50493833475171</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>327</v>
       </c>
       <c r="B328">
@@ -8172,13 +8399,13 @@
         <v>0.90281500000000003</v>
       </c>
       <c r="L328">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>115.80998651888378</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>328</v>
       </c>
       <c r="B329">
@@ -8191,13 +8418,13 @@
         <v>0.45140799999999998</v>
       </c>
       <c r="L329">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>116.35321348842839</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>329</v>
       </c>
       <c r="B330">
@@ -8210,13 +8437,13 @@
         <v>0.94969499999999996</v>
       </c>
       <c r="L330">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>116.55468459300467</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>330</v>
       </c>
       <c r="B331">
@@ -8229,13 +8456,13 @@
         <v>1.555471</v>
       </c>
       <c r="L331">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>117.36515685042012</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>331</v>
       </c>
       <c r="B332">
@@ -8248,13 +8475,13 @@
         <v>2.6020970000000001</v>
       </c>
       <c r="L332">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>117.52674101393687</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>332</v>
       </c>
       <c r="B333">
@@ -8267,13 +8494,13 @@
         <v>1.629097</v>
       </c>
       <c r="L333">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>117.56827572825212</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>333</v>
       </c>
       <c r="B334">
@@ -8286,13 +8513,13 @@
         <v>1.169942</v>
       </c>
       <c r="L334">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>119.13184259280197</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>334</v>
       </c>
       <c r="B335">
@@ -8305,13 +8532,13 @@
         <v>1.3144899999999999</v>
       </c>
       <c r="L335">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>119.20880815169382</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>335</v>
       </c>
       <c r="B336">
@@ -8324,13 +8551,13 @@
         <v>1.2593350000000001</v>
       </c>
       <c r="L336">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>119.24183333652803</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>336</v>
       </c>
       <c r="B337">
@@ -8343,13 +8570,13 @@
         <v>1.316875</v>
       </c>
       <c r="L337">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>119.24321571324386</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="B338">
@@ -8362,13 +8589,13 @@
         <v>8.2505740000000003</v>
       </c>
       <c r="L338">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>119.25174152585605</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>338</v>
       </c>
       <c r="B339">
@@ -8381,13 +8608,13 @@
         <v>0.78446800000000005</v>
       </c>
       <c r="L339">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>119.25295224063709</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>339</v>
       </c>
       <c r="B340">
@@ -8400,13 +8627,13 @@
         <v>1.1708730000000001</v>
       </c>
       <c r="L340">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>166.84782412996998</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>340</v>
       </c>
       <c r="B341">
@@ -8419,13 +8646,13 @@
         <v>1.103861</v>
       </c>
       <c r="L341">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>167.1695426097242</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>341</v>
       </c>
       <c r="B342">
@@ -8438,13 +8665,13 @@
         <v>2.0328529999999998</v>
       </c>
       <c r="L342">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>167.20223028317454</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>342</v>
       </c>
       <c r="B343">
@@ -8457,13 +8684,13 @@
         <v>1.0299050000000001</v>
       </c>
       <c r="L343">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>167.26363974572274</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>343</v>
       </c>
       <c r="B344">
@@ -8476,13 +8703,13 @@
         <v>1.125092</v>
       </c>
       <c r="L344">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>167.72764957971816</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>344</v>
       </c>
       <c r="B345">
@@ -8495,13 +8722,13 @@
         <v>1.8346549999999999</v>
       </c>
       <c r="L345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>167.83118250537757</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>345</v>
       </c>
       <c r="B346">
@@ -8514,13 +8741,13 @@
         <v>2.7690320000000002</v>
       </c>
       <c r="L346">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>167.88252024364368</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>346</v>
       </c>
       <c r="B347">
@@ -8533,13 +8760,13 @@
         <v>3.4699010000000001</v>
       </c>
       <c r="L347">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>168.11579443799661</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>347</v>
       </c>
       <c r="B348">
@@ -8552,13 +8779,13 @@
         <v>1.1267849999999999</v>
       </c>
       <c r="L348">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>170.12470855008598</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>348</v>
       </c>
       <c r="B349">
@@ -8571,13 +8798,13 @@
         <v>1.1732860000000001</v>
       </c>
       <c r="L349">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>174.61160973412402</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>349</v>
       </c>
       <c r="B350">
@@ -8590,13 +8817,13 @@
         <v>1.6021319999999999</v>
       </c>
       <c r="L350">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>174.66218314442392</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>350</v>
       </c>
       <c r="B351">
@@ -8609,13 +8836,13 @@
         <v>1.7449129999999999</v>
       </c>
       <c r="L351">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>174.69400411254315</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>351</v>
       </c>
       <c r="B352">
@@ -8628,13 +8855,13 @@
         <v>1.081053</v>
       </c>
       <c r="L352">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>174.75673516218512</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>352</v>
       </c>
       <c r="B353">
@@ -8647,13 +8874,13 @@
         <v>1.5362340000000001</v>
       </c>
       <c r="L353">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>174.91137496205332</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>353</v>
       </c>
       <c r="B354">
@@ -8666,13 +8893,13 @@
         <v>0.76337500000000003</v>
       </c>
       <c r="L354">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>174.98460869972595</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>354</v>
       </c>
       <c r="B355">
@@ -8685,13 +8912,13 @@
         <v>1.161146</v>
       </c>
       <c r="L355">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>175.01867244911722</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>355</v>
       </c>
       <c r="B356">
@@ -8704,13 +8931,13 @@
         <v>0.91251099999999996</v>
       </c>
       <c r="L356">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>175.36476384088726</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>356</v>
       </c>
       <c r="B357">
@@ -8723,13 +8950,13 @@
         <v>1.2993129999999999</v>
       </c>
       <c r="L357">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>175.40106336006608</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>357</v>
       </c>
       <c r="B358">
@@ -8742,13 +8969,13 @@
         <v>0.506749</v>
       </c>
       <c r="L358">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>175.59392427455717</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>358</v>
       </c>
       <c r="B359">
@@ -8761,13 +8988,13 @@
         <v>1.439351</v>
       </c>
       <c r="L359">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>175.59666556424776</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>359</v>
       </c>
       <c r="B360">
@@ -8780,13 +9007,13 @@
         <v>1.36683</v>
       </c>
       <c r="L360">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.3105576130672</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>360</v>
       </c>
       <c r="B361">
@@ -8799,13 +9026,13 @@
         <v>1.011522</v>
       </c>
       <c r="L361">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.31824551348492</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>361</v>
       </c>
       <c r="B362">
@@ -8818,13 +9045,13 @@
         <v>1.399294</v>
       </c>
       <c r="L362">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.31847532917038</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>362</v>
       </c>
       <c r="B363">
@@ -8837,13 +9064,13 @@
         <v>1.1550560000000001</v>
       </c>
       <c r="L363">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.43417621353129</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>363</v>
       </c>
       <c r="B364">
@@ -8856,13 +9083,13 @@
         <v>0.821295</v>
       </c>
       <c r="L364">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.43644422776129</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>364</v>
       </c>
       <c r="B365">
@@ -8875,13 +9102,13 @@
         <v>1.0616570000000001</v>
       </c>
       <c r="L365">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.47510142134294</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>365</v>
       </c>
       <c r="B366">
@@ -8894,13 +9121,13 @@
         <v>1.320416</v>
       </c>
       <c r="L366">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.75639940883329</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>366</v>
       </c>
       <c r="B367">
@@ -8913,13 +9140,13 @@
         <v>1.2430110000000001</v>
       </c>
       <c r="L367">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.84050713867089</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>367</v>
       </c>
       <c r="B368">
@@ -8932,13 +9159,13 @@
         <v>1.363985</v>
       </c>
       <c r="L368">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.8414839716271</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>368</v>
       </c>
       <c r="B369">
@@ -8951,13 +9178,13 @@
         <v>1.645832</v>
       </c>
       <c r="L369">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.85329082097118</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>369</v>
       </c>
       <c r="B370">
@@ -8970,13 +9197,13 @@
         <v>1.300905</v>
       </c>
       <c r="L370">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.85344247214229</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>370</v>
       </c>
       <c r="B371">
@@ -8989,13 +9216,13 @@
         <v>1.389351</v>
       </c>
       <c r="L371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.93997356200444</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>371</v>
       </c>
       <c r="B372">
@@ -9008,13 +9235,13 @@
         <v>1.811974</v>
       </c>
       <c r="L372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.94255068042986</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>372</v>
       </c>
       <c r="B373">
@@ -9027,13 +9254,13 @@
         <v>0.97011700000000001</v>
       </c>
       <c r="L373">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.94397051354758</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>373</v>
       </c>
       <c r="B374">
@@ -9046,13 +9273,13 @@
         <v>1.3149010000000001</v>
       </c>
       <c r="L374">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>177.15584998492488</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>374</v>
       </c>
       <c r="B375">
@@ -9065,13 +9292,13 @@
         <v>1.781272</v>
       </c>
       <c r="L375">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>177.30143292626965</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>375</v>
       </c>
       <c r="B376">
@@ -9084,13 +9311,13 @@
         <v>1.188774</v>
       </c>
       <c r="L376">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>177.30278490967768</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>376</v>
       </c>
       <c r="B377">
@@ -9103,13 +9330,13 @@
         <v>1.0971200000000001</v>
       </c>
       <c r="L377">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>177.48734250712209</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>377</v>
       </c>
       <c r="B378">
@@ -9122,13 +9349,13 @@
         <v>2.1457899999999999</v>
       </c>
       <c r="L378">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>177.51387772047218</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>378</v>
       </c>
       <c r="B379">
@@ -9141,13 +9368,13 @@
         <v>0.73529900000000004</v>
       </c>
       <c r="L379">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>177.57867358944799</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>379</v>
       </c>
       <c r="B380">
@@ -9160,13 +9387,13 @@
         <v>1.1093</v>
       </c>
       <c r="L380">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>178.20929964449363</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>380</v>
       </c>
       <c r="B381">
@@ -9179,13 +9406,13 @@
         <v>2.2319170000000002</v>
       </c>
       <c r="L381">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>178.58921325724137</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>381</v>
       </c>
       <c r="B382">
@@ -9198,13 +9425,13 @@
         <v>1.199346</v>
       </c>
       <c r="L382">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>178.64795663265144</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>382</v>
       </c>
       <c r="B383">
@@ -9217,13 +9444,13 @@
         <v>1.650736</v>
       </c>
       <c r="L383">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>179.42279083797902</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>383</v>
       </c>
       <c r="B384">
@@ -9236,13 +9463,13 @@
         <v>1.516559</v>
       </c>
       <c r="L384">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>179.44599353857504</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>384</v>
       </c>
       <c r="B385">
@@ -9255,13 +9482,13 @@
         <v>0.40026899999999999</v>
       </c>
       <c r="L385">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>179.53543381534197</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>385</v>
       </c>
       <c r="B386">
@@ -9274,13 +9501,13 @@
         <v>0.98482199999999998</v>
       </c>
       <c r="L386">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>179.56262208982568</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>386</v>
       </c>
       <c r="B387">
@@ -9293,13 +9520,13 @@
         <v>1.062443</v>
       </c>
       <c r="L387">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>180.46778657484305</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
-        <f t="shared" ref="A388:A451" si="13">1 + $A387</f>
+        <f t="shared" ref="A388:A451" si="16">1 + $A387</f>
         <v>387</v>
       </c>
       <c r="B388">
@@ -9312,13 +9539,13 @@
         <v>0.77495499999999995</v>
       </c>
       <c r="L388">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>180.60236426986575</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>388</v>
       </c>
       <c r="B389">
@@ -9331,13 +9558,13 @@
         <v>1.6497710000000001</v>
       </c>
       <c r="L389">
-        <f t="shared" ref="L389:L452" si="14" xml:space="preserve"> ($D387-$J$2)*($D387-$J$2) + $L388</f>
+        <f t="shared" ref="L389:L452" si="17" xml:space="preserve"> ($D387-$J$2)*($D387-$J$2) + $L388</f>
         <v>180.68601671654932</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>389</v>
       </c>
       <c r="B390">
@@ -9350,13 +9577,13 @@
         <v>1.7739819999999999</v>
       </c>
       <c r="L390">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>181.01861728494603</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>390</v>
       </c>
       <c r="B391">
@@ -9369,13 +9596,13 @@
         <v>1.265353</v>
       </c>
       <c r="L391">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>181.10748129618909</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>391</v>
       </c>
       <c r="B392">
@@ -9388,13 +9615,13 @@
         <v>0.55178899999999997</v>
       </c>
       <c r="L392">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>181.28582844534114</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>392</v>
       </c>
       <c r="B393">
@@ -9407,13 +9634,13 @@
         <v>1.5165569999999999</v>
       </c>
       <c r="L393">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>181.29327912628156</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>393</v>
       </c>
       <c r="B394">
@@ -9426,13 +9653,13 @@
         <v>1.197155</v>
       </c>
       <c r="L394">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>181.93308926356485</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>394</v>
       </c>
       <c r="B395">
@@ -9445,13 +9672,13 @@
         <v>1.687405</v>
       </c>
       <c r="L395">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>181.96027687849787</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>395</v>
       </c>
       <c r="B396">
@@ -9464,13 +9691,13 @@
         <v>0.86551800000000001</v>
       </c>
       <c r="L396">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>181.98415186477578</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>396</v>
       </c>
       <c r="B397">
@@ -9483,13 +9710,13 @@
         <v>1.5663119999999999</v>
       </c>
       <c r="L397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.09686963543021</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>397</v>
       </c>
       <c r="B398">
@@ -9502,13 +9729,13 @@
         <v>1.275541</v>
       </c>
       <c r="L398">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.33321372047772</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>398</v>
       </c>
       <c r="B399">
@@ -9521,13 +9748,13 @@
         <v>1.366425</v>
       </c>
       <c r="L399">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.37928476826596</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>399</v>
       </c>
       <c r="B400">
@@ -9540,13 +9767,13 @@
         <v>0.92623200000000006</v>
       </c>
       <c r="L400">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.38508044269543</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>400</v>
       </c>
       <c r="B401">
@@ -9559,13 +9786,13 @@
         <v>1.0705439999999999</v>
       </c>
       <c r="L401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.38529814307077</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>401</v>
       </c>
       <c r="B402">
@@ -9578,13 +9805,13 @@
         <v>1.3997250000000001</v>
       </c>
       <c r="L402">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.56629591315132</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>402</v>
       </c>
       <c r="B403">
@@ -9597,13 +9824,13 @@
         <v>1.273962</v>
       </c>
       <c r="L403">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.64532792488384</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>403</v>
       </c>
       <c r="B404">
@@ -9616,13 +9843,13 @@
         <v>1.4522839999999999</v>
       </c>
       <c r="L404">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.64763717648097</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>404</v>
       </c>
       <c r="B405">
@@ -9635,13 +9862,13 @@
         <v>1.485957</v>
       </c>
       <c r="L405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.6536757605661</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>405</v>
       </c>
       <c r="B406">
@@ -9654,13 +9881,13 @@
         <v>0.87165899999999996</v>
       </c>
       <c r="L406">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.66379887176066</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>406</v>
       </c>
       <c r="B407">
@@ -9673,13 +9900,13 @@
         <v>1.47699</v>
       </c>
       <c r="L407">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.68183178230606</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>407</v>
       </c>
       <c r="B408">
@@ -9692,13 +9919,13 @@
         <v>1.692021</v>
       </c>
       <c r="L408">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.91224265635435</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>408</v>
       </c>
       <c r="B409">
@@ -9711,13 +9938,13 @@
         <v>1.01004</v>
       </c>
       <c r="L409">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>182.92794767679518</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>409</v>
       </c>
       <c r="B410">
@@ -9730,13 +9957,13 @@
         <v>1.5289029999999999</v>
       </c>
       <c r="L410">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>183.04378625740674</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>410</v>
       </c>
       <c r="B411">
@@ -9749,13 +9976,13 @@
         <v>0.40895700000000001</v>
       </c>
       <c r="L411">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>183.16049753773285</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>411</v>
       </c>
       <c r="B412">
@@ -9768,13 +9995,13 @@
         <v>2.5636139999999998</v>
       </c>
       <c r="L412">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>183.19190895811158</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>412</v>
       </c>
       <c r="B413">
@@ -9787,13 +10014,13 @@
         <v>1.287347</v>
       </c>
       <c r="L413">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>184.08061737501498</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>413</v>
       </c>
       <c r="B414">
@@ -9806,13 +10033,13 @@
         <v>1.9570559999999999</v>
       </c>
       <c r="L414">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>185.54942484153972</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>414</v>
       </c>
       <c r="B415">
@@ -9825,13 +10052,13 @@
         <v>1.0546759999999999</v>
       </c>
       <c r="L415">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>185.55356233193606</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>415</v>
       </c>
       <c r="B416">
@@ -9844,13 +10071,13 @@
         <v>1.2508790000000001</v>
       </c>
       <c r="L416">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>185.92005414500971</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>416</v>
       </c>
       <c r="B417">
@@ -9863,13 +10090,13 @@
         <v>1.2303059999999999</v>
       </c>
       <c r="L417">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>186.0082597752799</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>417</v>
       </c>
       <c r="B418">
@@ -9882,13 +10109,13 @@
         <v>2.2125880000000002</v>
       </c>
       <c r="L418">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>186.01841866687832</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>418</v>
       </c>
       <c r="B419">
@@ -9901,13 +10128,13 @@
         <v>1.314479</v>
       </c>
       <c r="L419">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>186.03314796674647</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>419</v>
       </c>
       <c r="B420">
@@ -9920,13 +10147,13 @@
         <v>1.1869890000000001</v>
       </c>
       <c r="L420">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>186.7743272064302</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>420</v>
       </c>
       <c r="B421">
@@ -9939,13 +10166,13 @@
         <v>1.2328749999999999</v>
       </c>
       <c r="L421">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>186.77571040123422</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>421</v>
       </c>
       <c r="B422">
@@ -9958,13 +10185,13 @@
         <v>0.957762</v>
       </c>
       <c r="L422">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>186.80283034069672</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>422</v>
       </c>
       <c r="B423">
@@ -9977,13 +10204,13 @@
         <v>1.177692</v>
       </c>
       <c r="L423">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>186.81694267041377</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>423</v>
       </c>
       <c r="B424">
@@ -9996,13 +10223,13 @@
         <v>1.05985</v>
       </c>
       <c r="L424">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>186.97210644049372</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>424</v>
       </c>
       <c r="B425">
@@ -10015,13 +10242,13 @@
         <v>1.0356050000000001</v>
       </c>
       <c r="L425">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.00237489875943</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>425</v>
       </c>
       <c r="B426">
@@ -10034,13 +10261,13 @@
         <v>1.1784019999999999</v>
       </c>
       <c r="L426">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.08753400200982</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>426</v>
       </c>
       <c r="B427">
@@ -10053,13 +10280,13 @@
         <v>1.2301759999999999</v>
       </c>
       <c r="L427">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.18743129294143</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>427</v>
       </c>
       <c r="B428">
@@ -10072,13 +10299,13 @@
         <v>1.2577199999999999</v>
       </c>
       <c r="L428">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.21745320608281</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>428</v>
       </c>
       <c r="B429">
@@ -10091,13 +10318,13 @@
         <v>1.3200799999999999</v>
       </c>
       <c r="L429">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.232214077576</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>429</v>
       </c>
       <c r="B430">
@@ -10110,13 +10337,13 @@
         <v>1.034348</v>
       </c>
       <c r="L430">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.24104074151941</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>430</v>
       </c>
       <c r="B431">
@@ -10129,13 +10356,13 @@
         <v>1.199748</v>
       </c>
       <c r="L431">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.24203869027937</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>431</v>
       </c>
       <c r="B432">
@@ -10148,13 +10375,13 @@
         <v>2.028206</v>
       </c>
       <c r="L432">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.34273214949206</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>432</v>
       </c>
       <c r="B433">
@@ -10167,13 +10394,13 @@
         <v>1.69157</v>
       </c>
       <c r="L433">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.36581254293316</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>433</v>
       </c>
       <c r="B434">
@@ -10186,13 +10413,13 @@
         <v>2.1144620000000001</v>
       </c>
       <c r="L434">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.82351305977471</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>434</v>
       </c>
       <c r="B435">
@@ -10205,13 +10432,13 @@
         <v>1.0571079999999999</v>
       </c>
       <c r="L435">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>187.93904484748023</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>435</v>
       </c>
       <c r="B436">
@@ -10224,13 +10451,13 @@
         <v>1.83799</v>
       </c>
       <c r="L436">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>188.52089598387838</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>436</v>
       </c>
       <c r="B437">
@@ -10243,13 +10470,13 @@
         <v>1.2253270000000001</v>
       </c>
       <c r="L437">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>188.60766294836603</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>437</v>
       </c>
       <c r="B438">
@@ -10262,13 +10489,13 @@
         <v>1.402501</v>
       </c>
       <c r="L438">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>188.84416977271286</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>438</v>
       </c>
       <c r="B439">
@@ -10281,13 +10508,13 @@
         <v>1.0476890000000001</v>
       </c>
       <c r="L439">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>188.8601324089903</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>439</v>
       </c>
       <c r="B440">
@@ -10300,13 +10527,13 @@
         <v>2.3508460000000002</v>
       </c>
       <c r="L440">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>188.86271616630793</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>440</v>
       </c>
       <c r="B441">
@@ -10319,13 +10546,13 @@
         <v>0.99316000000000004</v>
       </c>
       <c r="L441">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>188.9551208134726</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>441</v>
       </c>
       <c r="B442">
@@ -10338,13 +10565,13 @@
         <v>1.14724</v>
       </c>
       <c r="L442">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>189.95347283898761</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>442</v>
       </c>
       <c r="B443">
@@ -10357,13 +10584,13 @@
         <v>1.251865</v>
       </c>
       <c r="L443">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>190.08200249355326</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>443</v>
       </c>
       <c r="B444">
@@ -10376,13 +10603,13 @@
         <v>0.77424300000000001</v>
       </c>
       <c r="L444">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>190.12379425215059</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>444</v>
       </c>
       <c r="B445">
@@ -10395,13 +10622,13 @@
         <v>1.212315</v>
       </c>
       <c r="L445">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>190.13375535544816</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>445</v>
       </c>
       <c r="B446">
@@ -10414,13 +10641,13 @@
         <v>1.1486080000000001</v>
       </c>
       <c r="L446">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>190.46717767341451</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>446</v>
       </c>
       <c r="B447">
@@ -10433,13 +10660,13 @@
         <v>1.6357870000000001</v>
       </c>
       <c r="L447">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>190.48659758057778</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>447</v>
       </c>
       <c r="B448">
@@ -10452,13 +10679,13 @@
         <v>1.2693209999999999</v>
       </c>
       <c r="L448">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>190.52783188922444</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>448</v>
       </c>
       <c r="B449">
@@ -10471,13 +10698,13 @@
         <v>2.434377</v>
       </c>
       <c r="L449">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>190.60855417310103</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>449</v>
       </c>
       <c r="B450">
@@ -10490,13 +10717,13 @@
         <v>1.241371</v>
       </c>
       <c r="L450">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>190.61533558475838</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A451">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>450</v>
       </c>
       <c r="B451">
@@ -10509,13 +10736,13 @@
         <v>1.3034410000000001</v>
       </c>
       <c r="L451">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>191.78758932451711</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A452">
-        <f t="shared" ref="A452:A514" si="15">1 + $A451</f>
+        <f t="shared" ref="A452:A514" si="18">1 + $A451</f>
         <v>451</v>
       </c>
       <c r="B452">
@@ -10528,13 +10755,13 @@
         <v>1.305677</v>
       </c>
       <c r="L452">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>191.79975526605378</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>452</v>
       </c>
       <c r="B453">
@@ -10547,13 +10774,13 @@
         <v>0.72760899999999995</v>
       </c>
       <c r="L453">
-        <f t="shared" ref="L453:L514" si="16" xml:space="preserve"> ($D451-$J$2)*($D451-$J$2) + $L452</f>
+        <f t="shared" ref="L453:L514" si="19" xml:space="preserve"> ($D451-$J$2)*($D451-$J$2) + $L452</f>
         <v>191.80208133403664</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>453</v>
       </c>
       <c r="B454">
@@ -10566,13 +10793,13 @@
         <v>1.4704600000000001</v>
       </c>
       <c r="L454">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>191.80419672016518</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>454</v>
       </c>
       <c r="B455">
@@ -10585,13 +10812,13 @@
         <v>1.6305069999999999</v>
       </c>
       <c r="L455">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>192.19364926002217</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>455</v>
       </c>
       <c r="B456">
@@ -10604,13 +10831,13 @@
         <v>2.1412840000000002</v>
       </c>
       <c r="L456">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>192.20776024643362</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>456</v>
       </c>
       <c r="B457">
@@ -10623,13 +10850,13 @@
         <v>1.9103600000000001</v>
       </c>
       <c r="L457">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>192.28551013664332</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>457</v>
       </c>
       <c r="B458">
@@ -10642,13 +10869,13 @@
         <v>1.4716849999999999</v>
       </c>
       <c r="L458">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>192.90899988923186</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>458</v>
       </c>
       <c r="B459">
@@ -10661,13 +10888,13 @@
         <v>1.021193</v>
       </c>
       <c r="L459">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.22113403994871</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>459</v>
       </c>
       <c r="B460">
@@ -10680,13 +10907,13 @@
         <v>1.179403</v>
       </c>
       <c r="L460">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.235537561684</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>460</v>
       </c>
       <c r="B461">
@@ -10699,13 +10926,13 @@
         <v>1.698248</v>
       </c>
       <c r="L461">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.34475282534507</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>461</v>
       </c>
       <c r="B462">
@@ -10718,13 +10945,13 @@
         <v>1.1883520000000001</v>
       </c>
       <c r="L462">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.37442885729681</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>462</v>
       </c>
       <c r="B463">
@@ -10737,13 +10964,13 @@
         <v>0.98522399999999999</v>
       </c>
       <c r="L463">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.4945449407189</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>463</v>
       </c>
       <c r="B464">
@@ -10756,13 +10983,13 @@
         <v>1.1050599999999999</v>
       </c>
       <c r="L464">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.52121781665298</v>
       </c>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>464</v>
       </c>
       <c r="B465">
@@ -10775,13 +11002,13 @@
         <v>1.7972090000000001</v>
       </c>
       <c r="L465">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.65550072722476</v>
       </c>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>465</v>
       </c>
       <c r="B466">
@@ -10794,13 +11021,13 @@
         <v>1.2435560000000001</v>
       </c>
       <c r="L466">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.71631738060782</v>
       </c>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>466</v>
       </c>
       <c r="B467">
@@ -10813,13 +11040,13 @@
         <v>1.3200909999999999</v>
       </c>
       <c r="L467">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.91482208974642</v>
       </c>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>467</v>
       </c>
       <c r="B468">
@@ -10832,13 +11059,13 @@
         <v>1.410809</v>
       </c>
       <c r="L468">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.92651079744908</v>
       </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>468</v>
       </c>
       <c r="B469">
@@ -10851,13 +11078,13 @@
         <v>1.507064</v>
       </c>
       <c r="L469">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.92750805134287</v>
       </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>469</v>
       </c>
       <c r="B470">
@@ -10870,13 +11097,13 @@
         <v>0.82626699999999997</v>
       </c>
       <c r="L470">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.93100543398708</v>
       </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>470</v>
       </c>
       <c r="B471">
@@ -10889,13 +11116,13 @@
         <v>1.2669980000000001</v>
       </c>
       <c r="L471">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>193.95515262759551</v>
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>471</v>
       </c>
       <c r="B472">
@@ -10908,13 +11135,13 @@
         <v>0.67721799999999999</v>
       </c>
       <c r="L472">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>194.23120128361819</v>
       </c>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>472</v>
       </c>
       <c r="B473">
@@ -10927,13 +11154,13 @@
         <v>1.0005409999999999</v>
       </c>
       <c r="L473">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>194.23837068657778</v>
       </c>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>473</v>
       </c>
       <c r="B474">
@@ -10946,13 +11173,13 @@
         <v>0.963696</v>
       </c>
       <c r="L474">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>194.69325662797348</v>
       </c>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>474</v>
       </c>
       <c r="B475">
@@ -10965,13 +11192,13 @@
         <v>1.1309849999999999</v>
       </c>
       <c r="L475">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>194.81654843225294</v>
       </c>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>475</v>
       </c>
       <c r="B476">
@@ -10984,13 +11211,13 @@
         <v>1.299096</v>
       </c>
       <c r="L476">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>194.96707251066405</v>
       </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>476</v>
       </c>
       <c r="B477">
@@ -11003,13 +11230,13 @@
         <v>2.2592970000000001</v>
       </c>
       <c r="L477">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>195.01577452421716</v>
       </c>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>477</v>
       </c>
       <c r="B478">
@@ -11022,13 +11249,13 @@
         <v>1.10866</v>
       </c>
       <c r="L478">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>195.01853858407668</v>
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>478</v>
       </c>
       <c r="B479">
@@ -11041,13 +11268,13 @@
         <v>1.1250100000000001</v>
       </c>
       <c r="L479">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>195.84232476161773</v>
       </c>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>479</v>
       </c>
       <c r="B480">
@@ -11060,13 +11287,13 @@
         <v>1.8486279999999999</v>
       </c>
       <c r="L480">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>195.90137878064638</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>480</v>
       </c>
       <c r="B481">
@@ -11079,13 +11306,13 @@
         <v>0.87684799999999996</v>
       </c>
       <c r="L481">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>195.95275368448213</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>481</v>
       </c>
       <c r="B482">
@@ -11098,13 +11325,13 @@
         <v>1.061563</v>
       </c>
       <c r="L482">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>196.19972061323571</v>
       </c>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>482</v>
       </c>
       <c r="B483">
@@ -11117,13 +11344,13 @@
         <v>0.78680000000000005</v>
       </c>
       <c r="L483">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>196.4251768554534</v>
       </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>483</v>
       </c>
       <c r="B484">
@@ -11136,13 +11363,13 @@
         <v>0.98456200000000005</v>
       </c>
       <c r="L484">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>196.50933911663247</v>
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>484</v>
       </c>
       <c r="B485">
@@ -11155,13 +11382,13 @@
         <v>2.1248260000000001</v>
       </c>
       <c r="L485">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>196.82841760295756</v>
       </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>485</v>
       </c>
       <c r="B486">
@@ -11174,13 +11401,13 @@
         <v>1.3853329999999999</v>
       </c>
       <c r="L486">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>196.9631861267103</v>
       </c>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>486</v>
       </c>
       <c r="B487">
@@ -11193,13 +11420,13 @@
         <v>1.1510959999999999</v>
       </c>
       <c r="L487">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>197.56095582140239</v>
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>487</v>
       </c>
       <c r="B488">
@@ -11212,13 +11439,13 @@
         <v>0.42557800000000001</v>
       </c>
       <c r="L488">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>197.56208899695588</v>
       </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>488</v>
       </c>
       <c r="B489">
@@ -11231,13 +11458,13 @@
         <v>0.81670500000000001</v>
       </c>
       <c r="L489">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>197.60231905760739</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>489</v>
       </c>
       <c r="B490">
@@ -11250,13 +11477,13 @@
         <v>1.3269519999999999</v>
       </c>
       <c r="L490">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>198.45996605573566</v>
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>490</v>
       </c>
       <c r="B491">
@@ -11269,13 +11496,13 @@
         <v>1.167297</v>
       </c>
       <c r="L491">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>198.74615395682787</v>
       </c>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>491</v>
       </c>
       <c r="B492">
@@ -11288,13 +11515,13 @@
         <v>1.2730319999999999</v>
       </c>
       <c r="L492">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>198.74676495251754</v>
       </c>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>492</v>
       </c>
       <c r="B493">
@@ -11307,13 +11534,13 @@
         <v>1.5641290000000001</v>
       </c>
       <c r="L493">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>198.78075847622659</v>
       </c>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>493</v>
       </c>
       <c r="B494">
@@ -11326,13 +11553,13 @@
         <v>0.90326200000000001</v>
       </c>
       <c r="L494">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>198.78694246269995</v>
       </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>494</v>
       </c>
       <c r="B495">
@@ -11345,13 +11572,13 @@
         <v>1.3741890000000001</v>
       </c>
       <c r="L495">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>198.83208115043288</v>
       </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>495</v>
       </c>
       <c r="B496">
@@ -11364,13 +11591,13 @@
         <v>1.6851700000000001</v>
       </c>
       <c r="L496">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.03315117815583</v>
       </c>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>496</v>
       </c>
       <c r="B497">
@@ -11383,13 +11610,13 @@
         <v>0.96197100000000002</v>
       </c>
       <c r="L497">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.03365826878951</v>
       </c>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>497</v>
       </c>
       <c r="B498">
@@ -11402,13 +11629,13 @@
         <v>1.517425</v>
       </c>
       <c r="L498">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.14488030068063</v>
       </c>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>498</v>
       </c>
       <c r="B499">
@@ -11421,13 +11648,13 @@
         <v>1.2024330000000001</v>
       </c>
       <c r="L499">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.29674586614487</v>
       </c>
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>499</v>
       </c>
       <c r="B500">
@@ -11440,13 +11667,13 @@
         <v>1.260734</v>
       </c>
       <c r="L500">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.3242204777662</v>
       </c>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="B501">
@@ -11459,13 +11686,13 @@
         <v>1.365615</v>
       </c>
       <c r="L501">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.34649225753631</v>
       </c>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>501</v>
       </c>
       <c r="B502">
@@ -11478,13 +11705,13 @@
         <v>1.253471</v>
       </c>
       <c r="L502">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.35476167310458</v>
       </c>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>502</v>
       </c>
       <c r="B503">
@@ -11497,13 +11724,13 @@
         <v>1.088522</v>
       </c>
       <c r="L503">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.35495612700964</v>
       </c>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>503</v>
       </c>
       <c r="B504">
@@ -11516,13 +11743,13 @@
         <v>1.273873</v>
       </c>
       <c r="L504">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.36459923483289</v>
       </c>
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>504</v>
       </c>
       <c r="B505">
@@ -11535,13 +11762,13 @@
         <v>0.92892600000000003</v>
       </c>
       <c r="L505">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.43384627683579</v>
       </c>
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>505</v>
       </c>
       <c r="B506">
@@ -11554,13 +11781,13 @@
         <v>1.255098</v>
       </c>
       <c r="L506">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.43989870092415</v>
       </c>
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>506</v>
       </c>
       <c r="B507">
@@ -11573,13 +11800,13 @@
         <v>1.641494</v>
       </c>
       <c r="L507">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.61861146693482</v>
       </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>507</v>
       </c>
       <c r="B508">
@@ -11592,13 +11819,13 @@
         <v>1.18909</v>
       </c>
       <c r="L508">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.62793768127702</v>
       </c>
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>508</v>
       </c>
       <c r="B509">
@@ -11611,13 +11838,13 @@
         <v>1.268734</v>
       </c>
       <c r="L509">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.71193544270824</v>
       </c>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>509</v>
       </c>
       <c r="B510">
@@ -11630,13 +11857,13 @@
         <v>1.153014</v>
       </c>
       <c r="L510">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.73836780543567</v>
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>510</v>
       </c>
       <c r="B511">
@@ -11649,13 +11876,13 @@
         <v>0.58267899999999995</v>
       </c>
       <c r="L511">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.74524623977192</v>
       </c>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>511</v>
       </c>
       <c r="B512">
@@ -11668,13 +11895,13 @@
         <v>0.30243100000000001</v>
       </c>
       <c r="L512">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199.78471057602906</v>
       </c>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>512</v>
       </c>
       <c r="B513">
@@ -11687,13 +11914,13 @@
         <v>0.40859699999999999</v>
       </c>
       <c r="L513">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>200.37605823703026</v>
       </c>
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>513</v>
       </c>
       <c r="B514">
@@ -11706,12 +11933,12 @@
         <v>1.0898950000000001</v>
       </c>
       <c r="L514">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>201.47696140235368</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="F5:F22">
+  <sortState ref="F5:F29">
     <sortCondition ref="F5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
